--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Veda\VEDA_Models\NZ_TIMES_model-v82\SubRES_Tmpl\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ishwarc\Documents\2018 Electricity Generation\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DB098A20-6F2F-4F9F-9EE8-AC4AFF5ECA69}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="17790" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="OTH_COM" sheetId="9" r:id="rId1"/>
@@ -23,7 +22,7 @@
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OTH_COM!$C$3:$X$281</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="162913"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -31,7 +30,6 @@
         <xcalcf:feature name="microsoft.com:Single"/>
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -2081,7 +2079,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
   <numFmts count="2">
     <numFmt numFmtId="164" formatCode="\Te\x\t"/>
     <numFmt numFmtId="165" formatCode="0.0"/>
@@ -2283,7 +2281,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="68">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2393,22 +2391,19 @@
     <xf numFmtId="2" fontId="1" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="4" applyBorder="1"/>
-    <xf numFmtId="2" fontId="11" fillId="6" borderId="0" xfId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
   </cellXfs>
   <cellStyles count="12">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
-    <cellStyle name="Normal 10" xfId="1" xr:uid="{00000000-0005-0000-0000-000001000000}"/>
-    <cellStyle name="Normal 10 5" xfId="6" xr:uid="{00000000-0005-0000-0000-000002000000}"/>
-    <cellStyle name="Normal 29" xfId="4" xr:uid="{00000000-0005-0000-0000-000003000000}"/>
-    <cellStyle name="Normal 29 2" xfId="9" xr:uid="{00000000-0005-0000-0000-000004000000}"/>
-    <cellStyle name="Normal 30" xfId="7" xr:uid="{00000000-0005-0000-0000-000005000000}"/>
-    <cellStyle name="Normal 30 2" xfId="8" xr:uid="{00000000-0005-0000-0000-000006000000}"/>
-    <cellStyle name="Normal 30 2 2" xfId="11" xr:uid="{00000000-0005-0000-0000-000007000000}"/>
-    <cellStyle name="Normal 30 3" xfId="10" xr:uid="{00000000-0005-0000-0000-000008000000}"/>
-    <cellStyle name="Normal 4 10" xfId="5" xr:uid="{00000000-0005-0000-0000-000009000000}"/>
-    <cellStyle name="Normale_B2020" xfId="2" xr:uid="{00000000-0005-0000-0000-00000A000000}"/>
+    <cellStyle name="Normal 10" xfId="1"/>
+    <cellStyle name="Normal 10 5" xfId="6"/>
+    <cellStyle name="Normal 29" xfId="4"/>
+    <cellStyle name="Normal 29 2" xfId="9"/>
+    <cellStyle name="Normal 30" xfId="7"/>
+    <cellStyle name="Normal 30 2" xfId="8"/>
+    <cellStyle name="Normal 30 2 2" xfId="11"/>
+    <cellStyle name="Normal 30 3" xfId="10"/>
+    <cellStyle name="Normal 4 10" xfId="5"/>
+    <cellStyle name="Normale_B2020" xfId="2"/>
     <cellStyle name="Percent" xfId="3" builtinId="5"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -2635,23 +2630,6 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -2687,23 +2665,6 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
-        <a:font script="Armn" typeface="Arial"/>
-        <a:font script="Bugi" typeface="Leelawadee UI"/>
-        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
-        <a:font script="Java" typeface="Javanese Text"/>
-        <a:font script="Lisu" typeface="Segoe UI"/>
-        <a:font script="Mymr" typeface="Myanmar Text"/>
-        <a:font script="Nkoo" typeface="Ebrima"/>
-        <a:font script="Olck" typeface="Nirmala UI"/>
-        <a:font script="Osma" typeface="Ebrima"/>
-        <a:font script="Phag" typeface="Phagspa"/>
-        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
-        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
-        <a:font script="Syre" typeface="Estrangelo Edessa"/>
-        <a:font script="Sora" typeface="Nirmala UI"/>
-        <a:font script="Tale" typeface="Microsoft Tai Le"/>
-        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
-        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -2879,16 +2840,15 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <sheetPr filterMode="1"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="C3:X1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G6" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="J6" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="V253" sqref="V253"/>
+      <selection pane="bottomRight" activeCell="AB23" sqref="AB23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2914,7 +2874,7 @@
       </c>
       <c r="G3" s="1"/>
     </row>
-    <row r="4" spans="3:24" ht="22.5" hidden="1" x14ac:dyDescent="0.25">
+    <row r="4" spans="3:24" ht="22.5" x14ac:dyDescent="0.25">
       <c r="C4" s="4" t="s">
         <v>1</v>
       </c>
@@ -2982,7 +2942,7 @@
         <v>655</v>
       </c>
     </row>
-    <row r="5" spans="3:24" ht="23.25" hidden="1" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="3:24" ht="23.25" thickBot="1" x14ac:dyDescent="0.3">
       <c r="C5" s="8" t="s">
         <v>43</v>
       </c>
@@ -3026,7 +2986,7 @@
       <c r="W5" s="11"/>
       <c r="X5" s="9"/>
     </row>
-    <row r="6" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C6" s="12" t="s">
         <v>48</v>
       </c>
@@ -3067,13 +3027,13 @@
       <c r="T6" s="16">
         <v>0</v>
       </c>
-      <c r="U6" s="67">
+      <c r="U6" s="16">
         <v>0.216895</v>
       </c>
       <c r="V6" s="61"/>
       <c r="W6" s="61"/>
     </row>
-    <row r="7" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C7" s="12" t="s">
         <v>52</v>
       </c>
@@ -3110,14 +3070,14 @@
       <c r="T7" s="16">
         <v>0</v>
       </c>
-      <c r="U7" s="67">
+      <c r="U7" s="16">
         <v>0.216895</v>
       </c>
       <c r="V7" s="65"/>
       <c r="W7" s="65"/>
       <c r="X7" s="66"/>
     </row>
-    <row r="8" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C8" s="12" t="s">
         <v>55</v>
       </c>
@@ -3154,14 +3114,14 @@
       <c r="T8" s="16">
         <v>0</v>
       </c>
-      <c r="U8" s="67">
+      <c r="U8" s="16">
         <v>0.216895</v>
       </c>
       <c r="V8" s="65"/>
       <c r="W8" s="65"/>
       <c r="X8" s="66"/>
     </row>
-    <row r="9" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C9" s="12" t="s">
         <v>57</v>
       </c>
@@ -3202,13 +3162,13 @@
       <c r="T9" s="16">
         <v>0</v>
       </c>
-      <c r="U9" s="67">
+      <c r="U9" s="16">
         <v>0.216895</v>
       </c>
       <c r="V9" s="61"/>
       <c r="W9" s="61"/>
     </row>
-    <row r="10" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="10" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C10" s="12" t="s">
         <v>59</v>
       </c>
@@ -3245,8 +3205,8 @@
       <c r="T10" s="16">
         <v>15</v>
       </c>
-      <c r="U10" s="67">
-        <v>0.1</v>
+      <c r="U10" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V10" s="61">
         <v>0.05</v>
@@ -3258,7 +3218,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="11" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="11" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C11" s="12" t="s">
         <v>63</v>
       </c>
@@ -3295,8 +3255,8 @@
       <c r="T11" s="16">
         <v>3</v>
       </c>
-      <c r="U11" s="67">
-        <v>0.1</v>
+      <c r="U11" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V11" s="61">
         <v>0.01</v>
@@ -3308,7 +3268,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="12" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="12" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C12" s="12" t="s">
         <v>66</v>
       </c>
@@ -3345,8 +3305,8 @@
       <c r="T12" s="16">
         <v>3</v>
       </c>
-      <c r="U12" s="67">
-        <v>0.1</v>
+      <c r="U12" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V12" s="61">
         <v>0</v>
@@ -3358,7 +3318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="13" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="13" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C13" s="12" t="s">
         <v>69</v>
       </c>
@@ -3395,8 +3355,8 @@
       <c r="T13" s="16">
         <v>2</v>
       </c>
-      <c r="U13" s="67">
-        <v>0.1</v>
+      <c r="U13" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V13" s="63">
         <v>0</v>
@@ -3408,7 +3368,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="14" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="14" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C14" s="12" t="s">
         <v>72</v>
       </c>
@@ -3445,8 +3405,8 @@
       <c r="T14" s="16">
         <v>2</v>
       </c>
-      <c r="U14" s="67">
-        <v>0.1</v>
+      <c r="U14" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V14" s="61">
         <v>0.19550000000000001</v>
@@ -3458,7 +3418,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="15" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="15" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C15" s="12" t="s">
         <v>75</v>
       </c>
@@ -3495,8 +3455,8 @@
       <c r="T15" s="16">
         <v>10</v>
       </c>
-      <c r="U15" s="67">
-        <v>0.1</v>
+      <c r="U15" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V15" s="61">
         <v>0.2</v>
@@ -3508,7 +3468,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="16" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="16" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C16" s="12" t="s">
         <v>78</v>
       </c>
@@ -3545,8 +3505,8 @@
       <c r="T16" s="16">
         <v>10</v>
       </c>
-      <c r="U16" s="67">
-        <v>0.1</v>
+      <c r="U16" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V16" s="61">
         <v>0.2</v>
@@ -3558,7 +3518,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C17" s="12" t="s">
         <v>81</v>
       </c>
@@ -3595,8 +3555,8 @@
       <c r="T17" s="16">
         <v>2</v>
       </c>
-      <c r="U17" s="67">
-        <v>0.1</v>
+      <c r="U17" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V17" s="61">
         <v>0.1</v>
@@ -3608,7 +3568,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="18" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C18" s="12" t="s">
         <v>83</v>
       </c>
@@ -3645,8 +3605,8 @@
       <c r="T18" s="16">
         <v>2</v>
       </c>
-      <c r="U18" s="67">
-        <v>0.1</v>
+      <c r="U18" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V18" s="61">
         <v>0</v>
@@ -3695,8 +3655,8 @@
       <c r="T19" s="16">
         <v>2</v>
       </c>
-      <c r="U19" s="67">
-        <v>0.1</v>
+      <c r="U19" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V19" s="61">
         <v>0</v>
@@ -3708,7 +3668,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="20" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C20" s="12" t="s">
         <v>89</v>
       </c>
@@ -3745,7 +3705,7 @@
       <c r="T20" s="16">
         <v>15</v>
       </c>
-      <c r="U20" s="67">
+      <c r="U20" s="16">
         <v>0.216895</v>
       </c>
       <c r="V20" s="61">
@@ -3758,7 +3718,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C21" s="12" t="s">
         <v>91</v>
       </c>
@@ -3795,7 +3755,7 @@
       <c r="T21" s="16">
         <v>3</v>
       </c>
-      <c r="U21" s="67">
+      <c r="U21" s="16">
         <v>0.216895</v>
       </c>
       <c r="V21" s="61">
@@ -3808,7 +3768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="22" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="22" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C22" s="12" t="s">
         <v>92</v>
       </c>
@@ -3845,7 +3805,7 @@
       <c r="T22" s="16">
         <v>3</v>
       </c>
-      <c r="U22" s="67">
+      <c r="U22" s="16">
         <v>0.216895</v>
       </c>
       <c r="V22" s="61">
@@ -3858,7 +3818,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="23" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C23" s="12" t="s">
         <v>93</v>
       </c>
@@ -3895,7 +3855,7 @@
       <c r="T23" s="16">
         <v>2</v>
       </c>
-      <c r="U23" s="67">
+      <c r="U23" s="16">
         <v>0.216895</v>
       </c>
       <c r="V23" s="61">
@@ -3908,7 +3868,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="24" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C24" s="12" t="s">
         <v>94</v>
       </c>
@@ -3945,7 +3905,7 @@
       <c r="T24" s="16">
         <v>2</v>
       </c>
-      <c r="U24" s="67">
+      <c r="U24" s="16">
         <v>0.216895</v>
       </c>
       <c r="V24" s="61">
@@ -3958,7 +3918,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="25" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C25" s="12" t="s">
         <v>95</v>
       </c>
@@ -3995,13 +3955,13 @@
       <c r="T25" s="16">
         <v>10</v>
       </c>
-      <c r="U25" s="67">
+      <c r="U25" s="16">
         <v>0.216895</v>
       </c>
       <c r="V25" s="61"/>
       <c r="W25" s="61"/>
     </row>
-    <row r="26" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="26" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C26" s="12" t="s">
         <v>96</v>
       </c>
@@ -4038,13 +3998,13 @@
       <c r="T26" s="16">
         <v>10</v>
       </c>
-      <c r="U26" s="67">
+      <c r="U26" s="16">
         <v>0.216895</v>
       </c>
       <c r="V26" s="61"/>
       <c r="W26" s="61"/>
     </row>
-    <row r="27" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="27" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C27" s="12" t="s">
         <v>97</v>
       </c>
@@ -4081,7 +4041,7 @@
       <c r="T27" s="16">
         <v>2</v>
       </c>
-      <c r="U27" s="67">
+      <c r="U27" s="16">
         <v>0.216895</v>
       </c>
       <c r="V27" s="61">
@@ -4094,7 +4054,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="28" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="28" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C28" s="12" t="s">
         <v>98</v>
       </c>
@@ -4131,7 +4091,7 @@
       <c r="T28" s="16">
         <v>2</v>
       </c>
-      <c r="U28" s="67">
+      <c r="U28" s="16">
         <v>0.216895</v>
       </c>
       <c r="V28" s="61">
@@ -4181,7 +4141,7 @@
       <c r="T29" s="16">
         <v>2</v>
       </c>
-      <c r="U29" s="67">
+      <c r="U29" s="16">
         <v>0.216895</v>
       </c>
       <c r="V29" s="61">
@@ -4194,7 +4154,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="30" spans="3:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="30" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C30" s="12" t="s">
         <v>100</v>
       </c>
@@ -4241,8 +4201,8 @@
       <c r="T30" s="16">
         <v>0</v>
       </c>
-      <c r="U30" s="67">
-        <v>0.1</v>
+      <c r="U30" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V30" s="62">
         <v>0.3</v>
@@ -4254,7 +4214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="31" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="31" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C31" s="12" t="s">
         <v>149</v>
       </c>
@@ -4285,11 +4245,11 @@
       <c r="R31" s="16"/>
       <c r="S31" s="16"/>
       <c r="T31" s="16"/>
-      <c r="U31" s="67"/>
+      <c r="U31" s="16"/>
       <c r="V31" s="62"/>
       <c r="W31" s="62"/>
     </row>
-    <row r="32" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="32" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C32" s="12" t="s">
         <v>103</v>
       </c>
@@ -4336,8 +4296,8 @@
       <c r="T32" s="16">
         <v>0</v>
       </c>
-      <c r="U32" s="67">
-        <v>0.1</v>
+      <c r="U32" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V32" s="61">
         <v>0.3</v>
@@ -4349,7 +4309,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="33" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="33" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C33" s="12" t="s">
         <v>149</v>
       </c>
@@ -4380,11 +4340,11 @@
       <c r="R33" s="16"/>
       <c r="S33" s="16"/>
       <c r="T33" s="16"/>
-      <c r="U33" s="67"/>
+      <c r="U33" s="16"/>
       <c r="V33" s="61"/>
       <c r="W33" s="61"/>
     </row>
-    <row r="34" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="34" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C34" s="12" t="s">
         <v>105</v>
       </c>
@@ -4421,8 +4381,8 @@
       <c r="T34" s="16">
         <v>0</v>
       </c>
-      <c r="U34" s="67">
-        <v>0.1</v>
+      <c r="U34" s="16">
+        <v>0.16267100000000001</v>
       </c>
       <c r="V34" s="61">
         <v>0.5</v>
@@ -4434,7 +4394,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="35" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="35" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C35" s="12" t="s">
         <v>107</v>
       </c>
@@ -4479,7 +4439,7 @@
       <c r="T35" s="16">
         <v>0</v>
       </c>
-      <c r="U35" s="67">
+      <c r="U35" s="16">
         <v>0.216895</v>
       </c>
       <c r="V35" s="61">
@@ -4492,7 +4452,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="36" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="36" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C36" s="12" t="s">
         <v>108</v>
       </c>
@@ -4537,7 +4497,7 @@
       <c r="T36" s="16">
         <v>0</v>
       </c>
-      <c r="U36" s="67">
+      <c r="U36" s="16">
         <v>0.216895</v>
       </c>
       <c r="V36" s="61">
@@ -4550,7 +4510,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="37" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="37" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C37" s="12" t="s">
         <v>109</v>
       </c>
@@ -4587,7 +4547,7 @@
       <c r="T37" s="16">
         <v>0</v>
       </c>
-      <c r="U37" s="67">
+      <c r="U37" s="16">
         <v>0.216895</v>
       </c>
       <c r="V37" s="61">
@@ -4600,7 +4560,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="38" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C38" s="12" t="s">
         <v>111</v>
       </c>
@@ -4637,7 +4597,7 @@
       <c r="T38" s="16">
         <v>0</v>
       </c>
-      <c r="U38" s="67">
+      <c r="U38" s="16">
         <v>0.216895</v>
       </c>
       <c r="V38" s="61">
@@ -4650,7 +4610,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="39" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="39" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C39" s="12" t="s">
         <v>113</v>
       </c>
@@ -4687,7 +4647,7 @@
       <c r="T39" s="16">
         <v>0</v>
       </c>
-      <c r="U39" s="67">
+      <c r="U39" s="16">
         <v>0.216895</v>
       </c>
       <c r="V39" s="61">
@@ -4700,7 +4660,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="40" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="40" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C40" s="12" t="s">
         <v>115</v>
       </c>
@@ -4737,7 +4697,7 @@
       <c r="T40" s="16">
         <v>0</v>
       </c>
-      <c r="U40" s="67">
+      <c r="U40" s="16">
         <v>0.216895</v>
       </c>
       <c r="V40" s="61">
@@ -4750,7 +4710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="41" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="41" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C41" s="12" t="s">
         <v>117</v>
       </c>
@@ -4787,7 +4747,7 @@
       <c r="T41" s="16">
         <v>0</v>
       </c>
-      <c r="U41" s="67">
+      <c r="U41" s="16">
         <v>0.216895</v>
       </c>
       <c r="V41" s="61">
@@ -4800,7 +4760,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="42" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="42" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C42" s="12" t="s">
         <v>119</v>
       </c>
@@ -4837,7 +4797,7 @@
       <c r="T42" s="16">
         <v>0</v>
       </c>
-      <c r="U42" s="67">
+      <c r="U42" s="16">
         <v>0.216895</v>
       </c>
       <c r="V42" s="61">
@@ -4850,7 +4810,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="43" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="43" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C43" s="12" t="s">
         <v>121</v>
       </c>
@@ -4887,7 +4847,7 @@
       <c r="T43" s="16">
         <v>7</v>
       </c>
-      <c r="U43" s="67">
+      <c r="U43" s="16">
         <v>0.05</v>
       </c>
       <c r="V43" s="61">
@@ -4900,7 +4860,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="44" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C44" s="12" t="s">
         <v>124</v>
       </c>
@@ -4937,7 +4897,7 @@
       <c r="T44" s="16">
         <v>7</v>
       </c>
-      <c r="U44" s="67">
+      <c r="U44" s="16">
         <v>0.05</v>
       </c>
       <c r="V44" s="61">
@@ -4950,7 +4910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="45" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="45" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C45" s="12" t="s">
         <v>127</v>
       </c>
@@ -4987,13 +4947,13 @@
       <c r="T45" s="16">
         <v>7</v>
       </c>
-      <c r="U45" s="67">
+      <c r="U45" s="16">
         <v>0.05</v>
       </c>
       <c r="V45" s="61"/>
       <c r="W45" s="61"/>
     </row>
-    <row r="46" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="46" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C46" s="12" t="s">
         <v>129</v>
       </c>
@@ -5030,7 +4990,7 @@
       <c r="T46" s="16">
         <v>0</v>
       </c>
-      <c r="U46" s="67">
+      <c r="U46" s="16">
         <v>0.05</v>
       </c>
       <c r="V46" s="61">
@@ -5088,7 +5048,7 @@
       <c r="T47" s="16">
         <v>2</v>
       </c>
-      <c r="U47" s="67">
+      <c r="U47" s="16">
         <v>0.05</v>
       </c>
       <c r="V47" s="61">
@@ -5101,7 +5061,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="48" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="48" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C48" s="12" t="s">
         <v>133</v>
       </c>
@@ -5138,7 +5098,7 @@
       <c r="T48" s="16">
         <v>5</v>
       </c>
-      <c r="U48" s="67">
+      <c r="U48" s="16">
         <v>0.216895</v>
       </c>
       <c r="V48" s="61">
@@ -5151,7 +5111,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="49" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="49" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C49" s="12" t="s">
         <v>136</v>
       </c>
@@ -5188,7 +5148,7 @@
       <c r="T49" s="16">
         <v>5</v>
       </c>
-      <c r="U49" s="67">
+      <c r="U49" s="16">
         <v>0.216895</v>
       </c>
       <c r="V49" s="61">
@@ -5201,7 +5161,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="50" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C50" s="12" t="s">
         <v>138</v>
       </c>
@@ -5238,13 +5198,13 @@
       <c r="T50" s="16">
         <v>5</v>
       </c>
-      <c r="U50" s="67">
+      <c r="U50" s="16">
         <v>0.216895</v>
       </c>
       <c r="V50" s="61"/>
       <c r="W50" s="61"/>
     </row>
-    <row r="51" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="51" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C51" s="12" t="s">
         <v>140</v>
       </c>
@@ -5285,7 +5245,7 @@
       <c r="T51" s="16">
         <v>0</v>
       </c>
-      <c r="U51" s="67">
+      <c r="U51" s="16">
         <v>0.216895</v>
       </c>
       <c r="V51" s="61">
@@ -5343,7 +5303,7 @@
       <c r="T52" s="16">
         <v>2</v>
       </c>
-      <c r="U52" s="67">
+      <c r="U52" s="16">
         <v>0.216895</v>
       </c>
       <c r="V52" s="61">
@@ -5356,7 +5316,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="53" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C53" s="12" t="s">
         <v>144</v>
       </c>
@@ -5393,13 +5353,13 @@
       <c r="T53" s="16">
         <v>5</v>
       </c>
-      <c r="U53" s="67">
+      <c r="U53" s="16">
         <v>0.216895</v>
       </c>
       <c r="V53" s="61"/>
       <c r="W53" s="61"/>
     </row>
-    <row r="54" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="54" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C54" s="12" t="s">
         <v>548</v>
       </c>
@@ -5444,13 +5404,13 @@
       <c r="T54" s="16">
         <v>0</v>
       </c>
-      <c r="U54" s="67">
+      <c r="U54" s="16">
         <v>0.108447</v>
       </c>
       <c r="V54" s="61"/>
       <c r="W54" s="61"/>
     </row>
-    <row r="55" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="55" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C55" s="12" t="s">
         <v>549</v>
       </c>
@@ -5495,13 +5455,13 @@
       <c r="T55" s="16">
         <v>0</v>
       </c>
-      <c r="U55" s="67">
+      <c r="U55" s="16">
         <v>0.108447</v>
       </c>
       <c r="V55" s="61"/>
       <c r="W55" s="61"/>
     </row>
-    <row r="56" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="56" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C56" s="12" t="s">
         <v>149</v>
       </c>
@@ -5526,11 +5486,11 @@
       <c r="R56" s="16"/>
       <c r="S56" s="16"/>
       <c r="T56" s="16"/>
-      <c r="U56" s="67"/>
+      <c r="U56" s="16"/>
       <c r="V56" s="61"/>
       <c r="W56" s="61"/>
     </row>
-    <row r="57" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="57" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C57" s="12" t="s">
         <v>150</v>
       </c>
@@ -5571,13 +5531,13 @@
       <c r="T57" s="16">
         <v>0</v>
       </c>
-      <c r="U57" s="67">
+      <c r="U57" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V57" s="61"/>
       <c r="W57" s="61"/>
     </row>
-    <row r="58" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="58" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C58" s="12" t="s">
         <v>153</v>
       </c>
@@ -5614,13 +5574,13 @@
       <c r="T58" s="16">
         <v>0</v>
       </c>
-      <c r="U58" s="67">
+      <c r="U58" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V58" s="65"/>
       <c r="W58" s="61"/>
     </row>
-    <row r="59" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="59" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C59" s="12" t="s">
         <v>156</v>
       </c>
@@ -5657,13 +5617,13 @@
       <c r="T59" s="16">
         <v>0</v>
       </c>
-      <c r="U59" s="67">
+      <c r="U59" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V59" s="65"/>
       <c r="W59" s="61"/>
     </row>
-    <row r="60" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="60" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C60" s="12" t="s">
         <v>158</v>
       </c>
@@ -5704,13 +5664,13 @@
       <c r="T60" s="16">
         <v>0</v>
       </c>
-      <c r="U60" s="67">
+      <c r="U60" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V60" s="61"/>
       <c r="W60" s="61"/>
     </row>
-    <row r="61" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="61" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C61" s="12" t="s">
         <v>160</v>
       </c>
@@ -5747,7 +5707,7 @@
       <c r="T61" s="16">
         <v>15</v>
       </c>
-      <c r="U61" s="67">
+      <c r="U61" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V61" s="61">
@@ -5760,7 +5720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="62" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="62" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C62" s="12" t="s">
         <v>163</v>
       </c>
@@ -5797,7 +5757,7 @@
       <c r="T62" s="16">
         <v>3</v>
       </c>
-      <c r="U62" s="67">
+      <c r="U62" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V62" s="61">
@@ -5810,7 +5770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="63" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="63" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C63" s="12" t="s">
         <v>165</v>
       </c>
@@ -5847,7 +5807,7 @@
       <c r="T63" s="16">
         <v>3</v>
       </c>
-      <c r="U63" s="67">
+      <c r="U63" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V63" s="61">
@@ -5860,7 +5820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="64" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="64" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C64" s="12" t="s">
         <v>167</v>
       </c>
@@ -5897,7 +5857,7 @@
       <c r="T64" s="16">
         <v>2</v>
       </c>
-      <c r="U64" s="67">
+      <c r="U64" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V64" s="61">
@@ -5910,7 +5870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="65" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="65" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C65" s="12" t="s">
         <v>169</v>
       </c>
@@ -5947,7 +5907,7 @@
       <c r="T65" s="16">
         <v>2</v>
       </c>
-      <c r="U65" s="67">
+      <c r="U65" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V65" s="61">
@@ -5960,7 +5920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="66" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="66" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C66" s="12" t="s">
         <v>171</v>
       </c>
@@ -5997,7 +5957,7 @@
       <c r="T66" s="16">
         <v>10</v>
       </c>
-      <c r="U66" s="67">
+      <c r="U66" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V66" s="61">
@@ -6010,7 +5970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="67" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="67" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C67" s="12" t="s">
         <v>173</v>
       </c>
@@ -6047,7 +6007,7 @@
       <c r="T67" s="16">
         <v>10</v>
       </c>
-      <c r="U67" s="67">
+      <c r="U67" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V67" s="61">
@@ -6060,7 +6020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="68" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="68" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C68" s="12" t="s">
         <v>175</v>
       </c>
@@ -6097,7 +6057,7 @@
       <c r="T68" s="16">
         <v>2</v>
       </c>
-      <c r="U68" s="67">
+      <c r="U68" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V68" s="61">
@@ -6110,7 +6070,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="69" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="69" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C69" s="12" t="s">
         <v>177</v>
       </c>
@@ -6147,7 +6107,7 @@
       <c r="T69" s="16">
         <v>2</v>
       </c>
-      <c r="U69" s="67">
+      <c r="U69" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V69" s="61">
@@ -6197,20 +6157,20 @@
       <c r="T70" s="16">
         <v>2</v>
       </c>
-      <c r="U70" s="67">
+      <c r="U70" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V70" s="61">
         <v>0</v>
       </c>
       <c r="W70" s="61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X70" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="71" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="71" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C71" s="12" t="s">
         <v>181</v>
       </c>
@@ -6247,7 +6207,7 @@
       <c r="T71" s="16">
         <v>15</v>
       </c>
-      <c r="U71" s="67">
+      <c r="U71" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V71" s="61">
@@ -6260,7 +6220,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="72" spans="3:24" ht="15" hidden="1" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="72" spans="3:24" ht="15" customHeight="1" x14ac:dyDescent="0.25">
       <c r="C72" s="12" t="s">
         <v>183</v>
       </c>
@@ -6297,7 +6257,7 @@
       <c r="T72" s="16">
         <v>3</v>
       </c>
-      <c r="U72" s="67">
+      <c r="U72" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V72" s="61">
@@ -6310,7 +6270,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="73" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="73" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C73" s="12" t="s">
         <v>184</v>
       </c>
@@ -6347,7 +6307,7 @@
       <c r="T73" s="16">
         <v>3</v>
       </c>
-      <c r="U73" s="67">
+      <c r="U73" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V73" s="61">
@@ -6360,7 +6320,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="74" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="74" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C74" s="12" t="s">
         <v>185</v>
       </c>
@@ -6397,7 +6357,7 @@
       <c r="T74" s="16">
         <v>2</v>
       </c>
-      <c r="U74" s="67">
+      <c r="U74" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V74" s="61">
@@ -6410,7 +6370,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="75" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="75" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C75" s="12" t="s">
         <v>186</v>
       </c>
@@ -6447,7 +6407,7 @@
       <c r="T75" s="16">
         <v>2</v>
       </c>
-      <c r="U75" s="67">
+      <c r="U75" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V75" s="61">
@@ -6460,7 +6420,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="76" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="76" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C76" s="12" t="s">
         <v>187</v>
       </c>
@@ -6497,7 +6457,7 @@
       <c r="T76" s="16">
         <v>10</v>
       </c>
-      <c r="U76" s="67">
+      <c r="U76" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V76" s="61">
@@ -6510,7 +6470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="77" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="77" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C77" s="12" t="s">
         <v>188</v>
       </c>
@@ -6547,7 +6507,7 @@
       <c r="T77" s="16">
         <v>10</v>
       </c>
-      <c r="U77" s="67">
+      <c r="U77" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V77" s="61">
@@ -6560,7 +6520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="78" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="78" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C78" s="12" t="s">
         <v>189</v>
       </c>
@@ -6597,7 +6557,7 @@
       <c r="T78" s="16">
         <v>2</v>
       </c>
-      <c r="U78" s="67">
+      <c r="U78" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V78" s="61">
@@ -6610,7 +6570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="79" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="79" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C79" s="12" t="s">
         <v>190</v>
       </c>
@@ -6647,7 +6607,7 @@
       <c r="T79" s="16">
         <v>2</v>
       </c>
-      <c r="U79" s="67">
+      <c r="U79" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V79" s="61">
@@ -6697,20 +6657,20 @@
       <c r="T80" s="16">
         <v>2</v>
       </c>
-      <c r="U80" s="67">
+      <c r="U80" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V80" s="61">
         <v>0</v>
       </c>
       <c r="W80" s="61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X80" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="81" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="81" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C81" s="12" t="s">
         <v>192</v>
       </c>
@@ -6747,7 +6707,7 @@
       <c r="T81" s="16">
         <v>15</v>
       </c>
-      <c r="U81" s="67">
+      <c r="U81" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V81" s="61">
@@ -6760,7 +6720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="82" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="82" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C82" s="12" t="s">
         <v>194</v>
       </c>
@@ -6797,7 +6757,7 @@
       <c r="T82" s="16">
         <v>3</v>
       </c>
-      <c r="U82" s="67">
+      <c r="U82" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V82" s="61">
@@ -6810,7 +6770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="83" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="83" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C83" s="12" t="s">
         <v>195</v>
       </c>
@@ -6847,7 +6807,7 @@
       <c r="T83" s="16">
         <v>3</v>
       </c>
-      <c r="U83" s="67">
+      <c r="U83" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V83" s="61">
@@ -6860,7 +6820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="84" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="84" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C84" s="12" t="s">
         <v>196</v>
       </c>
@@ -6897,7 +6857,7 @@
       <c r="T84" s="16">
         <v>2</v>
       </c>
-      <c r="U84" s="67">
+      <c r="U84" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V84" s="61">
@@ -6910,7 +6870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="85" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="85" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C85" s="12" t="s">
         <v>197</v>
       </c>
@@ -6947,7 +6907,7 @@
       <c r="T85" s="16">
         <v>2</v>
       </c>
-      <c r="U85" s="67">
+      <c r="U85" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V85" s="61">
@@ -6960,7 +6920,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="86" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="86" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C86" s="12" t="s">
         <v>198</v>
       </c>
@@ -6997,7 +6957,7 @@
       <c r="T86" s="16">
         <v>10</v>
       </c>
-      <c r="U86" s="67">
+      <c r="U86" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V86" s="61">
@@ -7010,7 +6970,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="87" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="87" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C87" s="12" t="s">
         <v>199</v>
       </c>
@@ -7047,7 +7007,7 @@
       <c r="T87" s="16">
         <v>10</v>
       </c>
-      <c r="U87" s="67">
+      <c r="U87" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V87" s="61">
@@ -7060,7 +7020,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="88" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="88" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C88" s="12" t="s">
         <v>200</v>
       </c>
@@ -7097,7 +7057,7 @@
       <c r="T88" s="16">
         <v>2</v>
       </c>
-      <c r="U88" s="67">
+      <c r="U88" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V88" s="61">
@@ -7147,20 +7107,13 @@
       <c r="T89" s="16">
         <v>2</v>
       </c>
-      <c r="U89" s="67">
+      <c r="U89" s="16">
         <v>0.45624999999999999</v>
       </c>
-      <c r="V89" s="61">
-        <v>0</v>
-      </c>
-      <c r="W89" s="61">
-        <v>0</v>
-      </c>
-      <c r="X89" s="3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="90" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+      <c r="V89" s="61"/>
+      <c r="W89" s="61"/>
+    </row>
+    <row r="90" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C90" s="12" t="s">
         <v>202</v>
       </c>
@@ -7197,7 +7150,7 @@
       <c r="T90" s="16">
         <v>0</v>
       </c>
-      <c r="U90" s="67">
+      <c r="U90" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V90" s="61">
@@ -7210,7 +7163,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="91" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="91" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C91" s="12" t="s">
         <v>205</v>
       </c>
@@ -7257,7 +7210,7 @@
       <c r="T91" s="16">
         <v>0</v>
       </c>
-      <c r="U91" s="67">
+      <c r="U91" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V91" s="61">
@@ -7270,7 +7223,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="92" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="92" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C92" s="12" t="s">
         <v>149</v>
       </c>
@@ -7301,11 +7254,11 @@
       <c r="R92" s="16"/>
       <c r="S92" s="16"/>
       <c r="T92" s="16"/>
-      <c r="U92" s="67"/>
+      <c r="U92" s="16"/>
       <c r="V92" s="61"/>
       <c r="W92" s="61"/>
     </row>
-    <row r="93" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="93" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C93" s="12" t="s">
         <v>208</v>
       </c>
@@ -7352,7 +7305,7 @@
       <c r="T93" s="16">
         <v>0</v>
       </c>
-      <c r="U93" s="67">
+      <c r="U93" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V93" s="61">
@@ -7365,7 +7318,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="94" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="94" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C94" s="12" t="s">
         <v>149</v>
       </c>
@@ -7396,11 +7349,11 @@
       <c r="R94" s="16"/>
       <c r="S94" s="16"/>
       <c r="T94" s="16"/>
-      <c r="U94" s="67"/>
+      <c r="U94" s="16"/>
       <c r="V94" s="61"/>
       <c r="W94" s="61"/>
     </row>
-    <row r="95" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C95" s="12" t="s">
         <v>210</v>
       </c>
@@ -7437,7 +7390,7 @@
       <c r="T95" s="16">
         <v>0</v>
       </c>
-      <c r="U95" s="67">
+      <c r="U95" s="16">
         <v>0.34218799999999999</v>
       </c>
       <c r="V95" s="61">
@@ -7450,7 +7403,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="96" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="96" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C96" s="12" t="s">
         <v>212</v>
       </c>
@@ -7495,7 +7448,7 @@
       <c r="T96" s="16">
         <v>0</v>
       </c>
-      <c r="U96" s="67">
+      <c r="U96" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V96" s="61">
@@ -7508,7 +7461,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="97" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="97" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C97" s="12" t="s">
         <v>213</v>
       </c>
@@ -7553,7 +7506,7 @@
       <c r="T97" s="16">
         <v>0</v>
       </c>
-      <c r="U97" s="67">
+      <c r="U97" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V97" s="61">
@@ -7566,7 +7519,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="98" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="98" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C98" s="12" t="s">
         <v>214</v>
       </c>
@@ -7603,7 +7556,7 @@
       <c r="T98" s="16">
         <v>0</v>
       </c>
-      <c r="U98" s="67">
+      <c r="U98" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V98" s="61">
@@ -7616,7 +7569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="99" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="99" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C99" s="12" t="s">
         <v>216</v>
       </c>
@@ -7653,7 +7606,7 @@
       <c r="T99" s="16">
         <v>0</v>
       </c>
-      <c r="U99" s="67">
+      <c r="U99" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V99" s="61">
@@ -7666,7 +7619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="100" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="100" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C100" s="12" t="s">
         <v>218</v>
       </c>
@@ -7703,7 +7656,7 @@
       <c r="T100" s="16">
         <v>0</v>
       </c>
-      <c r="U100" s="67">
+      <c r="U100" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V100" s="61">
@@ -7716,7 +7669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="101" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="101" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C101" s="12" t="s">
         <v>220</v>
       </c>
@@ -7753,7 +7706,7 @@
       <c r="T101" s="16">
         <v>0</v>
       </c>
-      <c r="U101" s="67">
+      <c r="U101" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V101" s="61">
@@ -7766,7 +7719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="102" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="102" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C102" s="12" t="s">
         <v>222</v>
       </c>
@@ -7803,7 +7756,7 @@
       <c r="T102" s="16">
         <v>0</v>
       </c>
-      <c r="U102" s="67">
+      <c r="U102" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V102" s="61">
@@ -7816,7 +7769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="103" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="103" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C103" s="12" t="s">
         <v>224</v>
       </c>
@@ -7853,7 +7806,7 @@
       <c r="T103" s="16">
         <v>0</v>
       </c>
-      <c r="U103" s="67">
+      <c r="U103" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V103" s="61">
@@ -7866,7 +7819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="104" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="104" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C104" s="12" t="s">
         <v>226</v>
       </c>
@@ -7903,7 +7856,7 @@
       <c r="T104" s="16">
         <v>0</v>
       </c>
-      <c r="U104" s="67">
+      <c r="U104" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V104" s="61">
@@ -7916,7 +7869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="105" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="105" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C105" s="12" t="s">
         <v>227</v>
       </c>
@@ -7953,7 +7906,7 @@
       <c r="T105" s="16">
         <v>7</v>
       </c>
-      <c r="U105" s="67">
+      <c r="U105" s="16">
         <v>0.05</v>
       </c>
       <c r="V105" s="61">
@@ -7966,7 +7919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="106" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="106" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C106" s="12" t="s">
         <v>230</v>
       </c>
@@ -8003,7 +7956,7 @@
       <c r="T106" s="16">
         <v>7</v>
       </c>
-      <c r="U106" s="67">
+      <c r="U106" s="16">
         <v>0.05</v>
       </c>
       <c r="V106" s="61">
@@ -8016,7 +7969,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="107" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="107" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C107" s="12" t="s">
         <v>232</v>
       </c>
@@ -8053,7 +8006,7 @@
       <c r="T107" s="16">
         <v>7</v>
       </c>
-      <c r="U107" s="67">
+      <c r="U107" s="16">
         <v>0.05</v>
       </c>
       <c r="V107" s="61">
@@ -8066,7 +8019,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="108" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="108" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C108" s="12" t="s">
         <v>234</v>
       </c>
@@ -8103,7 +8056,7 @@
       <c r="T108" s="16">
         <v>0</v>
       </c>
-      <c r="U108" s="67">
+      <c r="U108" s="16">
         <v>0.05</v>
       </c>
       <c r="V108" s="61">
@@ -8161,7 +8114,7 @@
       <c r="T109" s="16">
         <v>2</v>
       </c>
-      <c r="U109" s="67">
+      <c r="U109" s="16">
         <v>0.05</v>
       </c>
       <c r="V109" s="61">
@@ -8174,7 +8127,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="110" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="110" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C110" s="12" t="s">
         <v>238</v>
       </c>
@@ -8211,13 +8164,13 @@
       <c r="T110" s="16">
         <v>5</v>
       </c>
-      <c r="U110" s="67">
+      <c r="U110" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V110" s="61"/>
       <c r="W110" s="61"/>
     </row>
-    <row r="111" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="111" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C111" s="12" t="s">
         <v>241</v>
       </c>
@@ -8254,13 +8207,13 @@
       <c r="T111" s="16">
         <v>5</v>
       </c>
-      <c r="U111" s="67">
+      <c r="U111" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V111" s="61"/>
       <c r="W111" s="61"/>
     </row>
-    <row r="112" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="112" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C112" s="12" t="s">
         <v>243</v>
       </c>
@@ -8297,13 +8250,13 @@
       <c r="T112" s="16">
         <v>5</v>
       </c>
-      <c r="U112" s="67">
+      <c r="U112" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V112" s="61"/>
       <c r="W112" s="61"/>
     </row>
-    <row r="113" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="113" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C113" s="12" t="s">
         <v>245</v>
       </c>
@@ -8344,7 +8297,7 @@
       <c r="T113" s="16">
         <v>0</v>
       </c>
-      <c r="U113" s="67">
+      <c r="U113" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V113" s="61"/>
@@ -8395,13 +8348,13 @@
       <c r="T114" s="16">
         <v>2</v>
       </c>
-      <c r="U114" s="67">
+      <c r="U114" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V114" s="61"/>
       <c r="W114" s="61"/>
     </row>
-    <row r="115" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="115" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C115" s="12" t="s">
         <v>249</v>
       </c>
@@ -8438,13 +8391,13 @@
       <c r="T115" s="16">
         <v>5</v>
       </c>
-      <c r="U115" s="67">
+      <c r="U115" s="16">
         <v>0.45624999999999999</v>
       </c>
       <c r="V115" s="61"/>
       <c r="W115" s="61"/>
     </row>
-    <row r="116" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C116" s="12" t="s">
         <v>550</v>
       </c>
@@ -8489,13 +8442,13 @@
       <c r="T116" s="16">
         <v>0</v>
       </c>
-      <c r="U116" s="67">
+      <c r="U116" s="16">
         <v>0.22812499999999999</v>
       </c>
       <c r="V116" s="61"/>
       <c r="W116" s="61"/>
     </row>
-    <row r="117" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="117" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C117" s="12" t="s">
         <v>551</v>
       </c>
@@ -8540,13 +8493,13 @@
       <c r="T117" s="16">
         <v>0</v>
       </c>
-      <c r="U117" s="67">
+      <c r="U117" s="16">
         <v>0.22812499999999999</v>
       </c>
       <c r="V117" s="61"/>
       <c r="W117" s="61"/>
     </row>
-    <row r="118" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="118" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C118" s="12" t="s">
         <v>149</v>
       </c>
@@ -8571,11 +8524,11 @@
       <c r="R118" s="16"/>
       <c r="S118" s="16"/>
       <c r="T118" s="16"/>
-      <c r="U118" s="67"/>
+      <c r="U118" s="16"/>
       <c r="V118" s="61"/>
       <c r="W118" s="61"/>
     </row>
-    <row r="119" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="119" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C119" s="12" t="s">
         <v>254</v>
       </c>
@@ -8616,13 +8569,13 @@
       <c r="T119" s="16">
         <v>0</v>
       </c>
-      <c r="U119" s="67">
+      <c r="U119" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V119" s="61"/>
       <c r="W119" s="61"/>
     </row>
-    <row r="120" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="120" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C120" s="12" t="s">
         <v>257</v>
       </c>
@@ -8659,13 +8612,13 @@
       <c r="T120" s="16">
         <v>0</v>
       </c>
-      <c r="U120" s="67">
+      <c r="U120" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V120" s="65"/>
       <c r="W120" s="61"/>
     </row>
-    <row r="121" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="121" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C121" s="12" t="s">
         <v>260</v>
       </c>
@@ -8702,13 +8655,13 @@
       <c r="T121" s="16">
         <v>0</v>
       </c>
-      <c r="U121" s="67">
+      <c r="U121" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V121" s="65"/>
       <c r="W121" s="61"/>
     </row>
-    <row r="122" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="122" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C122" s="12" t="s">
         <v>262</v>
       </c>
@@ -8749,13 +8702,13 @@
       <c r="T122" s="16">
         <v>0</v>
       </c>
-      <c r="U122" s="67">
+      <c r="U122" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V122" s="61"/>
       <c r="W122" s="61"/>
     </row>
-    <row r="123" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="123" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C123" s="12" t="s">
         <v>264</v>
       </c>
@@ -8792,8 +8745,8 @@
       <c r="T123" s="16">
         <v>15</v>
       </c>
-      <c r="U123" s="67">
-        <v>0.1</v>
+      <c r="U123" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V123" s="61">
         <v>1.12E-2</v>
@@ -8805,7 +8758,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="124" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="124" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C124" s="12" t="s">
         <v>267</v>
       </c>
@@ -8842,8 +8795,8 @@
       <c r="T124" s="16">
         <v>3</v>
       </c>
-      <c r="U124" s="67">
-        <v>0.1</v>
+      <c r="U124" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V124" s="61">
         <v>0.1</v>
@@ -8855,7 +8808,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="125" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="125" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C125" s="12" t="s">
         <v>269</v>
       </c>
@@ -8892,8 +8845,8 @@
       <c r="T125" s="16">
         <v>3</v>
       </c>
-      <c r="U125" s="67">
-        <v>0.1</v>
+      <c r="U125" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V125" s="61">
         <v>6.4000000000000003E-3</v>
@@ -8905,7 +8858,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="126" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="126" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C126" s="12" t="s">
         <v>271</v>
       </c>
@@ -8942,8 +8895,8 @@
       <c r="T126" s="16">
         <v>2</v>
       </c>
-      <c r="U126" s="67">
-        <v>0.1</v>
+      <c r="U126" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V126" s="61">
         <v>0.1</v>
@@ -8955,7 +8908,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="127" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="127" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C127" s="12" t="s">
         <v>273</v>
       </c>
@@ -8992,8 +8945,8 @@
       <c r="T127" s="16">
         <v>2</v>
       </c>
-      <c r="U127" s="67">
-        <v>0.1</v>
+      <c r="U127" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V127" s="61">
         <v>0.23910000000000001</v>
@@ -9005,7 +8958,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="128" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="128" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C128" s="12" t="s">
         <v>275</v>
       </c>
@@ -9042,8 +8995,8 @@
       <c r="T128" s="16">
         <v>10</v>
       </c>
-      <c r="U128" s="67">
-        <v>0.1</v>
+      <c r="U128" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V128" s="61">
         <v>0.1</v>
@@ -9055,7 +9008,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="129" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="129" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C129" s="12" t="s">
         <v>277</v>
       </c>
@@ -9092,8 +9045,8 @@
       <c r="T129" s="16">
         <v>10</v>
       </c>
-      <c r="U129" s="67">
-        <v>0.1</v>
+      <c r="U129" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V129" s="61">
         <v>0.1</v>
@@ -9105,7 +9058,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="130" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="130" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C130" s="12" t="s">
         <v>279</v>
       </c>
@@ -9142,8 +9095,8 @@
       <c r="T130" s="16">
         <v>2</v>
       </c>
-      <c r="U130" s="67">
-        <v>0.1</v>
+      <c r="U130" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V130" s="61">
         <v>0.1</v>
@@ -9155,7 +9108,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="131" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="131" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C131" s="12" t="s">
         <v>281</v>
       </c>
@@ -9192,8 +9145,8 @@
       <c r="T131" s="16">
         <v>2</v>
       </c>
-      <c r="U131" s="67">
-        <v>0.1</v>
+      <c r="U131" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V131" s="61">
         <v>0</v>
@@ -9242,20 +9195,20 @@
       <c r="T132" s="16">
         <v>2</v>
       </c>
-      <c r="U132" s="67">
+      <c r="U132" s="16">
+        <v>0.33565699999999998</v>
+      </c>
+      <c r="V132" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="W132" s="61">
         <v>0.1</v>
-      </c>
-      <c r="V132" s="61">
-        <v>0</v>
-      </c>
-      <c r="W132" s="61">
-        <v>0</v>
       </c>
       <c r="X132" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="133" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="133" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C133" s="12" t="s">
         <v>285</v>
       </c>
@@ -9292,7 +9245,7 @@
       <c r="T133" s="16">
         <v>15</v>
       </c>
-      <c r="U133" s="67">
+      <c r="U133" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V133" s="61">
@@ -9305,7 +9258,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="134" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="134" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C134" s="12" t="s">
         <v>287</v>
       </c>
@@ -9342,7 +9295,7 @@
       <c r="T134" s="16">
         <v>3</v>
       </c>
-      <c r="U134" s="67">
+      <c r="U134" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V134" s="61">
@@ -9355,7 +9308,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="135" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="135" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C135" s="12" t="s">
         <v>288</v>
       </c>
@@ -9392,7 +9345,7 @@
       <c r="T135" s="16">
         <v>3</v>
       </c>
-      <c r="U135" s="67">
+      <c r="U135" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V135" s="61">
@@ -9405,7 +9358,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="136" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="136" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C136" s="12" t="s">
         <v>289</v>
       </c>
@@ -9442,7 +9395,7 @@
       <c r="T136" s="16">
         <v>2</v>
       </c>
-      <c r="U136" s="67">
+      <c r="U136" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V136" s="61">
@@ -9455,7 +9408,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="137" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="137" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C137" s="12" t="s">
         <v>290</v>
       </c>
@@ -9492,7 +9445,7 @@
       <c r="T137" s="16">
         <v>2</v>
       </c>
-      <c r="U137" s="67">
+      <c r="U137" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V137" s="61">
@@ -9505,7 +9458,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="138" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="138" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C138" s="12" t="s">
         <v>291</v>
       </c>
@@ -9542,7 +9495,7 @@
       <c r="T138" s="16">
         <v>10</v>
       </c>
-      <c r="U138" s="67">
+      <c r="U138" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V138" s="61">
@@ -9555,7 +9508,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="139" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="139" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C139" s="12" t="s">
         <v>292</v>
       </c>
@@ -9592,7 +9545,7 @@
       <c r="T139" s="16">
         <v>10</v>
       </c>
-      <c r="U139" s="67">
+      <c r="U139" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V139" s="61">
@@ -9605,7 +9558,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="140" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="140" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C140" s="12" t="s">
         <v>293</v>
       </c>
@@ -9642,7 +9595,7 @@
       <c r="T140" s="16">
         <v>2</v>
       </c>
-      <c r="U140" s="67">
+      <c r="U140" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V140" s="61">
@@ -9655,7 +9608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="141" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="141" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C141" s="12" t="s">
         <v>294</v>
       </c>
@@ -9692,7 +9645,7 @@
       <c r="T141" s="16">
         <v>2</v>
       </c>
-      <c r="U141" s="67">
+      <c r="U141" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V141" s="61">
@@ -9742,20 +9695,20 @@
       <c r="T142" s="16">
         <v>2</v>
       </c>
-      <c r="U142" s="67">
+      <c r="U142" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V142" s="61">
         <v>0</v>
       </c>
       <c r="W142" s="61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X142" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="143" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="143" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C143" s="12" t="s">
         <v>296</v>
       </c>
@@ -9802,8 +9755,8 @@
       <c r="T143" s="16">
         <v>0</v>
       </c>
-      <c r="U143" s="67">
-        <v>0.1</v>
+      <c r="U143" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V143" s="61">
         <v>0.8</v>
@@ -9815,7 +9768,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="144" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="144" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C144" s="12" t="s">
         <v>149</v>
       </c>
@@ -9846,11 +9799,11 @@
       <c r="R144" s="16"/>
       <c r="S144" s="16"/>
       <c r="T144" s="16"/>
-      <c r="U144" s="67"/>
+      <c r="U144" s="16"/>
       <c r="V144" s="61"/>
       <c r="W144" s="61"/>
     </row>
-    <row r="145" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="145" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C145" s="12" t="s">
         <v>299</v>
       </c>
@@ -9897,8 +9850,8 @@
       <c r="T145" s="16">
         <v>0</v>
       </c>
-      <c r="U145" s="67">
-        <v>0.1</v>
+      <c r="U145" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V145" s="61">
         <v>0.8</v>
@@ -9910,7 +9863,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="146" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="146" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C146" s="12" t="s">
         <v>149</v>
       </c>
@@ -9941,11 +9894,11 @@
       <c r="R146" s="16"/>
       <c r="S146" s="16"/>
       <c r="T146" s="16"/>
-      <c r="U146" s="67"/>
+      <c r="U146" s="16"/>
       <c r="V146" s="61"/>
       <c r="W146" s="61"/>
     </row>
-    <row r="147" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="147" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C147" s="12" t="s">
         <v>301</v>
       </c>
@@ -9982,8 +9935,8 @@
       <c r="T147" s="16">
         <v>0</v>
       </c>
-      <c r="U147" s="67">
-        <v>0.1</v>
+      <c r="U147" s="16">
+        <v>0.33565699999999998</v>
       </c>
       <c r="V147" s="61">
         <v>0.3</v>
@@ -9995,7 +9948,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="148" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="148" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C148" s="12" t="s">
         <v>303</v>
       </c>
@@ -10040,7 +9993,7 @@
       <c r="T148" s="16">
         <v>0</v>
       </c>
-      <c r="U148" s="67">
+      <c r="U148" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V148" s="61">
@@ -10053,7 +10006,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="149" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="149" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C149" s="12" t="s">
         <v>304</v>
       </c>
@@ -10098,7 +10051,7 @@
       <c r="T149" s="16">
         <v>0</v>
       </c>
-      <c r="U149" s="67">
+      <c r="U149" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V149" s="61">
@@ -10111,7 +10064,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="150" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="150" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C150" s="12" t="s">
         <v>305</v>
       </c>
@@ -10148,7 +10101,7 @@
       <c r="T150" s="16">
         <v>0</v>
       </c>
-      <c r="U150" s="67">
+      <c r="U150" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V150" s="61">
@@ -10161,7 +10114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="151" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="151" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C151" s="12" t="s">
         <v>307</v>
       </c>
@@ -10198,7 +10151,7 @@
       <c r="T151" s="16">
         <v>0</v>
       </c>
-      <c r="U151" s="67">
+      <c r="U151" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V151" s="61">
@@ -10211,7 +10164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="152" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="152" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C152" s="12" t="s">
         <v>309</v>
       </c>
@@ -10248,7 +10201,7 @@
       <c r="T152" s="16">
         <v>0</v>
       </c>
-      <c r="U152" s="67">
+      <c r="U152" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V152" s="61">
@@ -10261,7 +10214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="153" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="153" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C153" s="12" t="s">
         <v>311</v>
       </c>
@@ -10298,7 +10251,7 @@
       <c r="T153" s="16">
         <v>0</v>
       </c>
-      <c r="U153" s="67">
+      <c r="U153" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V153" s="61">
@@ -10311,7 +10264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="154" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="154" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C154" s="12" t="s">
         <v>313</v>
       </c>
@@ -10348,7 +10301,7 @@
       <c r="T154" s="16">
         <v>0</v>
       </c>
-      <c r="U154" s="67">
+      <c r="U154" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V154" s="61">
@@ -10361,7 +10314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="155" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="155" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C155" s="12" t="s">
         <v>315</v>
       </c>
@@ -10398,7 +10351,7 @@
       <c r="T155" s="16">
         <v>0</v>
       </c>
-      <c r="U155" s="67">
+      <c r="U155" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V155" s="61">
@@ -10411,7 +10364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="156" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="156" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C156" s="12" t="s">
         <v>317</v>
       </c>
@@ -10448,13 +10401,13 @@
       <c r="T156" s="16">
         <v>7</v>
       </c>
-      <c r="U156" s="67">
+      <c r="U156" s="16">
         <v>0.1</v>
       </c>
       <c r="V156" s="61"/>
       <c r="W156" s="61"/>
     </row>
-    <row r="157" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="157" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C157" s="12" t="s">
         <v>320</v>
       </c>
@@ -10491,13 +10444,13 @@
       <c r="T157" s="16">
         <v>7</v>
       </c>
-      <c r="U157" s="67">
+      <c r="U157" s="16">
         <v>0.1</v>
       </c>
       <c r="V157" s="61"/>
       <c r="W157" s="61"/>
     </row>
-    <row r="158" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="158" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C158" s="12" t="s">
         <v>322</v>
       </c>
@@ -10534,13 +10487,13 @@
       <c r="T158" s="16">
         <v>7</v>
       </c>
-      <c r="U158" s="67">
+      <c r="U158" s="16">
         <v>0.1</v>
       </c>
       <c r="V158" s="61"/>
       <c r="W158" s="61"/>
     </row>
-    <row r="159" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="159" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C159" s="12" t="s">
         <v>324</v>
       </c>
@@ -10577,7 +10530,7 @@
       <c r="T159" s="16">
         <v>0</v>
       </c>
-      <c r="U159" s="67">
+      <c r="U159" s="16">
         <v>0.1</v>
       </c>
       <c r="V159" s="61"/>
@@ -10628,7 +10581,7 @@
       <c r="T160" s="16">
         <v>2</v>
       </c>
-      <c r="U160" s="67">
+      <c r="U160" s="16">
         <v>0.1</v>
       </c>
       <c r="V160" s="61">
@@ -10641,7 +10594,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="161" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="161" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C161" s="12" t="s">
         <v>328</v>
       </c>
@@ -10678,13 +10631,13 @@
       <c r="T161" s="16">
         <v>5</v>
       </c>
-      <c r="U161" s="67">
+      <c r="U161" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V161" s="61"/>
       <c r="W161" s="61"/>
     </row>
-    <row r="162" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="162" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C162" s="12" t="s">
         <v>331</v>
       </c>
@@ -10721,13 +10674,13 @@
       <c r="T162" s="16">
         <v>5</v>
       </c>
-      <c r="U162" s="67">
+      <c r="U162" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V162" s="61"/>
       <c r="W162" s="61"/>
     </row>
-    <row r="163" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="163" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C163" s="12" t="s">
         <v>333</v>
       </c>
@@ -10764,13 +10717,13 @@
       <c r="T163" s="16">
         <v>5</v>
       </c>
-      <c r="U163" s="67">
+      <c r="U163" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V163" s="61"/>
       <c r="W163" s="61"/>
     </row>
-    <row r="164" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="164" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C164" s="12" t="s">
         <v>335</v>
       </c>
@@ -10811,7 +10764,7 @@
       <c r="T164" s="16">
         <v>0</v>
       </c>
-      <c r="U164" s="67">
+      <c r="U164" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V164" s="61"/>
@@ -10862,13 +10815,13 @@
       <c r="T165" s="16">
         <v>2</v>
       </c>
-      <c r="U165" s="67">
+      <c r="U165" s="16">
         <v>0.44754300000000002</v>
       </c>
       <c r="V165" s="61"/>
       <c r="W165" s="61"/>
     </row>
-    <row r="166" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="166" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C166" s="12" t="s">
         <v>552</v>
       </c>
@@ -10913,13 +10866,13 @@
       <c r="T166" s="16">
         <v>0</v>
       </c>
-      <c r="U166" s="67">
+      <c r="U166" s="16">
         <v>0.223772</v>
       </c>
       <c r="V166" s="61"/>
       <c r="W166" s="61"/>
     </row>
-    <row r="167" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="167" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C167" s="12" t="s">
         <v>553</v>
       </c>
@@ -10964,13 +10917,13 @@
       <c r="T167" s="16">
         <v>0</v>
       </c>
-      <c r="U167" s="67">
+      <c r="U167" s="16">
         <v>0.223772</v>
       </c>
       <c r="V167" s="61"/>
       <c r="W167" s="61"/>
     </row>
-    <row r="168" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="168" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C168" s="12" t="s">
         <v>149</v>
       </c>
@@ -10995,11 +10948,11 @@
       <c r="R168" s="16"/>
       <c r="S168" s="16"/>
       <c r="T168" s="16"/>
-      <c r="U168" s="67"/>
+      <c r="U168" s="16"/>
       <c r="V168" s="61"/>
       <c r="W168" s="61"/>
     </row>
-    <row r="169" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="169" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C169" s="12" t="s">
         <v>341</v>
       </c>
@@ -11040,13 +10993,13 @@
       <c r="T169" s="16">
         <v>0</v>
       </c>
-      <c r="U169" s="67">
+      <c r="U169" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V169" s="61"/>
       <c r="W169" s="61"/>
     </row>
-    <row r="170" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="170" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C170" s="12" t="s">
         <v>344</v>
       </c>
@@ -11083,13 +11036,13 @@
       <c r="T170" s="16">
         <v>0</v>
       </c>
-      <c r="U170" s="67">
+      <c r="U170" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V170" s="61"/>
       <c r="W170" s="61"/>
     </row>
-    <row r="171" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="171" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C171" s="12" t="s">
         <v>347</v>
       </c>
@@ -11126,13 +11079,13 @@
       <c r="T171" s="16">
         <v>0</v>
       </c>
-      <c r="U171" s="67">
+      <c r="U171" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V171" s="61"/>
       <c r="W171" s="61"/>
     </row>
-    <row r="172" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="172" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C172" s="12" t="s">
         <v>349</v>
       </c>
@@ -11169,13 +11122,13 @@
       <c r="T172" s="16">
         <v>0</v>
       </c>
-      <c r="U172" s="67">
+      <c r="U172" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V172" s="61"/>
       <c r="W172" s="61"/>
     </row>
-    <row r="173" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="173" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C173" s="12" t="s">
         <v>351</v>
       </c>
@@ -11212,7 +11165,7 @@
       <c r="T173" s="16">
         <v>0</v>
       </c>
-      <c r="U173" s="67">
+      <c r="U173" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V173" s="61"/>
@@ -11255,13 +11208,13 @@
       <c r="T174" s="16">
         <v>0</v>
       </c>
-      <c r="U174" s="67">
+      <c r="U174" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V174" s="61"/>
       <c r="W174" s="61"/>
     </row>
-    <row r="175" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="175" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C175" s="12" t="s">
         <v>355</v>
       </c>
@@ -11298,13 +11251,13 @@
       <c r="T175" s="16">
         <v>0</v>
       </c>
-      <c r="U175" s="67">
+      <c r="U175" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V175" s="61"/>
       <c r="W175" s="61"/>
     </row>
-    <row r="176" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="176" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C176" s="12" t="s">
         <v>357</v>
       </c>
@@ -11341,13 +11294,13 @@
       <c r="T176" s="16">
         <v>0</v>
       </c>
-      <c r="U176" s="67">
+      <c r="U176" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V176" s="61"/>
       <c r="W176" s="61"/>
     </row>
-    <row r="177" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="177" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C177" s="12" t="s">
         <v>359</v>
       </c>
@@ -11384,7 +11337,7 @@
       <c r="T177" s="16">
         <v>0</v>
       </c>
-      <c r="U177" s="67">
+      <c r="U177" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V177" s="61"/>
@@ -11427,13 +11380,13 @@
       <c r="T178" s="16">
         <v>0</v>
       </c>
-      <c r="U178" s="67">
+      <c r="U178" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V178" s="61"/>
       <c r="W178" s="61"/>
     </row>
-    <row r="179" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="179" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C179" s="12" t="s">
         <v>363</v>
       </c>
@@ -11470,13 +11423,13 @@
       <c r="T179" s="16">
         <v>0</v>
       </c>
-      <c r="U179" s="67">
+      <c r="U179" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V179" s="65"/>
       <c r="W179" s="61"/>
     </row>
-    <row r="180" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="180" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C180" s="12" t="s">
         <v>366</v>
       </c>
@@ -11513,13 +11466,13 @@
       <c r="T180" s="16">
         <v>0</v>
       </c>
-      <c r="U180" s="67">
+      <c r="U180" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V180" s="65"/>
       <c r="W180" s="61"/>
     </row>
-    <row r="181" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="181" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C181" s="12" t="s">
         <v>368</v>
       </c>
@@ -11560,13 +11513,13 @@
       <c r="T181" s="16">
         <v>0</v>
       </c>
-      <c r="U181" s="67">
+      <c r="U181" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V181" s="61"/>
       <c r="W181" s="61"/>
     </row>
-    <row r="182" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="182" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C182" s="12" t="s">
         <v>370</v>
       </c>
@@ -11603,8 +11556,8 @@
       <c r="T182" s="16">
         <v>15</v>
       </c>
-      <c r="U182" s="67">
-        <v>0.1</v>
+      <c r="U182" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V182" s="61">
         <v>0</v>
@@ -11616,7 +11569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="183" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="183" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C183" s="12" t="s">
         <v>373</v>
       </c>
@@ -11653,8 +11606,8 @@
       <c r="T183" s="16">
         <v>3</v>
       </c>
-      <c r="U183" s="67">
-        <v>0.1</v>
+      <c r="U183" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V183" s="61">
         <v>0</v>
@@ -11666,7 +11619,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="184" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="184" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C184" s="12" t="s">
         <v>375</v>
       </c>
@@ -11703,8 +11656,8 @@
       <c r="T184" s="16">
         <v>3</v>
       </c>
-      <c r="U184" s="67">
-        <v>0.1</v>
+      <c r="U184" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V184" s="61">
         <v>0</v>
@@ -11716,7 +11669,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="185" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="185" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C185" s="12" t="s">
         <v>377</v>
       </c>
@@ -11753,8 +11706,8 @@
       <c r="T185" s="16">
         <v>2</v>
       </c>
-      <c r="U185" s="67">
-        <v>0.1</v>
+      <c r="U185" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V185" s="61">
         <v>7.4999999999999997E-3</v>
@@ -11766,7 +11719,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="186" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="186" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C186" s="12" t="s">
         <v>379</v>
       </c>
@@ -11803,8 +11756,8 @@
       <c r="T186" s="16">
         <v>2</v>
       </c>
-      <c r="U186" s="67">
-        <v>0.1</v>
+      <c r="U186" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V186" s="61">
         <v>0.15959999999999999</v>
@@ -11816,7 +11769,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="187" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="187" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C187" s="12" t="s">
         <v>381</v>
       </c>
@@ -11853,8 +11806,8 @@
       <c r="T187" s="16">
         <v>10</v>
       </c>
-      <c r="U187" s="67">
-        <v>0.1</v>
+      <c r="U187" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V187" s="61">
         <v>0.05</v>
@@ -11866,7 +11819,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="188" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="188" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C188" s="12" t="s">
         <v>383</v>
       </c>
@@ -11903,8 +11856,8 @@
       <c r="T188" s="16">
         <v>10</v>
       </c>
-      <c r="U188" s="67">
-        <v>0.1</v>
+      <c r="U188" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V188" s="61">
         <v>0.05</v>
@@ -11916,7 +11869,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="189" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="189" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C189" s="12" t="s">
         <v>385</v>
       </c>
@@ -11953,8 +11906,8 @@
       <c r="T189" s="16">
         <v>2</v>
       </c>
-      <c r="U189" s="67">
-        <v>0.1</v>
+      <c r="U189" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V189" s="61">
         <v>0.1</v>
@@ -11966,7 +11919,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="190" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="190" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C190" s="12" t="s">
         <v>387</v>
       </c>
@@ -12003,8 +11956,8 @@
       <c r="T190" s="16">
         <v>2</v>
       </c>
-      <c r="U190" s="67">
-        <v>0.1</v>
+      <c r="U190" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V190" s="61">
         <v>0</v>
@@ -12053,20 +12006,20 @@
       <c r="T191" s="16">
         <v>2</v>
       </c>
-      <c r="U191" s="67">
+      <c r="U191" s="16">
+        <v>0.36225000000000002</v>
+      </c>
+      <c r="V191" s="61">
+        <v>0.03</v>
+      </c>
+      <c r="W191" s="61">
         <v>0.1</v>
-      </c>
-      <c r="V191" s="61">
-        <v>0</v>
-      </c>
-      <c r="W191" s="61">
-        <v>0</v>
       </c>
       <c r="X191" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="192" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="192" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C192" s="12" t="s">
         <v>391</v>
       </c>
@@ -12103,7 +12056,7 @@
       <c r="T192" s="16">
         <v>15</v>
       </c>
-      <c r="U192" s="67">
+      <c r="U192" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V192" s="61">
@@ -12116,7 +12069,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="193" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="193" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C193" s="12" t="s">
         <v>393</v>
       </c>
@@ -12153,7 +12106,7 @@
       <c r="T193" s="16">
         <v>3</v>
       </c>
-      <c r="U193" s="67">
+      <c r="U193" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V193" s="61">
@@ -12166,7 +12119,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="194" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="194" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C194" s="12" t="s">
         <v>394</v>
       </c>
@@ -12203,7 +12156,7 @@
       <c r="T194" s="16">
         <v>3</v>
       </c>
-      <c r="U194" s="67">
+      <c r="U194" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V194" s="61">
@@ -12216,7 +12169,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="195" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="195" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C195" s="12" t="s">
         <v>395</v>
       </c>
@@ -12253,7 +12206,7 @@
       <c r="T195" s="16">
         <v>2</v>
       </c>
-      <c r="U195" s="67">
+      <c r="U195" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V195" s="61">
@@ -12266,7 +12219,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="196" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="196" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C196" s="12" t="s">
         <v>396</v>
       </c>
@@ -12303,7 +12256,7 @@
       <c r="T196" s="16">
         <v>2</v>
       </c>
-      <c r="U196" s="67">
+      <c r="U196" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V196" s="61">
@@ -12316,7 +12269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="197" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="197" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C197" s="12" t="s">
         <v>397</v>
       </c>
@@ -12353,7 +12306,7 @@
       <c r="T197" s="16">
         <v>10</v>
       </c>
-      <c r="U197" s="67">
+      <c r="U197" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V197" s="61">
@@ -12366,7 +12319,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="198" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="198" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C198" s="12" t="s">
         <v>398</v>
       </c>
@@ -12403,7 +12356,7 @@
       <c r="T198" s="16">
         <v>10</v>
       </c>
-      <c r="U198" s="67">
+      <c r="U198" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V198" s="61">
@@ -12416,7 +12369,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="199" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="199" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C199" s="12" t="s">
         <v>399</v>
       </c>
@@ -12453,7 +12406,7 @@
       <c r="T199" s="16">
         <v>2</v>
       </c>
-      <c r="U199" s="67">
+      <c r="U199" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V199" s="61">
@@ -12466,7 +12419,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="200" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="200" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C200" s="12" t="s">
         <v>400</v>
       </c>
@@ -12503,7 +12456,7 @@
       <c r="T200" s="16">
         <v>2</v>
       </c>
-      <c r="U200" s="67">
+      <c r="U200" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V200" s="61">
@@ -12553,20 +12506,20 @@
       <c r="T201" s="16">
         <v>2</v>
       </c>
-      <c r="U201" s="67">
+      <c r="U201" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V201" s="61">
         <v>0</v>
       </c>
       <c r="W201" s="61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X201" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="202" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="202" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C202" s="12" t="s">
         <v>402</v>
       </c>
@@ -12603,7 +12556,7 @@
       <c r="T202" s="16">
         <v>0</v>
       </c>
-      <c r="U202" s="67">
+      <c r="U202" s="16">
         <v>0.36225000000000002</v>
       </c>
       <c r="V202" s="61">
@@ -12616,7 +12569,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="203" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="203" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C203" s="12" t="s">
         <v>404</v>
       </c>
@@ -12663,8 +12616,8 @@
       <c r="T203" s="16">
         <v>0</v>
       </c>
-      <c r="U203" s="67">
-        <v>0.1</v>
+      <c r="U203" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V203" s="61">
         <v>0.7</v>
@@ -12676,7 +12629,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="204" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="204" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C204" s="12" t="s">
         <v>149</v>
       </c>
@@ -12707,11 +12660,11 @@
       <c r="R204" s="16"/>
       <c r="S204" s="16"/>
       <c r="T204" s="16"/>
-      <c r="U204" s="67"/>
+      <c r="U204" s="16"/>
       <c r="V204" s="61"/>
       <c r="W204" s="61"/>
     </row>
-    <row r="205" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="205" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C205" s="12" t="s">
         <v>407</v>
       </c>
@@ -12758,8 +12711,8 @@
       <c r="T205" s="16">
         <v>0</v>
       </c>
-      <c r="U205" s="67">
-        <v>0.1</v>
+      <c r="U205" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V205" s="61">
         <v>0.7</v>
@@ -12771,7 +12724,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="206" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="206" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C206" s="12" t="s">
         <v>149</v>
       </c>
@@ -12802,11 +12755,11 @@
       <c r="R206" s="16"/>
       <c r="S206" s="16"/>
       <c r="T206" s="16"/>
-      <c r="U206" s="67"/>
+      <c r="U206" s="16"/>
       <c r="V206" s="61"/>
       <c r="W206" s="61"/>
     </row>
-    <row r="207" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="207" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C207" s="12" t="s">
         <v>409</v>
       </c>
@@ -12843,8 +12796,8 @@
       <c r="T207" s="16">
         <v>0</v>
       </c>
-      <c r="U207" s="67">
-        <v>0.1</v>
+      <c r="U207" s="16">
+        <v>0.36225000000000002</v>
       </c>
       <c r="V207" s="61">
         <v>0.5</v>
@@ -12856,7 +12809,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="208" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="208" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C208" s="12" t="s">
         <v>411</v>
       </c>
@@ -12901,7 +12854,7 @@
       <c r="T208" s="16">
         <v>0</v>
       </c>
-      <c r="U208" s="67">
+      <c r="U208" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V208" s="61">
@@ -12914,7 +12867,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="209" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="209" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C209" s="12" t="s">
         <v>412</v>
       </c>
@@ -12959,7 +12912,7 @@
       <c r="T209" s="16">
         <v>0</v>
       </c>
-      <c r="U209" s="67">
+      <c r="U209" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V209" s="61">
@@ -12972,7 +12925,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="210" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="210" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C210" s="12" t="s">
         <v>413</v>
       </c>
@@ -13009,7 +12962,7 @@
       <c r="T210" s="16">
         <v>0</v>
       </c>
-      <c r="U210" s="67">
+      <c r="U210" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V210" s="61">
@@ -13022,7 +12975,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="211" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="211" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C211" s="12" t="s">
         <v>415</v>
       </c>
@@ -13059,7 +13012,7 @@
       <c r="T211" s="16">
         <v>0</v>
       </c>
-      <c r="U211" s="67">
+      <c r="U211" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V211" s="61">
@@ -13072,7 +13025,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="212" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="212" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C212" s="12" t="s">
         <v>417</v>
       </c>
@@ -13109,7 +13062,7 @@
       <c r="T212" s="16">
         <v>0</v>
       </c>
-      <c r="U212" s="67">
+      <c r="U212" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V212" s="61">
@@ -13122,7 +13075,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="213" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="213" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C213" s="12" t="s">
         <v>419</v>
       </c>
@@ -13159,7 +13112,7 @@
       <c r="T213" s="16">
         <v>2</v>
       </c>
-      <c r="U213" s="67">
+      <c r="U213" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V213" s="61">
@@ -13172,7 +13125,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="214" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="214" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C214" s="12" t="s">
         <v>421</v>
       </c>
@@ -13209,7 +13162,7 @@
       <c r="T214" s="16">
         <v>2</v>
       </c>
-      <c r="U214" s="67">
+      <c r="U214" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V214" s="61">
@@ -13222,7 +13175,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="215" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="215" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C215" s="12" t="s">
         <v>423</v>
       </c>
@@ -13259,7 +13212,7 @@
       <c r="T215" s="16">
         <v>2</v>
       </c>
-      <c r="U215" s="67">
+      <c r="U215" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V215" s="61">
@@ -13272,7 +13225,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="216" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="216" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C216" s="12" t="s">
         <v>425</v>
       </c>
@@ -13309,7 +13262,7 @@
       <c r="T216" s="16">
         <v>7</v>
       </c>
-      <c r="U216" s="67">
+      <c r="U216" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V216" s="61">
@@ -13322,7 +13275,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="217" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="217" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C217" s="12" t="s">
         <v>428</v>
       </c>
@@ -13359,7 +13312,7 @@
       <c r="T217" s="16">
         <v>7</v>
       </c>
-      <c r="U217" s="67">
+      <c r="U217" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V217" s="61">
@@ -13372,7 +13325,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="218" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="218" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C218" s="12" t="s">
         <v>430</v>
       </c>
@@ -13409,7 +13362,7 @@
       <c r="T218" s="16">
         <v>7</v>
       </c>
-      <c r="U218" s="67">
+      <c r="U218" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V218" s="61">
@@ -13422,7 +13375,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="219" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="219" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C219" s="12" t="s">
         <v>432</v>
       </c>
@@ -13459,7 +13412,7 @@
       <c r="T219" s="16">
         <v>0</v>
       </c>
-      <c r="U219" s="67">
+      <c r="U219" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V219" s="61">
@@ -13517,7 +13470,7 @@
       <c r="T220" s="16">
         <v>2</v>
       </c>
-      <c r="U220" s="67">
+      <c r="U220" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V220" s="61">
@@ -13530,7 +13483,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="221" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="221" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C221" s="12" t="s">
         <v>436</v>
       </c>
@@ -13567,13 +13520,13 @@
       <c r="T221" s="16">
         <v>5</v>
       </c>
-      <c r="U221" s="67">
+      <c r="U221" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V221" s="61"/>
       <c r="W221" s="61"/>
     </row>
-    <row r="222" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="222" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C222" s="12" t="s">
         <v>439</v>
       </c>
@@ -13610,13 +13563,13 @@
       <c r="T222" s="16">
         <v>5</v>
       </c>
-      <c r="U222" s="67">
+      <c r="U222" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V222" s="61"/>
       <c r="W222" s="61"/>
     </row>
-    <row r="223" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="223" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C223" s="12" t="s">
         <v>441</v>
       </c>
@@ -13653,13 +13606,13 @@
       <c r="T223" s="16">
         <v>5</v>
       </c>
-      <c r="U223" s="67">
+      <c r="U223" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V223" s="61"/>
       <c r="W223" s="61"/>
     </row>
-    <row r="224" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="224" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C224" s="12" t="s">
         <v>443</v>
       </c>
@@ -13700,7 +13653,7 @@
       <c r="T224" s="16">
         <v>0</v>
       </c>
-      <c r="U224" s="67">
+      <c r="U224" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V224" s="61"/>
@@ -13751,13 +13704,13 @@
       <c r="T225" s="16">
         <v>2</v>
       </c>
-      <c r="U225" s="67">
+      <c r="U225" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V225" s="61"/>
       <c r="W225" s="61"/>
     </row>
-    <row r="226" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="226" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C226" s="12" t="s">
         <v>447</v>
       </c>
@@ -13794,13 +13747,13 @@
       <c r="T226" s="16">
         <v>5</v>
       </c>
-      <c r="U226" s="67">
+      <c r="U226" s="16">
         <v>0.48299999999999998</v>
       </c>
       <c r="V226" s="61"/>
       <c r="W226" s="61"/>
     </row>
-    <row r="227" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="227" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C227" s="12" t="s">
         <v>554</v>
       </c>
@@ -13845,13 +13798,13 @@
       <c r="T227" s="16">
         <v>0</v>
       </c>
-      <c r="U227" s="67">
+      <c r="U227" s="16">
         <v>0.24149999999999999</v>
       </c>
       <c r="V227" s="61"/>
       <c r="W227" s="61"/>
     </row>
-    <row r="228" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="228" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C228" s="12" t="s">
         <v>555</v>
       </c>
@@ -13896,13 +13849,13 @@
       <c r="T228" s="16">
         <v>0</v>
       </c>
-      <c r="U228" s="67">
+      <c r="U228" s="16">
         <v>0.24149999999999999</v>
       </c>
       <c r="V228" s="61"/>
       <c r="W228" s="61"/>
     </row>
-    <row r="229" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="229" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C229" s="12" t="s">
         <v>149</v>
       </c>
@@ -13927,11 +13880,11 @@
       <c r="R229" s="16"/>
       <c r="S229" s="16"/>
       <c r="T229" s="16"/>
-      <c r="U229" s="67"/>
+      <c r="U229" s="16"/>
       <c r="V229" s="61"/>
       <c r="W229" s="61"/>
     </row>
-    <row r="230" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="230" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C230" s="12" t="s">
         <v>452</v>
       </c>
@@ -13972,13 +13925,13 @@
       <c r="T230" s="16">
         <v>0</v>
       </c>
-      <c r="U230" s="67">
+      <c r="U230" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V230" s="61"/>
       <c r="W230" s="61"/>
     </row>
-    <row r="231" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="231" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C231" s="12" t="s">
         <v>455</v>
       </c>
@@ -14015,13 +13968,13 @@
       <c r="T231" s="16">
         <v>0</v>
       </c>
-      <c r="U231" s="67">
+      <c r="U231" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V231" s="64"/>
       <c r="W231" s="61"/>
     </row>
-    <row r="232" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="232" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C232" s="12" t="s">
         <v>458</v>
       </c>
@@ -14058,13 +14011,13 @@
       <c r="T232" s="16">
         <v>0</v>
       </c>
-      <c r="U232" s="67">
+      <c r="U232" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V232" s="65"/>
       <c r="W232" s="61"/>
     </row>
-    <row r="233" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="233" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C233" s="12" t="s">
         <v>460</v>
       </c>
@@ -14105,13 +14058,13 @@
       <c r="T233" s="16">
         <v>0</v>
       </c>
-      <c r="U233" s="67">
+      <c r="U233" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V233" s="65"/>
       <c r="W233" s="61"/>
     </row>
-    <row r="234" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="234" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C234" s="12" t="s">
         <v>462</v>
       </c>
@@ -14148,8 +14101,8 @@
       <c r="T234" s="16">
         <v>15</v>
       </c>
-      <c r="U234" s="67">
-        <v>0.1</v>
+      <c r="U234" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V234" s="61">
         <v>1</v>
@@ -14161,7 +14114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="235" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="235" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C235" s="12" t="s">
         <v>465</v>
       </c>
@@ -14198,8 +14151,8 @@
       <c r="T235" s="16">
         <v>3</v>
       </c>
-      <c r="U235" s="67">
-        <v>0.1</v>
+      <c r="U235" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V235" s="61">
         <v>9.9699999999999997E-2</v>
@@ -14211,7 +14164,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="236" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="236" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C236" s="12" t="s">
         <v>467</v>
       </c>
@@ -14248,8 +14201,8 @@
       <c r="T236" s="16">
         <v>3</v>
       </c>
-      <c r="U236" s="67">
-        <v>0.1</v>
+      <c r="U236" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V236" s="61">
         <v>3.5000000000000001E-3</v>
@@ -14261,7 +14214,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="237" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="237" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C237" s="12" t="s">
         <v>469</v>
       </c>
@@ -14298,8 +14251,8 @@
       <c r="T237" s="16">
         <v>2</v>
       </c>
-      <c r="U237" s="67">
-        <v>0.1</v>
+      <c r="U237" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V237" s="61">
         <v>0</v>
@@ -14311,7 +14264,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="238" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="238" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C238" s="12" t="s">
         <v>471</v>
       </c>
@@ -14348,8 +14301,8 @@
       <c r="T238" s="16">
         <v>2</v>
       </c>
-      <c r="U238" s="67">
-        <v>0.1</v>
+      <c r="U238" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V238" s="61">
         <v>0.4118</v>
@@ -14361,7 +14314,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="239" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="239" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C239" s="12" t="s">
         <v>473</v>
       </c>
@@ -14398,8 +14351,8 @@
       <c r="T239" s="16">
         <v>10</v>
       </c>
-      <c r="U239" s="67">
-        <v>0.1</v>
+      <c r="U239" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V239" s="61">
         <v>0.1</v>
@@ -14411,7 +14364,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="240" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="240" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C240" s="12" t="s">
         <v>475</v>
       </c>
@@ -14448,8 +14401,8 @@
       <c r="T240" s="16">
         <v>10</v>
       </c>
-      <c r="U240" s="67">
-        <v>0.1</v>
+      <c r="U240" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V240" s="61">
         <v>0.1</v>
@@ -14461,7 +14414,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="241" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="241" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C241" s="12" t="s">
         <v>477</v>
       </c>
@@ -14498,8 +14451,8 @@
       <c r="T241" s="16">
         <v>2</v>
       </c>
-      <c r="U241" s="67">
-        <v>0.1</v>
+      <c r="U241" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V241" s="61">
         <v>0.1</v>
@@ -14511,7 +14464,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="242" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="242" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C242" s="12" t="s">
         <v>479</v>
       </c>
@@ -14548,8 +14501,8 @@
       <c r="T242" s="16">
         <v>2</v>
       </c>
-      <c r="U242" s="67">
-        <v>0.1</v>
+      <c r="U242" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V242" s="61">
         <v>0</v>
@@ -14598,20 +14551,20 @@
       <c r="T243" s="16">
         <v>2</v>
       </c>
-      <c r="U243" s="67">
+      <c r="U243" s="16">
+        <v>0.41184999999999999</v>
+      </c>
+      <c r="V243" s="61">
+        <v>0.02</v>
+      </c>
+      <c r="W243" s="61">
         <v>0.1</v>
-      </c>
-      <c r="V243" s="61">
-        <v>0.03</v>
-      </c>
-      <c r="W243" s="61">
-        <v>0</v>
       </c>
       <c r="X243" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="244" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="244" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C244" s="12" t="s">
         <v>483</v>
       </c>
@@ -14648,7 +14601,7 @@
       <c r="T244" s="16">
         <v>15</v>
       </c>
-      <c r="U244" s="67">
+      <c r="U244" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V244" s="61">
@@ -14661,7 +14614,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="245" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="245" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C245" s="12" t="s">
         <v>485</v>
       </c>
@@ -14698,7 +14651,7 @@
       <c r="T245" s="16">
         <v>3</v>
       </c>
-      <c r="U245" s="67">
+      <c r="U245" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V245" s="61">
@@ -14711,7 +14664,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="246" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="246" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C246" s="12" t="s">
         <v>486</v>
       </c>
@@ -14748,7 +14701,7 @@
       <c r="T246" s="16">
         <v>3</v>
       </c>
-      <c r="U246" s="67">
+      <c r="U246" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V246" s="61">
@@ -14761,7 +14714,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="247" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="247" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C247" s="12" t="s">
         <v>487</v>
       </c>
@@ -14798,7 +14751,7 @@
       <c r="T247" s="16">
         <v>2</v>
       </c>
-      <c r="U247" s="67">
+      <c r="U247" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V247" s="61">
@@ -14811,7 +14764,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="248" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="248" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C248" s="12" t="s">
         <v>488</v>
       </c>
@@ -14848,7 +14801,7 @@
       <c r="T248" s="16">
         <v>2</v>
       </c>
-      <c r="U248" s="67">
+      <c r="U248" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V248" s="61">
@@ -14861,7 +14814,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="249" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="249" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C249" s="12" t="s">
         <v>489</v>
       </c>
@@ -14898,7 +14851,7 @@
       <c r="T249" s="16">
         <v>10</v>
       </c>
-      <c r="U249" s="67">
+      <c r="U249" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V249" s="61">
@@ -14911,7 +14864,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="250" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="250" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C250" s="12" t="s">
         <v>490</v>
       </c>
@@ -14948,7 +14901,7 @@
       <c r="T250" s="16">
         <v>10</v>
       </c>
-      <c r="U250" s="67">
+      <c r="U250" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V250" s="61">
@@ -14961,7 +14914,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="251" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="251" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C251" s="12" t="s">
         <v>491</v>
       </c>
@@ -14998,7 +14951,7 @@
       <c r="T251" s="16">
         <v>2</v>
       </c>
-      <c r="U251" s="67">
+      <c r="U251" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V251" s="61">
@@ -15011,7 +14964,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="252" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="252" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C252" s="12" t="s">
         <v>492</v>
       </c>
@@ -15048,7 +15001,7 @@
       <c r="T252" s="16">
         <v>2</v>
       </c>
-      <c r="U252" s="67">
+      <c r="U252" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V252" s="61">
@@ -15098,20 +15051,20 @@
       <c r="T253" s="16">
         <v>2</v>
       </c>
-      <c r="U253" s="67">
+      <c r="U253" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V253" s="61">
-        <v>0.03</v>
+        <v>0</v>
       </c>
       <c r="W253" s="61">
-        <v>0</v>
+        <v>0.1</v>
       </c>
       <c r="X253" s="3">
         <v>3</v>
       </c>
     </row>
-    <row r="254" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="254" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C254" s="12" t="s">
         <v>494</v>
       </c>
@@ -15148,7 +15101,7 @@
       <c r="T254" s="16">
         <v>0</v>
       </c>
-      <c r="U254" s="67">
+      <c r="U254" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V254" s="61">
@@ -15161,7 +15114,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="255" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="255" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C255" s="12" t="s">
         <v>496</v>
       </c>
@@ -15208,8 +15161,8 @@
       <c r="T255" s="16">
         <v>0</v>
       </c>
-      <c r="U255" s="67">
-        <v>0.1</v>
+      <c r="U255" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V255" s="61">
         <v>0.7</v>
@@ -15221,7 +15174,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="256" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="256" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C256" s="12" t="s">
         <v>149</v>
       </c>
@@ -15252,11 +15205,11 @@
       <c r="R256" s="16"/>
       <c r="S256" s="16"/>
       <c r="T256" s="16"/>
-      <c r="U256" s="67"/>
+      <c r="U256" s="16"/>
       <c r="V256" s="61"/>
       <c r="W256" s="61"/>
     </row>
-    <row r="257" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="257" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C257" s="12" t="s">
         <v>499</v>
       </c>
@@ -15303,8 +15256,8 @@
       <c r="T257" s="16">
         <v>0</v>
       </c>
-      <c r="U257" s="67">
-        <v>0.1</v>
+      <c r="U257" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V257" s="61">
         <v>0.7</v>
@@ -15316,7 +15269,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="258" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="258" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C258" s="12" t="s">
         <v>149</v>
       </c>
@@ -15347,11 +15300,11 @@
       <c r="R258" s="16"/>
       <c r="S258" s="16"/>
       <c r="T258" s="16"/>
-      <c r="U258" s="67"/>
+      <c r="U258" s="16"/>
       <c r="V258" s="61"/>
       <c r="W258" s="61"/>
     </row>
-    <row r="259" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="259" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C259" s="12" t="s">
         <v>501</v>
       </c>
@@ -15388,8 +15341,8 @@
       <c r="T259" s="16">
         <v>0</v>
       </c>
-      <c r="U259" s="67">
-        <v>0.1</v>
+      <c r="U259" s="16">
+        <v>0.41184999999999999</v>
       </c>
       <c r="V259" s="61">
         <v>0.4</v>
@@ -15401,7 +15354,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="260" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="260" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C260" s="12" t="s">
         <v>503</v>
       </c>
@@ -15446,7 +15399,7 @@
       <c r="T260" s="16">
         <v>0</v>
       </c>
-      <c r="U260" s="67">
+      <c r="U260" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V260" s="61">
@@ -15459,7 +15412,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="261" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="261" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C261" s="12" t="s">
         <v>504</v>
       </c>
@@ -15504,7 +15457,7 @@
       <c r="T261" s="16">
         <v>0</v>
       </c>
-      <c r="U261" s="67">
+      <c r="U261" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V261" s="61">
@@ -15517,7 +15470,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="262" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="262" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C262" s="12" t="s">
         <v>505</v>
       </c>
@@ -15554,7 +15507,7 @@
       <c r="T262" s="16">
         <v>0</v>
       </c>
-      <c r="U262" s="67">
+      <c r="U262" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V262" s="61">
@@ -15567,7 +15520,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="263" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="263" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C263" s="12" t="s">
         <v>507</v>
       </c>
@@ -15604,7 +15557,7 @@
       <c r="T263" s="16">
         <v>0</v>
       </c>
-      <c r="U263" s="67">
+      <c r="U263" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V263" s="61">
@@ -15617,7 +15570,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="264" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="264" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C264" s="12" t="s">
         <v>509</v>
       </c>
@@ -15654,7 +15607,7 @@
       <c r="T264" s="16">
         <v>0</v>
       </c>
-      <c r="U264" s="67">
+      <c r="U264" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V264" s="61">
@@ -15667,7 +15620,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="265" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="265" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C265" s="12" t="s">
         <v>511</v>
       </c>
@@ -15704,7 +15657,7 @@
       <c r="T265" s="16">
         <v>0</v>
       </c>
-      <c r="U265" s="67">
+      <c r="U265" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V265" s="61">
@@ -15717,7 +15670,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="266" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="266" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C266" s="12" t="s">
         <v>513</v>
       </c>
@@ -15754,7 +15707,7 @@
       <c r="T266" s="16">
         <v>0</v>
       </c>
-      <c r="U266" s="67">
+      <c r="U266" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V266" s="61">
@@ -15767,7 +15720,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="267" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="267" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C267" s="12" t="s">
         <v>515</v>
       </c>
@@ -15804,7 +15757,7 @@
       <c r="T267" s="16">
         <v>0</v>
       </c>
-      <c r="U267" s="67">
+      <c r="U267" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V267" s="61">
@@ -15817,7 +15770,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="268" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="268" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C268" s="12" t="s">
         <v>517</v>
       </c>
@@ -15854,7 +15807,7 @@
       <c r="T268" s="16">
         <v>7</v>
       </c>
-      <c r="U268" s="67">
+      <c r="U268" s="16">
         <v>0.1</v>
       </c>
       <c r="V268" s="61">
@@ -15867,7 +15820,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="269" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="269" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C269" s="12" t="s">
         <v>520</v>
       </c>
@@ -15904,7 +15857,7 @@
       <c r="T269" s="16">
         <v>7</v>
       </c>
-      <c r="U269" s="67">
+      <c r="U269" s="16">
         <v>0.1</v>
       </c>
       <c r="V269" s="61">
@@ -15917,7 +15870,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="270" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="270" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C270" s="12" t="s">
         <v>522</v>
       </c>
@@ -15954,13 +15907,13 @@
       <c r="T270" s="16">
         <v>7</v>
       </c>
-      <c r="U270" s="67">
+      <c r="U270" s="16">
         <v>0.1</v>
       </c>
       <c r="V270" s="61"/>
       <c r="W270" s="61"/>
     </row>
-    <row r="271" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="271" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C271" s="12" t="s">
         <v>524</v>
       </c>
@@ -15997,13 +15950,13 @@
       <c r="T271" s="16">
         <v>5</v>
       </c>
-      <c r="U271" s="67">
+      <c r="U271" s="16">
         <v>0.1</v>
       </c>
       <c r="V271" s="61"/>
       <c r="W271" s="61"/>
     </row>
-    <row r="272" spans="3:24" hidden="1" x14ac:dyDescent="0.25">
+    <row r="272" spans="3:24" x14ac:dyDescent="0.25">
       <c r="C272" s="12" t="s">
         <v>526</v>
       </c>
@@ -16040,7 +15993,7 @@
       <c r="T272" s="16">
         <v>0</v>
       </c>
-      <c r="U272" s="67">
+      <c r="U272" s="16">
         <v>0.1</v>
       </c>
       <c r="V272" s="61"/>
@@ -16091,13 +16044,13 @@
       <c r="T273" s="16">
         <v>2</v>
       </c>
-      <c r="U273" s="67">
+      <c r="U273" s="16">
         <v>0.1</v>
       </c>
       <c r="V273" s="61"/>
       <c r="W273" s="61"/>
     </row>
-    <row r="274" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="274" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C274" s="12" t="s">
         <v>530</v>
       </c>
@@ -16134,13 +16087,13 @@
       <c r="T274" s="16">
         <v>5</v>
       </c>
-      <c r="U274" s="67">
+      <c r="U274" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V274" s="61"/>
       <c r="W274" s="61"/>
     </row>
-    <row r="275" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="275" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C275" s="12" t="s">
         <v>533</v>
       </c>
@@ -16177,13 +16130,13 @@
       <c r="T275" s="16">
         <v>5</v>
       </c>
-      <c r="U275" s="67">
+      <c r="U275" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V275" s="61"/>
       <c r="W275" s="61"/>
     </row>
-    <row r="276" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="276" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C276" s="12" t="s">
         <v>535</v>
       </c>
@@ -16220,13 +16173,13 @@
       <c r="T276" s="16">
         <v>5</v>
       </c>
-      <c r="U276" s="67">
+      <c r="U276" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V276" s="61"/>
       <c r="W276" s="61"/>
     </row>
-    <row r="277" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="277" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C277" s="12" t="s">
         <v>537</v>
       </c>
@@ -16267,7 +16220,7 @@
       <c r="T277" s="16">
         <v>0</v>
       </c>
-      <c r="U277" s="67">
+      <c r="U277" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V277" s="60"/>
@@ -16318,13 +16271,13 @@
       <c r="T278" s="16">
         <v>2</v>
       </c>
-      <c r="U278" s="67">
+      <c r="U278" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V278" s="60"/>
       <c r="W278" s="60"/>
     </row>
-    <row r="279" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="279" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C279" s="12" t="s">
         <v>149</v>
       </c>
@@ -16361,13 +16314,13 @@
       <c r="T279" s="16">
         <v>5</v>
       </c>
-      <c r="U279" s="67">
+      <c r="U279" s="16">
         <v>0.54913299999999998</v>
       </c>
       <c r="V279" s="60"/>
       <c r="W279" s="60"/>
     </row>
-    <row r="280" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="280" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C280" s="12" t="s">
         <v>556</v>
       </c>
@@ -16412,13 +16365,13 @@
       <c r="T280" s="16">
         <v>0</v>
       </c>
-      <c r="U280" s="67">
+      <c r="U280" s="16">
         <v>0.27456599999999998</v>
       </c>
       <c r="V280" s="60"/>
       <c r="W280" s="60"/>
     </row>
-    <row r="281" spans="3:23" hidden="1" x14ac:dyDescent="0.25">
+    <row r="281" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C281" s="12" t="s">
         <v>557</v>
       </c>
@@ -16463,7 +16416,7 @@
       <c r="T281" s="16">
         <v>0</v>
       </c>
-      <c r="U281" s="67">
+      <c r="U281" s="16">
         <v>0.108447</v>
       </c>
       <c r="V281" s="60"/>
@@ -16488,7 +16441,7 @@
       <c r="R282" s="16"/>
       <c r="S282" s="16"/>
       <c r="T282" s="16"/>
-      <c r="U282" s="67"/>
+      <c r="U282" s="16"/>
       <c r="V282" s="61"/>
       <c r="W282" s="61"/>
     </row>
@@ -16511,7 +16464,7 @@
       <c r="R283" s="16"/>
       <c r="S283" s="16"/>
       <c r="T283" s="16"/>
-      <c r="U283" s="67"/>
+      <c r="U283" s="16"/>
     </row>
     <row r="284" spans="3:23" x14ac:dyDescent="0.25">
       <c r="C284" s="17" t="s">
@@ -25697,22 +25650,16 @@
       <c r="G1204" s="2"/>
     </row>
   </sheetData>
-  <autoFilter ref="C3:X281" xr:uid="{00000000-0009-0000-0000-000000000000}">
-    <filterColumn colId="2">
-      <filters>
-        <filter val="COMH2R"/>
-      </filters>
-    </filterColumn>
-  </autoFilter>
+  <autoFilter ref="C3:X281"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A4:W118"/>
   <sheetViews>
-    <sheetView topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A4" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
       <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>

--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9039E92D-D932-45E6-96EE-7B748D131FA6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B77C2D-C954-468E-AA90-D43A1E01825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTH_COM" sheetId="9" r:id="rId1"/>
@@ -2072,10 +2072,10 @@
     <t>*FLO_MARK~0</t>
   </si>
   <si>
-    <t>AF</t>
-  </si>
-  <si>
-    <t>AF~LO</t>
+    <t>AFA</t>
+  </si>
+  <si>
+    <t>AFA~LO</t>
   </si>
 </sst>
 </file>
@@ -2831,12 +2831,12 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C3:X1204"/>
   <sheetViews>
-    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
       <pane xSplit="4" ySplit="3" topLeftCell="G270" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="H287" sqref="H287"/>
+      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -26715,8 +26715,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:W118"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="J18" sqref="J18"/>
+    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="I6" sqref="I6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>

--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\rbsul\Documents\GitHub\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99B77C2D-C954-468E-AA90-D43A1E01825C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2DF5D7DF-5E58-462F-AF4B-87A4002C596B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="OTH_COM" sheetId="9" r:id="rId1"/>
@@ -2829,14 +2829,14 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="C3:X1204"/>
+  <dimension ref="C3:X556"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G270" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="G27" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="U5" sqref="U5"/>
+      <selection pane="bottomRight" activeCell="D30" sqref="D30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -16551,10 +16551,7 @@
       <c r="G287" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H287" s="2" t="str">
-        <f>IF(RIGHT(D287,3)="ELC","DAYNITE",IF(RIGHT(D287,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H287" s="2"/>
       <c r="I287"/>
       <c r="J287"/>
       <c r="K287"/>
@@ -16578,10 +16575,7 @@
       <c r="G288" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H288" s="2" t="str">
-        <f t="shared" ref="H288:H351" si="0">IF(RIGHT(D288,3)="ELC","DAYNITE",IF(RIGHT(D288,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H288" s="2"/>
     </row>
     <row r="289" spans="3:8">
       <c r="C289" s="17" t="s">
@@ -16599,10 +16593,7 @@
       <c r="G289" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H289" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H289" s="2"/>
     </row>
     <row r="290" spans="3:8">
       <c r="C290" s="17" t="s">
@@ -16620,10 +16611,7 @@
       <c r="G290" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H290" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H290" s="2"/>
     </row>
     <row r="291" spans="3:8">
       <c r="C291" s="17" t="s">
@@ -16641,10 +16629,7 @@
       <c r="G291" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H291" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H291" s="2"/>
     </row>
     <row r="292" spans="3:8">
       <c r="C292" s="17" t="s">
@@ -16662,10 +16647,7 @@
       <c r="G292" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H292" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H292" s="2"/>
     </row>
     <row r="293" spans="3:8">
       <c r="C293" s="17" t="s">
@@ -16683,10 +16665,7 @@
       <c r="G293" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H293" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H293" s="2"/>
     </row>
     <row r="294" spans="3:8">
       <c r="C294" s="17" t="s">
@@ -16704,10 +16683,7 @@
       <c r="G294" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H294" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H294" s="2"/>
     </row>
     <row r="295" spans="3:8">
       <c r="C295" s="17" t="s">
@@ -16725,10 +16701,7 @@
       <c r="G295" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H295" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H295" s="2"/>
     </row>
     <row r="296" spans="3:8">
       <c r="C296" s="17" t="s">
@@ -16746,10 +16719,7 @@
       <c r="G296" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H296" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H296" s="2"/>
     </row>
     <row r="297" spans="3:8">
       <c r="C297" s="17" t="s">
@@ -16767,10 +16737,7 @@
       <c r="G297" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H297" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H297" s="2"/>
     </row>
     <row r="298" spans="3:8">
       <c r="C298" s="17" t="s">
@@ -16788,10 +16755,7 @@
       <c r="G298" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H298" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H298" s="2"/>
     </row>
     <row r="299" spans="3:8">
       <c r="C299" s="17" t="s">
@@ -16809,10 +16773,7 @@
       <c r="G299" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H299" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H299" s="2"/>
     </row>
     <row r="300" spans="3:8">
       <c r="C300" s="17" t="s">
@@ -16830,10 +16791,7 @@
       <c r="G300" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H300" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H300" s="2"/>
     </row>
     <row r="301" spans="3:8">
       <c r="C301" s="17" t="s">
@@ -16851,10 +16809,7 @@
       <c r="G301" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H301" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H301" s="2"/>
     </row>
     <row r="302" spans="3:8">
       <c r="C302" s="17" t="s">
@@ -16872,10 +16827,7 @@
       <c r="G302" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H302" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H302" s="2"/>
     </row>
     <row r="303" spans="3:8">
       <c r="C303" s="17" t="s">
@@ -16893,10 +16845,7 @@
       <c r="G303" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H303" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H303" s="2"/>
     </row>
     <row r="304" spans="3:8">
       <c r="C304" s="17" t="s">
@@ -16914,10 +16863,7 @@
       <c r="G304" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H304" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H304" s="2"/>
     </row>
     <row r="305" spans="3:8">
       <c r="C305" s="17" t="s">
@@ -16935,10 +16881,7 @@
       <c r="G305" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H305" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H305" s="2"/>
     </row>
     <row r="306" spans="3:8">
       <c r="C306" s="17" t="s">
@@ -16956,10 +16899,7 @@
       <c r="G306" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H306" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H306" s="2"/>
     </row>
     <row r="307" spans="3:8">
       <c r="C307" s="17" t="s">
@@ -16977,10 +16917,7 @@
       <c r="G307" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H307" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H307" s="2"/>
     </row>
     <row r="308" spans="3:8">
       <c r="C308" s="17" t="s">
@@ -16998,10 +16935,7 @@
       <c r="G308" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H308" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H308" s="2"/>
     </row>
     <row r="309" spans="3:8">
       <c r="C309" s="17" t="s">
@@ -17019,10 +16953,7 @@
       <c r="G309" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H309" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H309" s="2"/>
     </row>
     <row r="310" spans="3:8">
       <c r="C310" s="17" t="s">
@@ -17040,10 +16971,7 @@
       <c r="G310" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H310" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H310" s="2"/>
     </row>
     <row r="311" spans="3:8">
       <c r="C311" s="17" t="s">
@@ -17061,10 +16989,7 @@
       <c r="G311" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H311" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H311" s="2"/>
     </row>
     <row r="312" spans="3:8">
       <c r="C312" s="17" t="s">
@@ -17082,10 +17007,7 @@
       <c r="G312" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H312" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H312" s="2"/>
     </row>
     <row r="313" spans="3:8">
       <c r="C313" s="17" t="s">
@@ -17103,10 +17025,7 @@
       <c r="G313" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H313" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H313" s="2"/>
     </row>
     <row r="314" spans="3:8">
       <c r="C314" s="17" t="s">
@@ -17124,10 +17043,7 @@
       <c r="G314" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H314" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H314" s="2"/>
     </row>
     <row r="315" spans="3:8">
       <c r="C315" s="17" t="s">
@@ -17145,10 +17061,7 @@
       <c r="G315" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H315" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H315" s="2"/>
     </row>
     <row r="316" spans="3:8">
       <c r="C316" s="17" t="s">
@@ -17166,10 +17079,7 @@
       <c r="G316" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H316" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H316" s="2"/>
     </row>
     <row r="317" spans="3:8">
       <c r="C317" s="17" t="s">
@@ -17187,10 +17097,7 @@
       <c r="G317" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H317" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H317" s="2"/>
     </row>
     <row r="318" spans="3:8">
       <c r="C318" s="17" t="s">
@@ -17208,10 +17115,7 @@
       <c r="G318" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H318" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H318" s="2"/>
     </row>
     <row r="319" spans="3:8">
       <c r="C319" s="17" t="s">
@@ -17229,10 +17133,7 @@
       <c r="G319" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H319" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H319" s="2"/>
     </row>
     <row r="320" spans="3:8">
       <c r="C320" s="17" t="s">
@@ -17250,10 +17151,7 @@
       <c r="G320" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H320" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H320" s="2"/>
     </row>
     <row r="321" spans="3:8">
       <c r="C321" s="17" t="s">
@@ -17271,10 +17169,7 @@
       <c r="G321" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H321" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H321" s="2"/>
     </row>
     <row r="322" spans="3:8">
       <c r="C322" s="17" t="s">
@@ -17292,10 +17187,7 @@
       <c r="G322" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H322" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H322" s="2"/>
     </row>
     <row r="323" spans="3:8">
       <c r="C323" s="17" t="s">
@@ -17313,10 +17205,7 @@
       <c r="G323" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H323" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H323" s="2"/>
     </row>
     <row r="324" spans="3:8">
       <c r="C324" s="17" t="s">
@@ -17334,10 +17223,7 @@
       <c r="G324" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H324" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H324" s="2"/>
     </row>
     <row r="325" spans="3:8">
       <c r="C325" s="17" t="s">
@@ -17355,10 +17241,7 @@
       <c r="G325" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H325" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H325" s="2"/>
     </row>
     <row r="326" spans="3:8">
       <c r="C326" s="17" t="s">
@@ -17376,10 +17259,7 @@
       <c r="G326" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H326" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H326" s="2"/>
     </row>
     <row r="327" spans="3:8">
       <c r="C327" s="17" t="s">
@@ -17397,10 +17277,7 @@
       <c r="G327" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H327" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H327" s="2"/>
     </row>
     <row r="328" spans="3:8">
       <c r="C328" s="17" t="s">
@@ -17418,10 +17295,7 @@
       <c r="G328" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H328" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H328" s="2"/>
     </row>
     <row r="329" spans="3:8">
       <c r="C329" s="17" t="s">
@@ -17439,10 +17313,7 @@
       <c r="G329" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H329" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H329" s="2"/>
     </row>
     <row r="330" spans="3:8">
       <c r="C330" s="17" t="s">
@@ -17460,10 +17331,7 @@
       <c r="G330" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H330" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H330" s="2"/>
     </row>
     <row r="331" spans="3:8">
       <c r="C331" s="17" t="s">
@@ -17481,10 +17349,7 @@
       <c r="G331" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H331" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H331" s="2"/>
     </row>
     <row r="332" spans="3:8">
       <c r="C332" s="17" t="s">
@@ -17502,10 +17367,7 @@
       <c r="G332" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H332" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H332" s="2"/>
     </row>
     <row r="333" spans="3:8">
       <c r="C333" s="17" t="s">
@@ -17523,10 +17385,7 @@
       <c r="G333" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H333" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H333" s="2"/>
     </row>
     <row r="334" spans="3:8">
       <c r="C334" s="17" t="s">
@@ -17544,10 +17403,7 @@
       <c r="G334" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H334" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H334" s="2"/>
     </row>
     <row r="335" spans="3:8">
       <c r="C335" s="17" t="s">
@@ -17565,10 +17421,7 @@
       <c r="G335" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H335" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H335" s="2"/>
     </row>
     <row r="336" spans="3:8">
       <c r="C336" s="17" t="s">
@@ -17586,10 +17439,7 @@
       <c r="G336" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H336" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H336" s="2"/>
     </row>
     <row r="337" spans="3:8">
       <c r="C337" s="17" t="s">
@@ -17607,10 +17457,7 @@
       <c r="G337" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H337" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H337" s="2"/>
     </row>
     <row r="338" spans="3:8">
       <c r="C338" s="17" t="s">
@@ -17628,10 +17475,7 @@
       <c r="G338" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H338" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H338" s="2"/>
     </row>
     <row r="339" spans="3:8">
       <c r="C339" s="17" t="s">
@@ -17649,10 +17493,7 @@
       <c r="G339" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H339" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H339" s="2"/>
     </row>
     <row r="340" spans="3:8">
       <c r="C340" s="17" t="s">
@@ -17670,10 +17511,7 @@
       <c r="G340" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H340" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H340" s="2"/>
     </row>
     <row r="341" spans="3:8">
       <c r="C341" s="17" t="s">
@@ -17691,10 +17529,7 @@
       <c r="G341" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H341" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H341" s="2"/>
     </row>
     <row r="342" spans="3:8">
       <c r="C342" s="17" t="s">
@@ -17712,10 +17547,7 @@
       <c r="G342" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H342" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H342" s="2"/>
     </row>
     <row r="343" spans="3:8">
       <c r="C343" s="17" t="s">
@@ -17733,10 +17565,7 @@
       <c r="G343" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H343" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H343" s="2"/>
     </row>
     <row r="344" spans="3:8">
       <c r="C344" s="17" t="s">
@@ -17754,10 +17583,7 @@
       <c r="G344" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H344" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H344" s="2"/>
     </row>
     <row r="345" spans="3:8">
       <c r="C345" s="17" t="s">
@@ -17775,10 +17601,7 @@
       <c r="G345" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H345" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H345" s="2"/>
     </row>
     <row r="346" spans="3:8">
       <c r="C346" s="17" t="s">
@@ -17796,10 +17619,7 @@
       <c r="G346" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H346" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H346" s="2"/>
     </row>
     <row r="347" spans="3:8">
       <c r="C347" s="17" t="s">
@@ -17817,10 +17637,7 @@
       <c r="G347" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H347" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H347" s="2"/>
     </row>
     <row r="348" spans="3:8">
       <c r="C348" s="17" t="s">
@@ -17838,10 +17655,7 @@
       <c r="G348" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H348" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H348" s="2"/>
     </row>
     <row r="349" spans="3:8">
       <c r="C349" s="17" t="s">
@@ -17859,10 +17673,7 @@
       <c r="G349" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H349" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H349" s="2"/>
     </row>
     <row r="350" spans="3:8">
       <c r="C350" s="17" t="s">
@@ -17880,10 +17691,7 @@
       <c r="G350" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H350" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H350" s="2"/>
     </row>
     <row r="351" spans="3:8">
       <c r="C351" s="17" t="s">
@@ -17901,10 +17709,7 @@
       <c r="G351" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H351" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H351" s="2"/>
     </row>
     <row r="352" spans="3:8">
       <c r="C352" s="17" t="s">
@@ -17922,10 +17727,7 @@
       <c r="G352" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H352" s="2" t="str">
-        <f t="shared" ref="H352:H415" si="1">IF(RIGHT(D352,3)="ELC","DAYNITE",IF(RIGHT(D352,3)="H2R","DAYNITE",""))</f>
-        <v/>
-      </c>
+      <c r="H352" s="2"/>
     </row>
     <row r="353" spans="3:8">
       <c r="C353" s="17" t="s">
@@ -17943,10 +17745,7 @@
       <c r="G353" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H353" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H353" s="2"/>
     </row>
     <row r="354" spans="3:8">
       <c r="C354" s="17" t="s">
@@ -17964,10 +17763,7 @@
       <c r="G354" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H354" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H354" s="2"/>
     </row>
     <row r="355" spans="3:8">
       <c r="C355" s="17" t="s">
@@ -17985,10 +17781,7 @@
       <c r="G355" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H355" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H355" s="2"/>
     </row>
     <row r="356" spans="3:8">
       <c r="C356" s="17" t="s">
@@ -18006,10 +17799,7 @@
       <c r="G356" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H356" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H356" s="2"/>
     </row>
     <row r="357" spans="3:8">
       <c r="C357" s="17" t="s">
@@ -18027,10 +17817,7 @@
       <c r="G357" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H357" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H357" s="2"/>
     </row>
     <row r="358" spans="3:8">
       <c r="C358" s="17" t="s">
@@ -18048,10 +17835,7 @@
       <c r="G358" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H358" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H358" s="2"/>
     </row>
     <row r="359" spans="3:8">
       <c r="C359" s="17" t="s">
@@ -18069,10 +17853,7 @@
       <c r="G359" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H359" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H359" s="2"/>
     </row>
     <row r="360" spans="3:8">
       <c r="C360" s="17" t="s">
@@ -18090,10 +17871,7 @@
       <c r="G360" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H360" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H360" s="2"/>
     </row>
     <row r="361" spans="3:8">
       <c r="C361" s="17" t="s">
@@ -18111,10 +17889,7 @@
       <c r="G361" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H361" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H361" s="2"/>
     </row>
     <row r="362" spans="3:8">
       <c r="C362" s="17" t="s">
@@ -18132,10 +17907,7 @@
       <c r="G362" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H362" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H362" s="2"/>
     </row>
     <row r="363" spans="3:8">
       <c r="C363" s="17" t="s">
@@ -18153,10 +17925,7 @@
       <c r="G363" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H363" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H363" s="2"/>
     </row>
     <row r="364" spans="3:8">
       <c r="C364" s="17" t="s">
@@ -18174,10 +17943,7 @@
       <c r="G364" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H364" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H364" s="2"/>
     </row>
     <row r="365" spans="3:8">
       <c r="C365" s="17" t="s">
@@ -18195,10 +17961,7 @@
       <c r="G365" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H365" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H365" s="2"/>
     </row>
     <row r="366" spans="3:8">
       <c r="C366" s="17" t="s">
@@ -18216,10 +17979,7 @@
       <c r="G366" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H366" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H366" s="2"/>
     </row>
     <row r="367" spans="3:8">
       <c r="C367" s="17" t="s">
@@ -18237,10 +17997,7 @@
       <c r="G367" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H367" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H367" s="2"/>
     </row>
     <row r="368" spans="3:8">
       <c r="C368" s="17" t="s">
@@ -18258,10 +18015,7 @@
       <c r="G368" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H368" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H368" s="2"/>
     </row>
     <row r="369" spans="3:8">
       <c r="C369" s="17" t="s">
@@ -18279,10 +18033,7 @@
       <c r="G369" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H369" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H369" s="2"/>
     </row>
     <row r="370" spans="3:8">
       <c r="C370" s="17" t="s">
@@ -18300,10 +18051,7 @@
       <c r="G370" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H370" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H370" s="2"/>
     </row>
     <row r="371" spans="3:8">
       <c r="C371" s="17" t="s">
@@ -18321,10 +18069,7 @@
       <c r="G371" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H371" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H371" s="2"/>
     </row>
     <row r="372" spans="3:8">
       <c r="C372" s="17" t="s">
@@ -18342,10 +18087,7 @@
       <c r="G372" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H372" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H372" s="2"/>
     </row>
     <row r="373" spans="3:8">
       <c r="C373" s="17" t="s">
@@ -18363,10 +18105,7 @@
       <c r="G373" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H373" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H373" s="2"/>
     </row>
     <row r="374" spans="3:8">
       <c r="C374" s="17" t="s">
@@ -18384,10 +18123,7 @@
       <c r="G374" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H374" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H374" s="2"/>
     </row>
     <row r="375" spans="3:8">
       <c r="C375" s="17" t="s">
@@ -18405,10 +18141,7 @@
       <c r="G375" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H375" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H375" s="2"/>
     </row>
     <row r="376" spans="3:8">
       <c r="C376" s="17" t="s">
@@ -18426,10 +18159,7 @@
       <c r="G376" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H376" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H376" s="2"/>
     </row>
     <row r="377" spans="3:8">
       <c r="C377" s="17" t="s">
@@ -18447,10 +18177,7 @@
       <c r="G377" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H377" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H377" s="2"/>
     </row>
     <row r="378" spans="3:8">
       <c r="C378" s="17" t="s">
@@ -18468,10 +18195,7 @@
       <c r="G378" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H378" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H378" s="2"/>
     </row>
     <row r="379" spans="3:8">
       <c r="C379" s="17" t="s">
@@ -18489,10 +18213,7 @@
       <c r="G379" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H379" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H379" s="2"/>
     </row>
     <row r="380" spans="3:8">
       <c r="C380" s="17" t="s">
@@ -18510,10 +18231,7 @@
       <c r="G380" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H380" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H380" s="2"/>
     </row>
     <row r="381" spans="3:8">
       <c r="C381" s="17" t="s">
@@ -18531,10 +18249,7 @@
       <c r="G381" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H381" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H381" s="2"/>
     </row>
     <row r="382" spans="3:8">
       <c r="C382" s="17" t="s">
@@ -18552,10 +18267,7 @@
       <c r="G382" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H382" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H382" s="2"/>
     </row>
     <row r="383" spans="3:8">
       <c r="C383" s="17" t="s">
@@ -18573,10 +18285,7 @@
       <c r="G383" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H383" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H383" s="2"/>
     </row>
     <row r="384" spans="3:8">
       <c r="C384" s="17" t="s">
@@ -18594,10 +18303,7 @@
       <c r="G384" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H384" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H384" s="2"/>
     </row>
     <row r="385" spans="3:8">
       <c r="C385" s="17" t="s">
@@ -18615,10 +18321,7 @@
       <c r="G385" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H385" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H385" s="2"/>
     </row>
     <row r="386" spans="3:8">
       <c r="C386" s="17" t="s">
@@ -18636,10 +18339,7 @@
       <c r="G386" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H386" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H386" s="2"/>
     </row>
     <row r="387" spans="3:8">
       <c r="C387" s="17" t="s">
@@ -18657,10 +18357,7 @@
       <c r="G387" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H387" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H387" s="2"/>
     </row>
     <row r="388" spans="3:8">
       <c r="C388" s="17" t="s">
@@ -18678,10 +18375,7 @@
       <c r="G388" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H388" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H388" s="2"/>
     </row>
     <row r="389" spans="3:8">
       <c r="C389" s="17" t="s">
@@ -18699,10 +18393,7 @@
       <c r="G389" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H389" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H389" s="2"/>
     </row>
     <row r="390" spans="3:8">
       <c r="C390" s="17" t="s">
@@ -18720,10 +18411,7 @@
       <c r="G390" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H390" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H390" s="2"/>
     </row>
     <row r="391" spans="3:8">
       <c r="C391" s="17" t="s">
@@ -18741,10 +18429,7 @@
       <c r="G391" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H391" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H391" s="2"/>
     </row>
     <row r="392" spans="3:8">
       <c r="C392" s="17" t="s">
@@ -18762,10 +18447,7 @@
       <c r="G392" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H392" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H392" s="2"/>
     </row>
     <row r="393" spans="3:8">
       <c r="C393" s="17" t="s">
@@ -18783,10 +18465,7 @@
       <c r="G393" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H393" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H393" s="2"/>
     </row>
     <row r="394" spans="3:8">
       <c r="C394" s="17" t="s">
@@ -18804,10 +18483,7 @@
       <c r="G394" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H394" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H394" s="2"/>
     </row>
     <row r="395" spans="3:8">
       <c r="C395" s="17" t="s">
@@ -18823,10 +18499,7 @@
       <c r="G395" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H395" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H395" s="2"/>
     </row>
     <row r="396" spans="3:8">
       <c r="C396" s="17" t="s">
@@ -18844,10 +18517,7 @@
       <c r="G396" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H396" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H396" s="2"/>
     </row>
     <row r="397" spans="3:8">
       <c r="C397" s="17" t="s">
@@ -18865,10 +18535,7 @@
       <c r="G397" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H397" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H397" s="2"/>
     </row>
     <row r="398" spans="3:8">
       <c r="C398" s="17" t="s">
@@ -18886,10 +18553,7 @@
       <c r="G398" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H398" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H398" s="2"/>
     </row>
     <row r="399" spans="3:8">
       <c r="C399" s="17" t="s">
@@ -18907,10 +18571,7 @@
       <c r="G399" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H399" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H399" s="2"/>
     </row>
     <row r="400" spans="3:8">
       <c r="C400" s="17" t="s">
@@ -18928,10 +18589,7 @@
       <c r="G400" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H400" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H400" s="2"/>
     </row>
     <row r="401" spans="3:8">
       <c r="C401" s="17" t="s">
@@ -18949,10 +18607,7 @@
       <c r="G401" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H401" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H401" s="2"/>
     </row>
     <row r="402" spans="3:8">
       <c r="C402" s="17" t="s">
@@ -18970,10 +18625,7 @@
       <c r="G402" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H402" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H402" s="2"/>
     </row>
     <row r="403" spans="3:8">
       <c r="C403" s="17" t="s">
@@ -18991,10 +18643,7 @@
       <c r="G403" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H403" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H403" s="2"/>
     </row>
     <row r="404" spans="3:8">
       <c r="C404" s="17" t="s">
@@ -19012,10 +18661,7 @@
       <c r="G404" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H404" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H404" s="2"/>
     </row>
     <row r="405" spans="3:8">
       <c r="C405" s="17" t="s">
@@ -19033,10 +18679,7 @@
       <c r="G405" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H405" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H405" s="2"/>
     </row>
     <row r="406" spans="3:8">
       <c r="C406" s="17" t="s">
@@ -19054,10 +18697,7 @@
       <c r="G406" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H406" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H406" s="2"/>
     </row>
     <row r="407" spans="3:8">
       <c r="C407" s="17" t="s">
@@ -19075,10 +18715,7 @@
       <c r="G407" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H407" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H407" s="2"/>
     </row>
     <row r="408" spans="3:8">
       <c r="C408" s="17" t="s">
@@ -19096,10 +18733,7 @@
       <c r="G408" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H408" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H408" s="2"/>
     </row>
     <row r="409" spans="3:8">
       <c r="C409" s="17" t="s">
@@ -19117,10 +18751,7 @@
       <c r="G409" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H409" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H409" s="2"/>
     </row>
     <row r="410" spans="3:8">
       <c r="C410" s="17" t="s">
@@ -19138,10 +18769,7 @@
       <c r="G410" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H410" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H410" s="2"/>
     </row>
     <row r="411" spans="3:8">
       <c r="C411" s="17" t="s">
@@ -19159,10 +18787,7 @@
       <c r="G411" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H411" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H411" s="2"/>
     </row>
     <row r="412" spans="3:8">
       <c r="C412" s="17" t="s">
@@ -19180,10 +18805,7 @@
       <c r="G412" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H412" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H412" s="2"/>
     </row>
     <row r="413" spans="3:8">
       <c r="C413" s="17" t="s">
@@ -19201,10 +18823,7 @@
       <c r="G413" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H413" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H413" s="2"/>
     </row>
     <row r="414" spans="3:8">
       <c r="C414" s="17" t="s">
@@ -19222,10 +18841,7 @@
       <c r="G414" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H414" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H414" s="2"/>
     </row>
     <row r="415" spans="3:8">
       <c r="C415" s="17" t="s">
@@ -19243,10 +18859,7 @@
       <c r="G415" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H415" s="2" t="str">
-        <f t="shared" si="1"/>
-        <v/>
-      </c>
+      <c r="H415" s="2"/>
     </row>
     <row r="416" spans="3:8">
       <c r="C416" s="17" t="s">
@@ -19264,10 +18877,7 @@
       <c r="G416" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H416" s="2" t="str">
-        <f t="shared" ref="H416:H479" si="2">IF(RIGHT(D416,3)="ELC","DAYNITE",IF(RIGHT(D416,3)="H2R","DAYNITE",""))</f>
-        <v/>
-      </c>
+      <c r="H416" s="2"/>
     </row>
     <row r="417" spans="3:8">
       <c r="C417" s="17" t="s">
@@ -19285,10 +18895,7 @@
       <c r="G417" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H417" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H417" s="2"/>
     </row>
     <row r="418" spans="3:8">
       <c r="C418" s="17" t="s">
@@ -19306,10 +18913,7 @@
       <c r="G418" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H418" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H418" s="2"/>
     </row>
     <row r="419" spans="3:8">
       <c r="C419" s="17" t="s">
@@ -19327,10 +18931,7 @@
       <c r="G419" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H419" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H419" s="2"/>
     </row>
     <row r="420" spans="3:8">
       <c r="C420" s="17" t="s">
@@ -19348,10 +18949,7 @@
       <c r="G420" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H420" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H420" s="2"/>
     </row>
     <row r="421" spans="3:8">
       <c r="C421" s="17" t="s">
@@ -19369,10 +18967,7 @@
       <c r="G421" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H421" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H421" s="2"/>
     </row>
     <row r="422" spans="3:8">
       <c r="C422" s="17" t="s">
@@ -19390,10 +18985,7 @@
       <c r="G422" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H422" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H422" s="2"/>
     </row>
     <row r="423" spans="3:8">
       <c r="C423" s="17" t="s">
@@ -19411,10 +19003,7 @@
       <c r="G423" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H423" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H423" s="2"/>
     </row>
     <row r="424" spans="3:8">
       <c r="C424" s="17" t="s">
@@ -19432,10 +19021,7 @@
       <c r="G424" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H424" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H424" s="2"/>
     </row>
     <row r="425" spans="3:8">
       <c r="C425" s="17" t="s">
@@ -19453,10 +19039,7 @@
       <c r="G425" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H425" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H425" s="2"/>
     </row>
     <row r="426" spans="3:8">
       <c r="C426" s="17" t="s">
@@ -19474,10 +19057,7 @@
       <c r="G426" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H426" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H426" s="2"/>
     </row>
     <row r="427" spans="3:8">
       <c r="C427" s="17" t="s">
@@ -19495,10 +19075,7 @@
       <c r="G427" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H427" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H427" s="2"/>
     </row>
     <row r="428" spans="3:8">
       <c r="C428" s="17" t="s">
@@ -19516,10 +19093,7 @@
       <c r="G428" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H428" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H428" s="2"/>
     </row>
     <row r="429" spans="3:8">
       <c r="C429" s="17" t="s">
@@ -19537,10 +19111,7 @@
       <c r="G429" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H429" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H429" s="2"/>
     </row>
     <row r="430" spans="3:8">
       <c r="C430" s="17" t="s">
@@ -19558,10 +19129,7 @@
       <c r="G430" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H430" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H430" s="2"/>
     </row>
     <row r="431" spans="3:8">
       <c r="C431" s="17" t="s">
@@ -19579,10 +19147,7 @@
       <c r="G431" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H431" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H431" s="2"/>
     </row>
     <row r="432" spans="3:8">
       <c r="C432" s="17" t="s">
@@ -19600,10 +19165,7 @@
       <c r="G432" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H432" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H432" s="2"/>
     </row>
     <row r="433" spans="3:8">
       <c r="C433" s="17" t="s">
@@ -19621,10 +19183,7 @@
       <c r="G433" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H433" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H433" s="2"/>
     </row>
     <row r="434" spans="3:8">
       <c r="C434" s="17" t="s">
@@ -19642,10 +19201,7 @@
       <c r="G434" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H434" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H434" s="2"/>
     </row>
     <row r="435" spans="3:8">
       <c r="C435" s="17" t="s">
@@ -19663,10 +19219,7 @@
       <c r="G435" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H435" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H435" s="2"/>
     </row>
     <row r="436" spans="3:8">
       <c r="C436" s="17" t="s">
@@ -19684,10 +19237,7 @@
       <c r="G436" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H436" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H436" s="2"/>
     </row>
     <row r="437" spans="3:8">
       <c r="C437" s="17" t="s">
@@ -19705,10 +19255,7 @@
       <c r="G437" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H437" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H437" s="2"/>
     </row>
     <row r="438" spans="3:8">
       <c r="C438" s="17" t="s">
@@ -19726,10 +19273,7 @@
       <c r="G438" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H438" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H438" s="2"/>
     </row>
     <row r="439" spans="3:8">
       <c r="C439" s="17" t="s">
@@ -19747,10 +19291,7 @@
       <c r="G439" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H439" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H439" s="2"/>
     </row>
     <row r="440" spans="3:8">
       <c r="C440" s="17" t="s">
@@ -19768,10 +19309,7 @@
       <c r="G440" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H440" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H440" s="2"/>
     </row>
     <row r="441" spans="3:8">
       <c r="C441" s="17" t="s">
@@ -19789,10 +19327,7 @@
       <c r="G441" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H441" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H441" s="2"/>
     </row>
     <row r="442" spans="3:8">
       <c r="C442" s="17" t="s">
@@ -19810,10 +19345,7 @@
       <c r="G442" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H442" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H442" s="2"/>
     </row>
     <row r="443" spans="3:8">
       <c r="C443" s="17" t="s">
@@ -19829,10 +19361,7 @@
       <c r="G443" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H443" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H443" s="2"/>
     </row>
     <row r="444" spans="3:8">
       <c r="C444" s="17" t="s">
@@ -19850,10 +19379,7 @@
       <c r="G444" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H444" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H444" s="2"/>
     </row>
     <row r="445" spans="3:8">
       <c r="C445" s="17" t="s">
@@ -19871,10 +19397,7 @@
       <c r="G445" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H445" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H445" s="2"/>
     </row>
     <row r="446" spans="3:8">
       <c r="C446" s="17" t="s">
@@ -19892,10 +19415,7 @@
       <c r="G446" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H446" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H446" s="2"/>
     </row>
     <row r="447" spans="3:8">
       <c r="C447" s="17" t="s">
@@ -19913,10 +19433,7 @@
       <c r="G447" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H447" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H447" s="2"/>
     </row>
     <row r="448" spans="3:8">
       <c r="C448" s="17" t="s">
@@ -19934,10 +19451,7 @@
       <c r="G448" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H448" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H448" s="2"/>
     </row>
     <row r="449" spans="3:8">
       <c r="C449" s="17" t="s">
@@ -19955,10 +19469,7 @@
       <c r="G449" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H449" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H449" s="2"/>
     </row>
     <row r="450" spans="3:8">
       <c r="C450" s="17" t="s">
@@ -19976,10 +19487,7 @@
       <c r="G450" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H450" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H450" s="2"/>
     </row>
     <row r="451" spans="3:8">
       <c r="C451" s="17" t="s">
@@ -19997,10 +19505,7 @@
       <c r="G451" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H451" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H451" s="2"/>
     </row>
     <row r="452" spans="3:8">
       <c r="C452" s="17" t="s">
@@ -20018,10 +19523,7 @@
       <c r="G452" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H452" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H452" s="2"/>
     </row>
     <row r="453" spans="3:8">
       <c r="C453" s="17" t="s">
@@ -20039,10 +19541,7 @@
       <c r="G453" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H453" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H453" s="2"/>
     </row>
     <row r="454" spans="3:8">
       <c r="C454" s="17" t="s">
@@ -20060,10 +19559,7 @@
       <c r="G454" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H454" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H454" s="2"/>
     </row>
     <row r="455" spans="3:8">
       <c r="C455" s="17" t="s">
@@ -20081,10 +19577,7 @@
       <c r="G455" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H455" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H455" s="2"/>
     </row>
     <row r="456" spans="3:8">
       <c r="C456" s="17" t="s">
@@ -20102,10 +19595,7 @@
       <c r="G456" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H456" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H456" s="2"/>
     </row>
     <row r="457" spans="3:8">
       <c r="C457" s="17" t="s">
@@ -20123,10 +19613,7 @@
       <c r="G457" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H457" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H457" s="2"/>
     </row>
     <row r="458" spans="3:8">
       <c r="C458" s="17" t="s">
@@ -20144,10 +19631,7 @@
       <c r="G458" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H458" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H458" s="2"/>
     </row>
     <row r="459" spans="3:8">
       <c r="C459" s="17" t="s">
@@ -20165,10 +19649,7 @@
       <c r="G459" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H459" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H459" s="2"/>
     </row>
     <row r="460" spans="3:8">
       <c r="C460" s="17" t="s">
@@ -20186,10 +19667,7 @@
       <c r="G460" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H460" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H460" s="2"/>
     </row>
     <row r="461" spans="3:8">
       <c r="C461" s="17" t="s">
@@ -20207,10 +19685,7 @@
       <c r="G461" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H461" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H461" s="2"/>
     </row>
     <row r="462" spans="3:8">
       <c r="C462" s="17" t="s">
@@ -20228,10 +19703,7 @@
       <c r="G462" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H462" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H462" s="2"/>
     </row>
     <row r="463" spans="3:8">
       <c r="C463" s="17" t="s">
@@ -20249,10 +19721,7 @@
       <c r="G463" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H463" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H463" s="2"/>
     </row>
     <row r="464" spans="3:8">
       <c r="C464" s="17" t="s">
@@ -20270,10 +19739,7 @@
       <c r="G464" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H464" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H464" s="2"/>
     </row>
     <row r="465" spans="3:8">
       <c r="C465" s="17" t="s">
@@ -20291,10 +19757,7 @@
       <c r="G465" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H465" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H465" s="2"/>
     </row>
     <row r="466" spans="3:8">
       <c r="C466" s="17" t="s">
@@ -20312,10 +19775,7 @@
       <c r="G466" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H466" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H466" s="2"/>
     </row>
     <row r="467" spans="3:8">
       <c r="C467" s="17" t="s">
@@ -20333,10 +19793,7 @@
       <c r="G467" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H467" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H467" s="2"/>
     </row>
     <row r="468" spans="3:8">
       <c r="C468" s="17" t="s">
@@ -20354,10 +19811,7 @@
       <c r="G468" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H468" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H468" s="2"/>
     </row>
     <row r="469" spans="3:8">
       <c r="C469" s="17" t="s">
@@ -20375,10 +19829,7 @@
       <c r="G469" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H469" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H469" s="2"/>
     </row>
     <row r="470" spans="3:8">
       <c r="C470" s="17" t="s">
@@ -20396,10 +19847,7 @@
       <c r="G470" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H470" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H470" s="2"/>
     </row>
     <row r="471" spans="3:8">
       <c r="C471" s="17" t="s">
@@ -20417,10 +19865,7 @@
       <c r="G471" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H471" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H471" s="2"/>
     </row>
     <row r="472" spans="3:8">
       <c r="C472" s="17" t="s">
@@ -20438,10 +19883,7 @@
       <c r="G472" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H472" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H472" s="2"/>
     </row>
     <row r="473" spans="3:8">
       <c r="C473" s="17" t="s">
@@ -20459,10 +19901,7 @@
       <c r="G473" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H473" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H473" s="2"/>
     </row>
     <row r="474" spans="3:8">
       <c r="C474" s="17" t="s">
@@ -20480,10 +19919,7 @@
       <c r="G474" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H474" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H474" s="2"/>
     </row>
     <row r="475" spans="3:8">
       <c r="C475" s="17" t="s">
@@ -20501,10 +19937,7 @@
       <c r="G475" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H475" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H475" s="2"/>
     </row>
     <row r="476" spans="3:8">
       <c r="C476" s="17" t="s">
@@ -20522,10 +19955,7 @@
       <c r="G476" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H476" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H476" s="2"/>
     </row>
     <row r="477" spans="3:8">
       <c r="C477" s="17" t="s">
@@ -20543,10 +19973,7 @@
       <c r="G477" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H477" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v/>
-      </c>
+      <c r="H477" s="2"/>
     </row>
     <row r="478" spans="3:8">
       <c r="C478" s="17" t="s">
@@ -20564,10 +19991,7 @@
       <c r="G478" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H478" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H478" s="2"/>
     </row>
     <row r="479" spans="3:8">
       <c r="C479" s="17" t="s">
@@ -20585,10 +20009,7 @@
       <c r="G479" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H479" s="2" t="str">
-        <f t="shared" si="2"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H479" s="2"/>
     </row>
     <row r="480" spans="3:8">
       <c r="C480" s="17" t="s">
@@ -20606,10 +20027,7 @@
       <c r="G480" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H480" s="2" t="str">
-        <f t="shared" ref="H480:H543" si="3">IF(RIGHT(D480,3)="ELC","DAYNITE",IF(RIGHT(D480,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H480" s="2"/>
     </row>
     <row r="481" spans="3:8">
       <c r="C481" s="17" t="s">
@@ -20627,10 +20045,7 @@
       <c r="G481" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H481" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H481" s="2"/>
     </row>
     <row r="482" spans="3:8">
       <c r="C482" s="17" t="s">
@@ -20648,10 +20063,7 @@
       <c r="G482" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H482" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H482" s="2"/>
     </row>
     <row r="483" spans="3:8">
       <c r="C483" s="17" t="s">
@@ -20669,10 +20081,7 @@
       <c r="G483" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H483" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H483" s="2"/>
     </row>
     <row r="484" spans="3:8">
       <c r="C484" s="17" t="s">
@@ -20690,10 +20099,7 @@
       <c r="G484" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H484" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H484" s="2"/>
     </row>
     <row r="485" spans="3:8">
       <c r="C485" s="17" t="s">
@@ -20711,10 +20117,7 @@
       <c r="G485" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H485" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H485" s="2"/>
     </row>
     <row r="486" spans="3:8">
       <c r="C486" s="17" t="s">
@@ -20732,10 +20135,7 @@
       <c r="G486" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H486" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H486" s="2"/>
     </row>
     <row r="487" spans="3:8">
       <c r="C487" s="17" t="s">
@@ -20753,10 +20153,7 @@
       <c r="G487" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H487" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H487" s="2"/>
     </row>
     <row r="488" spans="3:8">
       <c r="C488" s="17" t="s">
@@ -20774,10 +20171,7 @@
       <c r="G488" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H488" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H488" s="2"/>
     </row>
     <row r="489" spans="3:8">
       <c r="C489" s="17" t="s">
@@ -20795,10 +20189,7 @@
       <c r="G489" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H489" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H489" s="2"/>
     </row>
     <row r="490" spans="3:8">
       <c r="C490" s="17" t="s">
@@ -20816,10 +20207,7 @@
       <c r="G490" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H490" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H490" s="2"/>
     </row>
     <row r="491" spans="3:8">
       <c r="C491" s="17" t="s">
@@ -20837,10 +20225,7 @@
       <c r="G491" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H491" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H491" s="2"/>
     </row>
     <row r="492" spans="3:8">
       <c r="C492" s="17" t="s">
@@ -20858,10 +20243,7 @@
       <c r="G492" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H492" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H492" s="2"/>
     </row>
     <row r="493" spans="3:8">
       <c r="C493" s="17" t="s">
@@ -20879,10 +20261,7 @@
       <c r="G493" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H493" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H493" s="2"/>
     </row>
     <row r="494" spans="3:8">
       <c r="C494" s="17" t="s">
@@ -20900,10 +20279,7 @@
       <c r="G494" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H494" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H494" s="2"/>
     </row>
     <row r="495" spans="3:8">
       <c r="C495" s="17" t="s">
@@ -20921,10 +20297,7 @@
       <c r="G495" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H495" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H495" s="2"/>
     </row>
     <row r="496" spans="3:8">
       <c r="C496" s="17" t="s">
@@ -20942,10 +20315,7 @@
       <c r="G496" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H496" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H496" s="2"/>
     </row>
     <row r="497" spans="3:8">
       <c r="C497" s="17" t="s">
@@ -20963,10 +20333,7 @@
       <c r="G497" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H497" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H497" s="2"/>
     </row>
     <row r="498" spans="3:8">
       <c r="C498" s="17" t="s">
@@ -20984,10 +20351,7 @@
       <c r="G498" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H498" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H498" s="2"/>
     </row>
     <row r="499" spans="3:8">
       <c r="C499" s="17" t="s">
@@ -21005,10 +20369,7 @@
       <c r="G499" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H499" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H499" s="2"/>
     </row>
     <row r="500" spans="3:8">
       <c r="C500" s="17" t="s">
@@ -21026,10 +20387,7 @@
       <c r="G500" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H500" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H500" s="2"/>
     </row>
     <row r="501" spans="3:8">
       <c r="C501" s="17" t="s">
@@ -21047,10 +20405,7 @@
       <c r="G501" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H501" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H501" s="2"/>
     </row>
     <row r="502" spans="3:8">
       <c r="C502" s="17" t="s">
@@ -21066,10 +20421,7 @@
       <c r="G502" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H502" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H502" s="2"/>
     </row>
     <row r="503" spans="3:8">
       <c r="C503" s="17" t="s">
@@ -21087,10 +20439,7 @@
       <c r="G503" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H503" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H503" s="2"/>
     </row>
     <row r="504" spans="3:8">
       <c r="C504" s="17" t="s">
@@ -21108,10 +20457,7 @@
       <c r="G504" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H504" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H504" s="2"/>
     </row>
     <row r="505" spans="3:8">
       <c r="C505" s="17" t="s">
@@ -21129,10 +20475,7 @@
       <c r="G505" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H505" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H505" s="2"/>
     </row>
     <row r="506" spans="3:8">
       <c r="C506" s="17" t="s">
@@ -21150,10 +20493,7 @@
       <c r="G506" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H506" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H506" s="2"/>
     </row>
     <row r="507" spans="3:8">
       <c r="C507" s="17" t="s">
@@ -21171,10 +20511,7 @@
       <c r="G507" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H507" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H507" s="2"/>
     </row>
     <row r="508" spans="3:8">
       <c r="C508" s="17" t="s">
@@ -21192,10 +20529,7 @@
       <c r="G508" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H508" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H508" s="2"/>
     </row>
     <row r="509" spans="3:8">
       <c r="C509" s="17" t="s">
@@ -21213,10 +20547,7 @@
       <c r="G509" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H509" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H509" s="2"/>
     </row>
     <row r="510" spans="3:8">
       <c r="C510" s="17" t="s">
@@ -21234,10 +20565,7 @@
       <c r="G510" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H510" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H510" s="2"/>
     </row>
     <row r="511" spans="3:8">
       <c r="C511" s="17" t="s">
@@ -21255,10 +20583,7 @@
       <c r="G511" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H511" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H511" s="2"/>
     </row>
     <row r="512" spans="3:8">
       <c r="C512" s="17" t="s">
@@ -21276,10 +20601,7 @@
       <c r="G512" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H512" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H512" s="2"/>
     </row>
     <row r="513" spans="3:8">
       <c r="C513" s="17" t="s">
@@ -21297,10 +20619,7 @@
       <c r="G513" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H513" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H513" s="2"/>
     </row>
     <row r="514" spans="3:8">
       <c r="C514" s="17" t="s">
@@ -21318,10 +20637,7 @@
       <c r="G514" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H514" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H514" s="2"/>
     </row>
     <row r="515" spans="3:8">
       <c r="C515" s="17" t="s">
@@ -21339,10 +20655,7 @@
       <c r="G515" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H515" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H515" s="2"/>
     </row>
     <row r="516" spans="3:8">
       <c r="C516" s="17" t="s">
@@ -21360,10 +20673,7 @@
       <c r="G516" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H516" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H516" s="2"/>
     </row>
     <row r="517" spans="3:8">
       <c r="C517" s="17" t="s">
@@ -21381,10 +20691,7 @@
       <c r="G517" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H517" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H517" s="2"/>
     </row>
     <row r="518" spans="3:8">
       <c r="C518" s="17" t="s">
@@ -21402,10 +20709,7 @@
       <c r="G518" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H518" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H518" s="2"/>
     </row>
     <row r="519" spans="3:8">
       <c r="C519" s="17" t="s">
@@ -21423,10 +20727,7 @@
       <c r="G519" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H519" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H519" s="2"/>
     </row>
     <row r="520" spans="3:8">
       <c r="C520" s="17" t="s">
@@ -21444,10 +20745,7 @@
       <c r="G520" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H520" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H520" s="2"/>
     </row>
     <row r="521" spans="3:8">
       <c r="C521" s="17" t="s">
@@ -21465,10 +20763,7 @@
       <c r="G521" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H521" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H521" s="2"/>
     </row>
     <row r="522" spans="3:8">
       <c r="C522" s="17" t="s">
@@ -21486,10 +20781,7 @@
       <c r="G522" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H522" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H522" s="2"/>
     </row>
     <row r="523" spans="3:8">
       <c r="C523" s="17" t="s">
@@ -21507,10 +20799,7 @@
       <c r="G523" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H523" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H523" s="2"/>
     </row>
     <row r="524" spans="3:8">
       <c r="C524" s="17" t="s">
@@ -21528,10 +20817,7 @@
       <c r="G524" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H524" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H524" s="2"/>
     </row>
     <row r="525" spans="3:8">
       <c r="C525" s="17" t="s">
@@ -21549,10 +20835,7 @@
       <c r="G525" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H525" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H525" s="2"/>
     </row>
     <row r="526" spans="3:8">
       <c r="C526" s="17" t="s">
@@ -21570,10 +20853,7 @@
       <c r="G526" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H526" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H526" s="2"/>
     </row>
     <row r="527" spans="3:8">
       <c r="C527" s="17" t="s">
@@ -21591,10 +20871,7 @@
       <c r="G527" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H527" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H527" s="2"/>
     </row>
     <row r="528" spans="3:8">
       <c r="C528" s="17" t="s">
@@ -21612,10 +20889,7 @@
       <c r="G528" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H528" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H528" s="2"/>
     </row>
     <row r="529" spans="3:13">
       <c r="C529" s="17" t="s">
@@ -21633,10 +20907,7 @@
       <c r="G529" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H529" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H529" s="2"/>
     </row>
     <row r="530" spans="3:13">
       <c r="C530" s="17" t="s">
@@ -21654,10 +20925,7 @@
       <c r="G530" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H530" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H530" s="2"/>
     </row>
     <row r="531" spans="3:13">
       <c r="C531" s="17" t="s">
@@ -21675,10 +20943,7 @@
       <c r="G531" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H531" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H531" s="2"/>
     </row>
     <row r="532" spans="3:13">
       <c r="C532" s="17" t="s">
@@ -21696,10 +20961,7 @@
       <c r="G532" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H532" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H532" s="2"/>
     </row>
     <row r="533" spans="3:13">
       <c r="C533" s="17" t="s">
@@ -21717,10 +20979,7 @@
       <c r="G533" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H533" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H533" s="2"/>
     </row>
     <row r="534" spans="3:13">
       <c r="C534" s="17" t="s">
@@ -21738,10 +20997,7 @@
       <c r="G534" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H534" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H534" s="2"/>
     </row>
     <row r="535" spans="3:13">
       <c r="C535" s="17" t="s">
@@ -21759,10 +21015,7 @@
       <c r="G535" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H535" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H535" s="2"/>
     </row>
     <row r="536" spans="3:13">
       <c r="C536" s="17" t="s">
@@ -21780,10 +21033,7 @@
       <c r="G536" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H536" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H536" s="2"/>
     </row>
     <row r="537" spans="3:13">
       <c r="C537" s="17" t="s">
@@ -21801,10 +21051,7 @@
       <c r="G537" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H537" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H537" s="2"/>
     </row>
     <row r="538" spans="3:13">
       <c r="C538" s="17" t="s">
@@ -21822,10 +21069,7 @@
       <c r="G538" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H538" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H538" s="2"/>
     </row>
     <row r="539" spans="3:13">
       <c r="C539" s="17" t="s">
@@ -21843,10 +21087,7 @@
       <c r="G539" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H539" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H539" s="2"/>
       <c r="J539"/>
       <c r="K539"/>
       <c r="L539"/>
@@ -21868,10 +21109,7 @@
       <c r="G540" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H540" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H540" s="2"/>
       <c r="J540"/>
       <c r="K540"/>
       <c r="L540"/>
@@ -21893,10 +21131,7 @@
       <c r="G541" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H541" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H541" s="2"/>
       <c r="J541"/>
       <c r="K541"/>
       <c r="L541"/>
@@ -21918,10 +21153,7 @@
       <c r="G542" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H542" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v/>
-      </c>
+      <c r="H542" s="2"/>
       <c r="J542"/>
       <c r="K542"/>
       <c r="L542"/>
@@ -21943,10 +21175,7 @@
       <c r="G543" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H543" s="2" t="str">
-        <f t="shared" si="3"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H543" s="2"/>
       <c r="J543"/>
       <c r="K543"/>
       <c r="L543"/>
@@ -21968,10 +21197,7 @@
       <c r="G544" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H544" s="2" t="str">
-        <f t="shared" ref="H544:H552" si="4">IF(RIGHT(D544,3)="ELC","DAYNITE",IF(RIGHT(D544,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H544" s="2"/>
     </row>
     <row r="545" spans="3:8">
       <c r="C545" s="17" t="s">
@@ -21989,10 +21215,7 @@
       <c r="G545" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H545" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H545" s="2"/>
     </row>
     <row r="546" spans="3:8">
       <c r="C546" s="17" t="s">
@@ -22010,10 +21233,7 @@
       <c r="G546" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H546" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H546" s="2"/>
     </row>
     <row r="547" spans="3:8">
       <c r="C547" s="17" t="s">
@@ -22031,10 +21251,7 @@
       <c r="G547" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H547" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H547" s="2"/>
     </row>
     <row r="548" spans="3:8">
       <c r="C548" s="17" t="s">
@@ -22052,10 +21269,7 @@
       <c r="G548" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H548" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H548" s="2"/>
     </row>
     <row r="549" spans="3:8">
       <c r="C549" s="17" t="s">
@@ -22073,10 +21287,7 @@
       <c r="G549" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H549" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H549" s="2"/>
     </row>
     <row r="550" spans="3:8">
       <c r="C550" s="17" t="s">
@@ -22094,10 +21305,7 @@
       <c r="G550" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H550" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v/>
-      </c>
+      <c r="H550" s="2"/>
     </row>
     <row r="551" spans="3:8">
       <c r="C551" s="17" t="s">
@@ -22115,10 +21323,7 @@
       <c r="G551" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H551" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H551" s="2"/>
     </row>
     <row r="552" spans="3:8">
       <c r="C552" s="17" t="s">
@@ -22136,10 +21341,7 @@
       <c r="G552" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H552" s="2" t="str">
-        <f t="shared" si="4"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H552" s="2"/>
     </row>
     <row r="553" spans="3:8">
       <c r="C553" s="17"/>
@@ -22168,4542 +21370,6 @@
       <c r="E556" s="17"/>
       <c r="F556"/>
       <c r="G556" s="2"/>
-    </row>
-    <row r="557" spans="3:8">
-      <c r="C557" s="17"/>
-      <c r="D557" s="17"/>
-      <c r="E557" s="17"/>
-      <c r="F557"/>
-      <c r="G557" s="2"/>
-    </row>
-    <row r="558" spans="3:8">
-      <c r="C558" s="17"/>
-      <c r="D558" s="17"/>
-      <c r="E558" s="17"/>
-      <c r="F558"/>
-      <c r="G558" s="2"/>
-    </row>
-    <row r="559" spans="3:8">
-      <c r="C559" s="17"/>
-      <c r="D559" s="17"/>
-      <c r="E559" s="17"/>
-      <c r="F559"/>
-      <c r="G559" s="2"/>
-    </row>
-    <row r="560" spans="3:8">
-      <c r="C560" s="17"/>
-      <c r="D560" s="17"/>
-      <c r="E560" s="17"/>
-      <c r="F560"/>
-      <c r="G560" s="2"/>
-    </row>
-    <row r="561" spans="3:7">
-      <c r="C561" s="17"/>
-      <c r="D561" s="17"/>
-      <c r="E561" s="17"/>
-      <c r="F561"/>
-      <c r="G561" s="2"/>
-    </row>
-    <row r="562" spans="3:7">
-      <c r="C562" s="17"/>
-      <c r="D562" s="17"/>
-      <c r="E562" s="17"/>
-      <c r="F562"/>
-      <c r="G562" s="2"/>
-    </row>
-    <row r="563" spans="3:7">
-      <c r="C563" s="17"/>
-      <c r="D563" s="17"/>
-      <c r="E563" s="17"/>
-      <c r="F563"/>
-      <c r="G563" s="2"/>
-    </row>
-    <row r="564" spans="3:7">
-      <c r="C564" s="17"/>
-      <c r="D564" s="17"/>
-      <c r="E564" s="17"/>
-      <c r="F564"/>
-      <c r="G564" s="2"/>
-    </row>
-    <row r="565" spans="3:7">
-      <c r="C565" s="17"/>
-      <c r="D565" s="17"/>
-      <c r="E565" s="17"/>
-      <c r="F565"/>
-      <c r="G565" s="2"/>
-    </row>
-    <row r="566" spans="3:7">
-      <c r="C566" s="17"/>
-      <c r="D566" s="17"/>
-      <c r="E566" s="17"/>
-      <c r="F566"/>
-      <c r="G566" s="2"/>
-    </row>
-    <row r="567" spans="3:7">
-      <c r="C567" s="17"/>
-      <c r="D567" s="17"/>
-      <c r="E567" s="17"/>
-      <c r="F567"/>
-      <c r="G567" s="2"/>
-    </row>
-    <row r="568" spans="3:7">
-      <c r="C568" s="17"/>
-      <c r="D568" s="17"/>
-      <c r="E568" s="17"/>
-      <c r="F568"/>
-      <c r="G568" s="2"/>
-    </row>
-    <row r="569" spans="3:7">
-      <c r="C569" s="17"/>
-      <c r="D569" s="17"/>
-      <c r="E569" s="17"/>
-      <c r="F569"/>
-      <c r="G569" s="2"/>
-    </row>
-    <row r="570" spans="3:7">
-      <c r="C570" s="17"/>
-      <c r="D570" s="17"/>
-      <c r="E570" s="17"/>
-      <c r="F570"/>
-      <c r="G570" s="2"/>
-    </row>
-    <row r="571" spans="3:7">
-      <c r="C571" s="17"/>
-      <c r="D571" s="17"/>
-      <c r="E571" s="17"/>
-      <c r="F571"/>
-      <c r="G571" s="2"/>
-    </row>
-    <row r="572" spans="3:7">
-      <c r="C572" s="17"/>
-      <c r="D572" s="17"/>
-      <c r="E572" s="17"/>
-      <c r="F572"/>
-      <c r="G572" s="2"/>
-    </row>
-    <row r="573" spans="3:7">
-      <c r="C573" s="17"/>
-      <c r="D573" s="17"/>
-      <c r="E573" s="17"/>
-      <c r="F573"/>
-      <c r="G573" s="2"/>
-    </row>
-    <row r="574" spans="3:7">
-      <c r="C574" s="17"/>
-      <c r="D574" s="17"/>
-      <c r="E574" s="17"/>
-      <c r="F574"/>
-      <c r="G574" s="2"/>
-    </row>
-    <row r="575" spans="3:7">
-      <c r="C575" s="17"/>
-      <c r="D575" s="17"/>
-      <c r="E575" s="17"/>
-      <c r="F575"/>
-      <c r="G575" s="2"/>
-    </row>
-    <row r="576" spans="3:7">
-      <c r="C576" s="17"/>
-      <c r="D576" s="17"/>
-      <c r="E576" s="17"/>
-      <c r="F576"/>
-      <c r="G576" s="2"/>
-    </row>
-    <row r="577" spans="3:7">
-      <c r="C577" s="17"/>
-      <c r="D577" s="17"/>
-      <c r="E577" s="17"/>
-      <c r="F577"/>
-      <c r="G577" s="2"/>
-    </row>
-    <row r="578" spans="3:7">
-      <c r="C578" s="17"/>
-      <c r="D578" s="17"/>
-      <c r="E578" s="17"/>
-      <c r="F578"/>
-      <c r="G578" s="2"/>
-    </row>
-    <row r="579" spans="3:7">
-      <c r="C579" s="17"/>
-      <c r="D579" s="17"/>
-      <c r="E579" s="17"/>
-      <c r="F579"/>
-      <c r="G579" s="2"/>
-    </row>
-    <row r="580" spans="3:7">
-      <c r="C580" s="17"/>
-      <c r="D580" s="17"/>
-      <c r="E580" s="17"/>
-      <c r="F580"/>
-      <c r="G580" s="2"/>
-    </row>
-    <row r="581" spans="3:7">
-      <c r="C581" s="17"/>
-      <c r="D581" s="17"/>
-      <c r="E581" s="17"/>
-      <c r="F581"/>
-      <c r="G581" s="2"/>
-    </row>
-    <row r="582" spans="3:7">
-      <c r="C582" s="17"/>
-      <c r="D582" s="17"/>
-      <c r="E582" s="17"/>
-      <c r="F582"/>
-      <c r="G582" s="2"/>
-    </row>
-    <row r="583" spans="3:7">
-      <c r="C583" s="17"/>
-      <c r="D583" s="17"/>
-      <c r="E583" s="17"/>
-      <c r="F583"/>
-      <c r="G583" s="2"/>
-    </row>
-    <row r="584" spans="3:7">
-      <c r="C584" s="17"/>
-      <c r="D584" s="17"/>
-      <c r="E584" s="17"/>
-      <c r="F584"/>
-      <c r="G584" s="2"/>
-    </row>
-    <row r="585" spans="3:7">
-      <c r="C585" s="17"/>
-      <c r="D585" s="17"/>
-      <c r="E585" s="17"/>
-      <c r="F585"/>
-      <c r="G585" s="2"/>
-    </row>
-    <row r="586" spans="3:7">
-      <c r="C586" s="17"/>
-      <c r="D586" s="17"/>
-      <c r="E586" s="17"/>
-      <c r="F586"/>
-      <c r="G586" s="2"/>
-    </row>
-    <row r="587" spans="3:7">
-      <c r="C587" s="17"/>
-      <c r="D587" s="17"/>
-      <c r="E587" s="17"/>
-      <c r="F587"/>
-      <c r="G587" s="2"/>
-    </row>
-    <row r="588" spans="3:7">
-      <c r="C588" s="17"/>
-      <c r="D588" s="17"/>
-      <c r="E588" s="17"/>
-      <c r="F588"/>
-      <c r="G588" s="2"/>
-    </row>
-    <row r="589" spans="3:7">
-      <c r="C589" s="17"/>
-      <c r="D589" s="17"/>
-      <c r="E589" s="17"/>
-      <c r="F589"/>
-      <c r="G589" s="2"/>
-    </row>
-    <row r="590" spans="3:7">
-      <c r="C590" s="17"/>
-      <c r="D590" s="17"/>
-      <c r="E590" s="17"/>
-      <c r="F590"/>
-      <c r="G590" s="2"/>
-    </row>
-    <row r="591" spans="3:7">
-      <c r="C591" s="17"/>
-      <c r="D591" s="17"/>
-      <c r="E591" s="17"/>
-      <c r="F591"/>
-      <c r="G591" s="2"/>
-    </row>
-    <row r="592" spans="3:7">
-      <c r="C592" s="17"/>
-      <c r="D592" s="17"/>
-      <c r="E592" s="17"/>
-      <c r="F592"/>
-      <c r="G592" s="2"/>
-    </row>
-    <row r="593" spans="3:7">
-      <c r="C593" s="17"/>
-      <c r="D593" s="17"/>
-      <c r="E593" s="17"/>
-      <c r="F593"/>
-      <c r="G593" s="2"/>
-    </row>
-    <row r="594" spans="3:7">
-      <c r="C594" s="17"/>
-      <c r="D594" s="17"/>
-      <c r="E594" s="17"/>
-      <c r="F594"/>
-      <c r="G594" s="2"/>
-    </row>
-    <row r="595" spans="3:7">
-      <c r="C595" s="17"/>
-      <c r="D595" s="17"/>
-      <c r="E595" s="17"/>
-      <c r="F595"/>
-      <c r="G595" s="2"/>
-    </row>
-    <row r="596" spans="3:7">
-      <c r="C596" s="17"/>
-      <c r="D596" s="17"/>
-      <c r="E596" s="17"/>
-      <c r="F596"/>
-      <c r="G596" s="2"/>
-    </row>
-    <row r="597" spans="3:7">
-      <c r="C597" s="17"/>
-      <c r="D597" s="17"/>
-      <c r="E597" s="17"/>
-      <c r="F597"/>
-      <c r="G597" s="2"/>
-    </row>
-    <row r="598" spans="3:7">
-      <c r="C598" s="17"/>
-      <c r="D598" s="17"/>
-      <c r="E598" s="17"/>
-      <c r="F598"/>
-      <c r="G598" s="2"/>
-    </row>
-    <row r="599" spans="3:7">
-      <c r="C599" s="17"/>
-      <c r="D599" s="17"/>
-      <c r="E599" s="17"/>
-      <c r="F599"/>
-      <c r="G599" s="2"/>
-    </row>
-    <row r="600" spans="3:7">
-      <c r="C600" s="17"/>
-      <c r="D600" s="17"/>
-      <c r="E600" s="17"/>
-      <c r="F600"/>
-      <c r="G600" s="2"/>
-    </row>
-    <row r="601" spans="3:7">
-      <c r="C601" s="17"/>
-      <c r="D601" s="17"/>
-      <c r="E601" s="17"/>
-      <c r="F601"/>
-      <c r="G601" s="2"/>
-    </row>
-    <row r="602" spans="3:7">
-      <c r="C602" s="17"/>
-      <c r="D602" s="17"/>
-      <c r="E602" s="17"/>
-      <c r="F602"/>
-      <c r="G602" s="2"/>
-    </row>
-    <row r="603" spans="3:7">
-      <c r="C603" s="17"/>
-      <c r="D603" s="17"/>
-      <c r="E603" s="17"/>
-      <c r="F603"/>
-      <c r="G603" s="2"/>
-    </row>
-    <row r="604" spans="3:7">
-      <c r="C604" s="17"/>
-      <c r="D604" s="17"/>
-      <c r="E604" s="17"/>
-      <c r="F604"/>
-      <c r="G604" s="2"/>
-    </row>
-    <row r="605" spans="3:7">
-      <c r="C605" s="17"/>
-      <c r="D605" s="17"/>
-      <c r="E605" s="17"/>
-      <c r="F605"/>
-      <c r="G605" s="2"/>
-    </row>
-    <row r="606" spans="3:7">
-      <c r="C606" s="17"/>
-      <c r="D606" s="17"/>
-      <c r="E606" s="17"/>
-      <c r="F606"/>
-      <c r="G606" s="2"/>
-    </row>
-    <row r="607" spans="3:7">
-      <c r="C607" s="17"/>
-      <c r="D607" s="17"/>
-      <c r="E607" s="17"/>
-      <c r="F607"/>
-      <c r="G607" s="2"/>
-    </row>
-    <row r="608" spans="3:7">
-      <c r="C608" s="17"/>
-      <c r="D608" s="17"/>
-      <c r="E608" s="17"/>
-      <c r="F608"/>
-      <c r="G608" s="2"/>
-    </row>
-    <row r="609" spans="3:7">
-      <c r="C609" s="17"/>
-      <c r="D609" s="17"/>
-      <c r="E609" s="17"/>
-      <c r="F609"/>
-      <c r="G609" s="2"/>
-    </row>
-    <row r="610" spans="3:7">
-      <c r="C610" s="17"/>
-      <c r="D610" s="17"/>
-      <c r="E610" s="17"/>
-      <c r="F610"/>
-      <c r="G610" s="2"/>
-    </row>
-    <row r="611" spans="3:7">
-      <c r="C611" s="17"/>
-      <c r="D611" s="17"/>
-      <c r="E611" s="17"/>
-      <c r="F611"/>
-      <c r="G611" s="2"/>
-    </row>
-    <row r="612" spans="3:7">
-      <c r="C612" s="17"/>
-      <c r="D612" s="17"/>
-      <c r="E612" s="17"/>
-      <c r="F612"/>
-      <c r="G612" s="2"/>
-    </row>
-    <row r="613" spans="3:7">
-      <c r="C613" s="17"/>
-      <c r="D613" s="17"/>
-      <c r="E613" s="17"/>
-      <c r="F613"/>
-      <c r="G613" s="2"/>
-    </row>
-    <row r="614" spans="3:7">
-      <c r="C614" s="17"/>
-      <c r="D614" s="17"/>
-      <c r="E614" s="17"/>
-      <c r="F614"/>
-      <c r="G614" s="2"/>
-    </row>
-    <row r="615" spans="3:7">
-      <c r="C615" s="17"/>
-      <c r="D615" s="17"/>
-      <c r="E615" s="17"/>
-      <c r="F615"/>
-      <c r="G615" s="2"/>
-    </row>
-    <row r="616" spans="3:7">
-      <c r="C616" s="17"/>
-      <c r="D616" s="17"/>
-      <c r="E616" s="17"/>
-      <c r="F616"/>
-      <c r="G616" s="2"/>
-    </row>
-    <row r="617" spans="3:7">
-      <c r="C617" s="17"/>
-      <c r="D617" s="17"/>
-      <c r="E617" s="17"/>
-      <c r="F617"/>
-      <c r="G617" s="2"/>
-    </row>
-    <row r="618" spans="3:7">
-      <c r="C618" s="17"/>
-      <c r="D618" s="17"/>
-      <c r="E618" s="17"/>
-      <c r="F618"/>
-      <c r="G618" s="2"/>
-    </row>
-    <row r="619" spans="3:7">
-      <c r="C619" s="17"/>
-      <c r="D619" s="17"/>
-      <c r="E619" s="17"/>
-      <c r="F619"/>
-      <c r="G619" s="2"/>
-    </row>
-    <row r="620" spans="3:7">
-      <c r="C620" s="17"/>
-      <c r="D620" s="17"/>
-      <c r="E620" s="17"/>
-      <c r="F620"/>
-      <c r="G620" s="2"/>
-    </row>
-    <row r="621" spans="3:7">
-      <c r="C621" s="17"/>
-      <c r="D621" s="17"/>
-      <c r="E621" s="17"/>
-      <c r="F621"/>
-      <c r="G621" s="2"/>
-    </row>
-    <row r="622" spans="3:7">
-      <c r="C622" s="17"/>
-      <c r="D622" s="17"/>
-      <c r="E622" s="17"/>
-      <c r="F622"/>
-      <c r="G622" s="2"/>
-    </row>
-    <row r="623" spans="3:7">
-      <c r="C623" s="17"/>
-      <c r="D623" s="17"/>
-      <c r="E623" s="17"/>
-      <c r="F623"/>
-      <c r="G623" s="2"/>
-    </row>
-    <row r="624" spans="3:7">
-      <c r="C624" s="17"/>
-      <c r="D624" s="17"/>
-      <c r="E624" s="17"/>
-      <c r="F624"/>
-      <c r="G624" s="2"/>
-    </row>
-    <row r="625" spans="3:7">
-      <c r="C625" s="17"/>
-      <c r="D625" s="17"/>
-      <c r="E625" s="17"/>
-      <c r="F625"/>
-      <c r="G625" s="2"/>
-    </row>
-    <row r="626" spans="3:7">
-      <c r="C626" s="17"/>
-      <c r="D626" s="17"/>
-      <c r="E626" s="17"/>
-      <c r="F626"/>
-      <c r="G626" s="2"/>
-    </row>
-    <row r="627" spans="3:7">
-      <c r="C627" s="17"/>
-      <c r="D627" s="17"/>
-      <c r="E627" s="17"/>
-      <c r="F627"/>
-      <c r="G627" s="2"/>
-    </row>
-    <row r="628" spans="3:7">
-      <c r="C628" s="17"/>
-      <c r="D628" s="17"/>
-      <c r="E628" s="17"/>
-      <c r="F628"/>
-      <c r="G628" s="2"/>
-    </row>
-    <row r="629" spans="3:7">
-      <c r="C629" s="17"/>
-      <c r="D629" s="17"/>
-      <c r="E629" s="17"/>
-      <c r="F629"/>
-      <c r="G629" s="2"/>
-    </row>
-    <row r="630" spans="3:7">
-      <c r="C630" s="17"/>
-      <c r="D630" s="17"/>
-      <c r="E630" s="17"/>
-      <c r="F630"/>
-      <c r="G630" s="2"/>
-    </row>
-    <row r="631" spans="3:7">
-      <c r="C631" s="17"/>
-      <c r="D631" s="17"/>
-      <c r="E631" s="17"/>
-      <c r="F631"/>
-      <c r="G631" s="2"/>
-    </row>
-    <row r="632" spans="3:7">
-      <c r="C632" s="17"/>
-      <c r="D632" s="17"/>
-      <c r="E632" s="17"/>
-      <c r="F632"/>
-      <c r="G632" s="2"/>
-    </row>
-    <row r="633" spans="3:7">
-      <c r="C633" s="17"/>
-      <c r="D633" s="17"/>
-      <c r="E633" s="17"/>
-      <c r="F633"/>
-      <c r="G633" s="2"/>
-    </row>
-    <row r="634" spans="3:7">
-      <c r="C634" s="17"/>
-      <c r="D634" s="17"/>
-      <c r="E634" s="17"/>
-      <c r="F634"/>
-      <c r="G634" s="2"/>
-    </row>
-    <row r="635" spans="3:7">
-      <c r="C635" s="17"/>
-      <c r="D635" s="17"/>
-      <c r="E635" s="17"/>
-      <c r="F635"/>
-      <c r="G635" s="2"/>
-    </row>
-    <row r="636" spans="3:7">
-      <c r="C636" s="17"/>
-      <c r="D636" s="17"/>
-      <c r="E636" s="17"/>
-      <c r="F636"/>
-      <c r="G636" s="2"/>
-    </row>
-    <row r="637" spans="3:7">
-      <c r="C637" s="17"/>
-      <c r="D637" s="17"/>
-      <c r="E637" s="17"/>
-      <c r="F637"/>
-      <c r="G637" s="2"/>
-    </row>
-    <row r="638" spans="3:7">
-      <c r="C638" s="17"/>
-      <c r="D638" s="17"/>
-      <c r="E638" s="17"/>
-      <c r="F638"/>
-      <c r="G638" s="2"/>
-    </row>
-    <row r="639" spans="3:7">
-      <c r="C639" s="17"/>
-      <c r="D639" s="17"/>
-      <c r="E639" s="17"/>
-      <c r="F639"/>
-      <c r="G639" s="2"/>
-    </row>
-    <row r="640" spans="3:7">
-      <c r="C640" s="17"/>
-      <c r="D640" s="17"/>
-      <c r="E640" s="17"/>
-      <c r="F640"/>
-      <c r="G640" s="2"/>
-    </row>
-    <row r="641" spans="3:7">
-      <c r="C641" s="17"/>
-      <c r="D641" s="17"/>
-      <c r="E641" s="17"/>
-      <c r="F641"/>
-      <c r="G641" s="2"/>
-    </row>
-    <row r="642" spans="3:7">
-      <c r="C642" s="17"/>
-      <c r="D642" s="17"/>
-      <c r="E642" s="17"/>
-      <c r="F642"/>
-      <c r="G642" s="2"/>
-    </row>
-    <row r="643" spans="3:7">
-      <c r="C643" s="17"/>
-      <c r="D643" s="17"/>
-      <c r="E643" s="17"/>
-      <c r="F643"/>
-      <c r="G643" s="2"/>
-    </row>
-    <row r="644" spans="3:7">
-      <c r="C644" s="17"/>
-      <c r="D644" s="17"/>
-      <c r="E644" s="17"/>
-      <c r="F644"/>
-      <c r="G644" s="2"/>
-    </row>
-    <row r="645" spans="3:7">
-      <c r="C645" s="17"/>
-      <c r="D645" s="17"/>
-      <c r="E645" s="17"/>
-      <c r="F645"/>
-      <c r="G645" s="2"/>
-    </row>
-    <row r="646" spans="3:7">
-      <c r="C646" s="17"/>
-      <c r="D646" s="17"/>
-      <c r="E646" s="17"/>
-      <c r="F646"/>
-      <c r="G646" s="2"/>
-    </row>
-    <row r="647" spans="3:7">
-      <c r="C647" s="17"/>
-      <c r="D647" s="17"/>
-      <c r="E647" s="17"/>
-      <c r="F647"/>
-      <c r="G647" s="2"/>
-    </row>
-    <row r="648" spans="3:7">
-      <c r="C648" s="17"/>
-      <c r="D648" s="17"/>
-      <c r="E648" s="17"/>
-      <c r="F648"/>
-      <c r="G648" s="2"/>
-    </row>
-    <row r="649" spans="3:7">
-      <c r="C649" s="17"/>
-      <c r="D649" s="17"/>
-      <c r="E649" s="17"/>
-      <c r="F649"/>
-      <c r="G649" s="2"/>
-    </row>
-    <row r="650" spans="3:7">
-      <c r="C650" s="17"/>
-      <c r="D650" s="17"/>
-      <c r="E650" s="17"/>
-      <c r="F650"/>
-      <c r="G650" s="2"/>
-    </row>
-    <row r="651" spans="3:7">
-      <c r="C651" s="17"/>
-      <c r="D651" s="17"/>
-      <c r="E651" s="17"/>
-      <c r="F651"/>
-      <c r="G651" s="2"/>
-    </row>
-    <row r="652" spans="3:7">
-      <c r="C652" s="17"/>
-      <c r="D652" s="17"/>
-      <c r="E652" s="17"/>
-      <c r="F652"/>
-      <c r="G652" s="2"/>
-    </row>
-    <row r="653" spans="3:7">
-      <c r="C653" s="17"/>
-      <c r="D653" s="17"/>
-      <c r="E653" s="17"/>
-      <c r="F653"/>
-      <c r="G653" s="2"/>
-    </row>
-    <row r="654" spans="3:7">
-      <c r="C654" s="17"/>
-      <c r="D654" s="17"/>
-      <c r="E654" s="17"/>
-      <c r="F654"/>
-      <c r="G654" s="2"/>
-    </row>
-    <row r="655" spans="3:7">
-      <c r="C655" s="17"/>
-      <c r="D655" s="17"/>
-      <c r="E655" s="17"/>
-      <c r="F655"/>
-      <c r="G655" s="2"/>
-    </row>
-    <row r="656" spans="3:7">
-      <c r="C656" s="17"/>
-      <c r="D656" s="17"/>
-      <c r="E656" s="17"/>
-      <c r="F656"/>
-      <c r="G656" s="2"/>
-    </row>
-    <row r="657" spans="3:7">
-      <c r="C657" s="17"/>
-      <c r="D657" s="17"/>
-      <c r="E657" s="17"/>
-      <c r="F657"/>
-      <c r="G657" s="2"/>
-    </row>
-    <row r="658" spans="3:7">
-      <c r="C658" s="17"/>
-      <c r="D658" s="17"/>
-      <c r="E658" s="17"/>
-      <c r="F658"/>
-      <c r="G658" s="2"/>
-    </row>
-    <row r="659" spans="3:7">
-      <c r="C659" s="17"/>
-      <c r="D659" s="17"/>
-      <c r="E659" s="17"/>
-      <c r="F659"/>
-      <c r="G659" s="2"/>
-    </row>
-    <row r="660" spans="3:7">
-      <c r="C660" s="17"/>
-      <c r="D660" s="17"/>
-      <c r="E660" s="17"/>
-      <c r="F660"/>
-      <c r="G660" s="2"/>
-    </row>
-    <row r="661" spans="3:7">
-      <c r="C661" s="17"/>
-      <c r="D661" s="17"/>
-      <c r="E661" s="17"/>
-      <c r="F661"/>
-      <c r="G661" s="2"/>
-    </row>
-    <row r="662" spans="3:7">
-      <c r="C662" s="17"/>
-      <c r="D662" s="17"/>
-      <c r="E662" s="17"/>
-      <c r="F662"/>
-      <c r="G662" s="2"/>
-    </row>
-    <row r="663" spans="3:7">
-      <c r="C663" s="17"/>
-      <c r="D663" s="17"/>
-      <c r="E663" s="17"/>
-      <c r="F663"/>
-      <c r="G663" s="2"/>
-    </row>
-    <row r="664" spans="3:7">
-      <c r="C664" s="17"/>
-      <c r="D664" s="17"/>
-      <c r="E664" s="17"/>
-      <c r="F664"/>
-      <c r="G664" s="2"/>
-    </row>
-    <row r="665" spans="3:7">
-      <c r="C665" s="17"/>
-      <c r="D665" s="17"/>
-      <c r="E665" s="17"/>
-      <c r="F665"/>
-      <c r="G665" s="2"/>
-    </row>
-    <row r="666" spans="3:7">
-      <c r="C666" s="17"/>
-      <c r="D666" s="17"/>
-      <c r="E666" s="17"/>
-      <c r="F666"/>
-      <c r="G666" s="2"/>
-    </row>
-    <row r="667" spans="3:7">
-      <c r="C667" s="17"/>
-      <c r="D667" s="17"/>
-      <c r="E667" s="17"/>
-      <c r="F667"/>
-      <c r="G667" s="2"/>
-    </row>
-    <row r="668" spans="3:7">
-      <c r="C668" s="17"/>
-      <c r="D668" s="17"/>
-      <c r="E668" s="17"/>
-      <c r="F668"/>
-      <c r="G668" s="2"/>
-    </row>
-    <row r="669" spans="3:7">
-      <c r="C669" s="17"/>
-      <c r="D669" s="17"/>
-      <c r="E669" s="17"/>
-      <c r="F669"/>
-      <c r="G669" s="2"/>
-    </row>
-    <row r="670" spans="3:7">
-      <c r="C670" s="17"/>
-      <c r="D670" s="17"/>
-      <c r="E670" s="17"/>
-      <c r="F670"/>
-      <c r="G670" s="2"/>
-    </row>
-    <row r="671" spans="3:7">
-      <c r="C671" s="17"/>
-      <c r="D671" s="17"/>
-      <c r="E671" s="17"/>
-      <c r="F671"/>
-      <c r="G671" s="2"/>
-    </row>
-    <row r="672" spans="3:7">
-      <c r="C672" s="17"/>
-      <c r="D672" s="17"/>
-      <c r="E672" s="17"/>
-      <c r="F672"/>
-      <c r="G672" s="2"/>
-    </row>
-    <row r="673" spans="3:7">
-      <c r="C673" s="17"/>
-      <c r="D673" s="17"/>
-      <c r="E673" s="17"/>
-      <c r="F673"/>
-      <c r="G673" s="2"/>
-    </row>
-    <row r="674" spans="3:7">
-      <c r="C674" s="17"/>
-      <c r="D674" s="17"/>
-      <c r="E674" s="17"/>
-      <c r="F674"/>
-      <c r="G674" s="2"/>
-    </row>
-    <row r="675" spans="3:7">
-      <c r="C675" s="17"/>
-      <c r="D675" s="17"/>
-      <c r="E675" s="17"/>
-      <c r="F675"/>
-      <c r="G675" s="2"/>
-    </row>
-    <row r="676" spans="3:7">
-      <c r="C676" s="17"/>
-      <c r="D676" s="17"/>
-      <c r="E676" s="17"/>
-      <c r="F676"/>
-      <c r="G676" s="2"/>
-    </row>
-    <row r="677" spans="3:7">
-      <c r="C677" s="17"/>
-      <c r="D677" s="17"/>
-      <c r="E677" s="17"/>
-      <c r="F677"/>
-      <c r="G677" s="2"/>
-    </row>
-    <row r="678" spans="3:7">
-      <c r="C678" s="17"/>
-      <c r="D678" s="17"/>
-      <c r="E678" s="17"/>
-      <c r="F678"/>
-      <c r="G678" s="2"/>
-    </row>
-    <row r="679" spans="3:7">
-      <c r="C679" s="17"/>
-      <c r="D679" s="17"/>
-      <c r="E679" s="17"/>
-      <c r="F679"/>
-      <c r="G679" s="2"/>
-    </row>
-    <row r="680" spans="3:7">
-      <c r="C680" s="17"/>
-      <c r="D680" s="17"/>
-      <c r="E680" s="17"/>
-      <c r="F680"/>
-      <c r="G680" s="2"/>
-    </row>
-    <row r="681" spans="3:7">
-      <c r="C681" s="17"/>
-      <c r="D681" s="17"/>
-      <c r="E681" s="17"/>
-      <c r="F681"/>
-      <c r="G681" s="2"/>
-    </row>
-    <row r="682" spans="3:7">
-      <c r="C682" s="17"/>
-      <c r="D682" s="17"/>
-      <c r="E682" s="17"/>
-      <c r="F682"/>
-      <c r="G682" s="2"/>
-    </row>
-    <row r="683" spans="3:7">
-      <c r="C683" s="17"/>
-      <c r="D683" s="17"/>
-      <c r="E683" s="17"/>
-      <c r="F683"/>
-      <c r="G683" s="2"/>
-    </row>
-    <row r="684" spans="3:7">
-      <c r="C684" s="17"/>
-      <c r="D684" s="17"/>
-      <c r="E684" s="17"/>
-      <c r="F684"/>
-      <c r="G684" s="2"/>
-    </row>
-    <row r="685" spans="3:7">
-      <c r="C685" s="17"/>
-      <c r="D685" s="17"/>
-      <c r="E685" s="17"/>
-      <c r="F685"/>
-      <c r="G685" s="2"/>
-    </row>
-    <row r="686" spans="3:7">
-      <c r="C686" s="17"/>
-      <c r="D686" s="17"/>
-      <c r="E686" s="17"/>
-      <c r="F686"/>
-      <c r="G686" s="2"/>
-    </row>
-    <row r="687" spans="3:7">
-      <c r="C687" s="17"/>
-      <c r="D687" s="17"/>
-      <c r="E687" s="17"/>
-      <c r="F687"/>
-      <c r="G687" s="2"/>
-    </row>
-    <row r="688" spans="3:7">
-      <c r="C688" s="17"/>
-      <c r="D688" s="17"/>
-      <c r="E688" s="17"/>
-      <c r="F688"/>
-      <c r="G688" s="2"/>
-    </row>
-    <row r="689" spans="3:7">
-      <c r="C689" s="17"/>
-      <c r="D689" s="17"/>
-      <c r="E689" s="17"/>
-      <c r="F689"/>
-      <c r="G689" s="2"/>
-    </row>
-    <row r="690" spans="3:7">
-      <c r="C690" s="17"/>
-      <c r="D690" s="17"/>
-      <c r="E690" s="17"/>
-      <c r="F690"/>
-      <c r="G690" s="2"/>
-    </row>
-    <row r="691" spans="3:7">
-      <c r="C691" s="17"/>
-      <c r="D691" s="17"/>
-      <c r="E691" s="17"/>
-      <c r="F691"/>
-      <c r="G691" s="2"/>
-    </row>
-    <row r="692" spans="3:7">
-      <c r="C692" s="17"/>
-      <c r="D692" s="17"/>
-      <c r="E692" s="17"/>
-      <c r="F692"/>
-      <c r="G692" s="2"/>
-    </row>
-    <row r="693" spans="3:7">
-      <c r="C693" s="17"/>
-      <c r="D693" s="17"/>
-      <c r="E693" s="17"/>
-      <c r="F693"/>
-      <c r="G693" s="2"/>
-    </row>
-    <row r="694" spans="3:7">
-      <c r="C694" s="17"/>
-      <c r="D694" s="17"/>
-      <c r="E694" s="17"/>
-      <c r="F694"/>
-      <c r="G694" s="2"/>
-    </row>
-    <row r="695" spans="3:7">
-      <c r="C695" s="17"/>
-      <c r="D695" s="17"/>
-      <c r="E695" s="17"/>
-      <c r="F695"/>
-      <c r="G695" s="2"/>
-    </row>
-    <row r="696" spans="3:7">
-      <c r="C696" s="17"/>
-      <c r="D696" s="17"/>
-      <c r="E696" s="17"/>
-      <c r="F696"/>
-      <c r="G696" s="2"/>
-    </row>
-    <row r="697" spans="3:7">
-      <c r="C697" s="17"/>
-      <c r="D697" s="17"/>
-      <c r="E697" s="17"/>
-      <c r="F697"/>
-      <c r="G697" s="2"/>
-    </row>
-    <row r="698" spans="3:7">
-      <c r="C698" s="17"/>
-      <c r="D698" s="17"/>
-      <c r="E698" s="17"/>
-      <c r="F698"/>
-      <c r="G698" s="2"/>
-    </row>
-    <row r="699" spans="3:7">
-      <c r="C699" s="17"/>
-      <c r="D699" s="17"/>
-      <c r="E699" s="17"/>
-      <c r="F699"/>
-      <c r="G699" s="2"/>
-    </row>
-    <row r="700" spans="3:7">
-      <c r="C700" s="17"/>
-      <c r="D700" s="17"/>
-      <c r="E700" s="17"/>
-      <c r="F700"/>
-      <c r="G700" s="2"/>
-    </row>
-    <row r="701" spans="3:7">
-      <c r="C701" s="17"/>
-      <c r="D701" s="17"/>
-      <c r="E701" s="17"/>
-      <c r="F701"/>
-      <c r="G701" s="2"/>
-    </row>
-    <row r="702" spans="3:7">
-      <c r="C702" s="17"/>
-      <c r="D702" s="17"/>
-      <c r="E702" s="17"/>
-      <c r="F702"/>
-      <c r="G702" s="2"/>
-    </row>
-    <row r="703" spans="3:7">
-      <c r="C703" s="17"/>
-      <c r="D703" s="17"/>
-      <c r="E703" s="17"/>
-      <c r="F703"/>
-      <c r="G703" s="2"/>
-    </row>
-    <row r="704" spans="3:7">
-      <c r="C704" s="17"/>
-      <c r="D704" s="17"/>
-      <c r="E704" s="17"/>
-      <c r="F704"/>
-      <c r="G704" s="2"/>
-    </row>
-    <row r="705" spans="3:7">
-      <c r="C705" s="17"/>
-      <c r="D705" s="17"/>
-      <c r="E705" s="17"/>
-      <c r="F705"/>
-      <c r="G705" s="2"/>
-    </row>
-    <row r="706" spans="3:7">
-      <c r="C706" s="17"/>
-      <c r="D706" s="17"/>
-      <c r="E706" s="17"/>
-      <c r="F706"/>
-      <c r="G706" s="2"/>
-    </row>
-    <row r="707" spans="3:7">
-      <c r="C707" s="17"/>
-      <c r="D707" s="17"/>
-      <c r="E707" s="17"/>
-      <c r="F707"/>
-      <c r="G707" s="2"/>
-    </row>
-    <row r="708" spans="3:7">
-      <c r="C708" s="17"/>
-      <c r="D708" s="17"/>
-      <c r="E708" s="17"/>
-      <c r="F708"/>
-      <c r="G708" s="2"/>
-    </row>
-    <row r="709" spans="3:7">
-      <c r="C709" s="17"/>
-      <c r="D709" s="17"/>
-      <c r="E709" s="17"/>
-      <c r="F709"/>
-      <c r="G709" s="2"/>
-    </row>
-    <row r="710" spans="3:7">
-      <c r="C710" s="17"/>
-      <c r="D710" s="17"/>
-      <c r="E710" s="17"/>
-      <c r="F710"/>
-      <c r="G710" s="2"/>
-    </row>
-    <row r="711" spans="3:7">
-      <c r="C711" s="17"/>
-      <c r="D711" s="17"/>
-      <c r="E711" s="17"/>
-      <c r="F711"/>
-      <c r="G711" s="2"/>
-    </row>
-    <row r="712" spans="3:7">
-      <c r="C712" s="17"/>
-      <c r="D712" s="17"/>
-      <c r="E712" s="17"/>
-      <c r="F712"/>
-      <c r="G712" s="2"/>
-    </row>
-    <row r="713" spans="3:7">
-      <c r="C713" s="17"/>
-      <c r="D713" s="17"/>
-      <c r="E713" s="17"/>
-      <c r="F713"/>
-      <c r="G713" s="2"/>
-    </row>
-    <row r="714" spans="3:7">
-      <c r="C714" s="17"/>
-      <c r="D714" s="17"/>
-      <c r="E714" s="17"/>
-      <c r="F714"/>
-      <c r="G714" s="2"/>
-    </row>
-    <row r="715" spans="3:7">
-      <c r="C715" s="17"/>
-      <c r="D715" s="17"/>
-      <c r="E715" s="17"/>
-      <c r="F715"/>
-      <c r="G715" s="2"/>
-    </row>
-    <row r="716" spans="3:7">
-      <c r="C716" s="17"/>
-      <c r="D716" s="17"/>
-      <c r="E716" s="17"/>
-      <c r="F716"/>
-      <c r="G716" s="2"/>
-    </row>
-    <row r="717" spans="3:7">
-      <c r="C717" s="17"/>
-      <c r="D717" s="17"/>
-      <c r="E717" s="17"/>
-      <c r="F717"/>
-      <c r="G717" s="2"/>
-    </row>
-    <row r="718" spans="3:7">
-      <c r="C718" s="17"/>
-      <c r="D718" s="17"/>
-      <c r="E718" s="17"/>
-      <c r="F718"/>
-      <c r="G718" s="2"/>
-    </row>
-    <row r="719" spans="3:7">
-      <c r="C719" s="17"/>
-      <c r="D719" s="17"/>
-      <c r="E719" s="17"/>
-      <c r="F719"/>
-      <c r="G719" s="2"/>
-    </row>
-    <row r="720" spans="3:7">
-      <c r="C720" s="17"/>
-      <c r="D720" s="17"/>
-      <c r="E720" s="17"/>
-      <c r="F720"/>
-      <c r="G720" s="2"/>
-    </row>
-    <row r="721" spans="3:7">
-      <c r="C721" s="17"/>
-      <c r="D721" s="17"/>
-      <c r="E721" s="17"/>
-      <c r="F721"/>
-      <c r="G721" s="2"/>
-    </row>
-    <row r="722" spans="3:7">
-      <c r="C722" s="17"/>
-      <c r="D722" s="17"/>
-      <c r="E722" s="17"/>
-      <c r="F722"/>
-      <c r="G722" s="2"/>
-    </row>
-    <row r="723" spans="3:7">
-      <c r="C723" s="17"/>
-      <c r="D723" s="17"/>
-      <c r="E723" s="17"/>
-      <c r="F723"/>
-      <c r="G723" s="2"/>
-    </row>
-    <row r="724" spans="3:7">
-      <c r="C724" s="17"/>
-      <c r="D724" s="17"/>
-      <c r="E724" s="17"/>
-      <c r="F724"/>
-      <c r="G724" s="2"/>
-    </row>
-    <row r="725" spans="3:7">
-      <c r="C725" s="17"/>
-      <c r="D725" s="17"/>
-      <c r="E725" s="17"/>
-      <c r="F725"/>
-      <c r="G725" s="2"/>
-    </row>
-    <row r="726" spans="3:7">
-      <c r="C726" s="17"/>
-      <c r="D726" s="17"/>
-      <c r="E726" s="17"/>
-      <c r="F726"/>
-      <c r="G726" s="2"/>
-    </row>
-    <row r="727" spans="3:7">
-      <c r="C727" s="17"/>
-      <c r="D727" s="17"/>
-      <c r="E727" s="17"/>
-      <c r="F727"/>
-      <c r="G727" s="2"/>
-    </row>
-    <row r="728" spans="3:7">
-      <c r="C728" s="17"/>
-      <c r="D728" s="17"/>
-      <c r="E728" s="17"/>
-      <c r="F728"/>
-      <c r="G728" s="2"/>
-    </row>
-    <row r="729" spans="3:7">
-      <c r="C729" s="17"/>
-      <c r="D729" s="17"/>
-      <c r="E729" s="17"/>
-      <c r="F729"/>
-      <c r="G729" s="2"/>
-    </row>
-    <row r="730" spans="3:7">
-      <c r="C730" s="17"/>
-      <c r="D730" s="17"/>
-      <c r="E730" s="17"/>
-      <c r="F730"/>
-      <c r="G730" s="2"/>
-    </row>
-    <row r="731" spans="3:7">
-      <c r="C731" s="17"/>
-      <c r="D731" s="17"/>
-      <c r="E731" s="17"/>
-      <c r="F731"/>
-      <c r="G731" s="2"/>
-    </row>
-    <row r="732" spans="3:7">
-      <c r="C732" s="17"/>
-      <c r="D732" s="17"/>
-      <c r="E732" s="17"/>
-      <c r="F732"/>
-      <c r="G732" s="2"/>
-    </row>
-    <row r="733" spans="3:7">
-      <c r="C733" s="17"/>
-      <c r="D733" s="17"/>
-      <c r="E733" s="17"/>
-      <c r="F733"/>
-      <c r="G733" s="2"/>
-    </row>
-    <row r="734" spans="3:7">
-      <c r="C734" s="17"/>
-      <c r="D734" s="17"/>
-      <c r="E734" s="17"/>
-      <c r="F734"/>
-      <c r="G734" s="2"/>
-    </row>
-    <row r="735" spans="3:7">
-      <c r="C735" s="17"/>
-      <c r="D735" s="17"/>
-      <c r="E735" s="17"/>
-      <c r="F735"/>
-      <c r="G735" s="2"/>
-    </row>
-    <row r="736" spans="3:7">
-      <c r="C736" s="17"/>
-      <c r="D736" s="17"/>
-      <c r="E736" s="17"/>
-      <c r="F736"/>
-      <c r="G736" s="2"/>
-    </row>
-    <row r="737" spans="3:7">
-      <c r="C737" s="17"/>
-      <c r="D737" s="17"/>
-      <c r="E737" s="17"/>
-      <c r="F737"/>
-      <c r="G737" s="2"/>
-    </row>
-    <row r="738" spans="3:7">
-      <c r="C738" s="17"/>
-      <c r="D738" s="17"/>
-      <c r="E738" s="17"/>
-      <c r="F738"/>
-      <c r="G738" s="2"/>
-    </row>
-    <row r="739" spans="3:7">
-      <c r="C739" s="17"/>
-      <c r="D739" s="17"/>
-      <c r="E739" s="17"/>
-      <c r="F739"/>
-      <c r="G739" s="2"/>
-    </row>
-    <row r="740" spans="3:7">
-      <c r="C740" s="17"/>
-      <c r="D740" s="17"/>
-      <c r="E740" s="17"/>
-      <c r="F740"/>
-      <c r="G740" s="2"/>
-    </row>
-    <row r="741" spans="3:7">
-      <c r="C741" s="17"/>
-      <c r="D741" s="17"/>
-      <c r="E741" s="17"/>
-      <c r="F741"/>
-      <c r="G741" s="2"/>
-    </row>
-    <row r="742" spans="3:7">
-      <c r="C742" s="17"/>
-      <c r="D742" s="17"/>
-      <c r="E742" s="17"/>
-      <c r="F742"/>
-      <c r="G742" s="2"/>
-    </row>
-    <row r="743" spans="3:7">
-      <c r="C743" s="17"/>
-      <c r="D743" s="17"/>
-      <c r="E743" s="17"/>
-      <c r="F743"/>
-      <c r="G743" s="2"/>
-    </row>
-    <row r="744" spans="3:7">
-      <c r="C744" s="17"/>
-      <c r="D744" s="17"/>
-      <c r="E744" s="17"/>
-      <c r="F744"/>
-      <c r="G744" s="2"/>
-    </row>
-    <row r="745" spans="3:7">
-      <c r="C745" s="17"/>
-      <c r="D745" s="17"/>
-      <c r="E745" s="17"/>
-      <c r="F745"/>
-      <c r="G745" s="2"/>
-    </row>
-    <row r="746" spans="3:7">
-      <c r="C746" s="17"/>
-      <c r="D746" s="17"/>
-      <c r="E746" s="17"/>
-      <c r="F746"/>
-      <c r="G746" s="2"/>
-    </row>
-    <row r="747" spans="3:7">
-      <c r="C747" s="17"/>
-      <c r="D747" s="17"/>
-      <c r="E747" s="17"/>
-      <c r="F747"/>
-      <c r="G747" s="2"/>
-    </row>
-    <row r="748" spans="3:7">
-      <c r="C748" s="17"/>
-      <c r="D748" s="17"/>
-      <c r="E748" s="17"/>
-      <c r="F748"/>
-      <c r="G748" s="2"/>
-    </row>
-    <row r="749" spans="3:7">
-      <c r="C749" s="17"/>
-      <c r="D749" s="17"/>
-      <c r="E749" s="17"/>
-      <c r="F749"/>
-      <c r="G749" s="2"/>
-    </row>
-    <row r="750" spans="3:7">
-      <c r="C750" s="17"/>
-      <c r="D750" s="17"/>
-      <c r="E750" s="17"/>
-      <c r="F750"/>
-      <c r="G750" s="2"/>
-    </row>
-    <row r="751" spans="3:7">
-      <c r="C751" s="17"/>
-      <c r="D751" s="17"/>
-      <c r="E751" s="17"/>
-      <c r="F751"/>
-      <c r="G751" s="2"/>
-    </row>
-    <row r="752" spans="3:7">
-      <c r="C752" s="17"/>
-      <c r="D752" s="17"/>
-      <c r="E752" s="17"/>
-      <c r="F752"/>
-      <c r="G752" s="2"/>
-    </row>
-    <row r="753" spans="3:7">
-      <c r="C753" s="17"/>
-      <c r="D753" s="17"/>
-      <c r="E753" s="17"/>
-      <c r="F753"/>
-      <c r="G753" s="2"/>
-    </row>
-    <row r="754" spans="3:7">
-      <c r="C754" s="17"/>
-      <c r="D754" s="17"/>
-      <c r="E754" s="17"/>
-      <c r="F754"/>
-      <c r="G754" s="2"/>
-    </row>
-    <row r="755" spans="3:7">
-      <c r="C755" s="17"/>
-      <c r="D755" s="17"/>
-      <c r="E755" s="17"/>
-      <c r="F755"/>
-      <c r="G755" s="2"/>
-    </row>
-    <row r="756" spans="3:7">
-      <c r="C756" s="17"/>
-      <c r="D756" s="17"/>
-      <c r="E756" s="17"/>
-      <c r="F756"/>
-      <c r="G756" s="2"/>
-    </row>
-    <row r="757" spans="3:7">
-      <c r="C757" s="17"/>
-      <c r="D757" s="17"/>
-      <c r="E757" s="17"/>
-      <c r="F757"/>
-      <c r="G757" s="2"/>
-    </row>
-    <row r="758" spans="3:7">
-      <c r="C758" s="17"/>
-      <c r="D758" s="17"/>
-      <c r="E758" s="17"/>
-      <c r="F758"/>
-      <c r="G758" s="2"/>
-    </row>
-    <row r="759" spans="3:7">
-      <c r="C759" s="17"/>
-      <c r="D759" s="17"/>
-      <c r="E759" s="17"/>
-      <c r="F759"/>
-      <c r="G759" s="2"/>
-    </row>
-    <row r="760" spans="3:7">
-      <c r="C760" s="17"/>
-      <c r="D760" s="17"/>
-      <c r="E760" s="17"/>
-      <c r="F760"/>
-      <c r="G760" s="2"/>
-    </row>
-    <row r="761" spans="3:7">
-      <c r="C761" s="17"/>
-      <c r="D761" s="17"/>
-      <c r="E761" s="17"/>
-      <c r="F761"/>
-      <c r="G761" s="2"/>
-    </row>
-    <row r="762" spans="3:7">
-      <c r="C762" s="17"/>
-      <c r="D762" s="17"/>
-      <c r="E762" s="17"/>
-      <c r="F762"/>
-      <c r="G762" s="2"/>
-    </row>
-    <row r="763" spans="3:7">
-      <c r="C763" s="17"/>
-      <c r="D763" s="17"/>
-      <c r="E763" s="17"/>
-      <c r="F763"/>
-      <c r="G763" s="2"/>
-    </row>
-    <row r="764" spans="3:7">
-      <c r="C764" s="17"/>
-      <c r="D764" s="17"/>
-      <c r="E764" s="17"/>
-      <c r="F764"/>
-      <c r="G764" s="2"/>
-    </row>
-    <row r="765" spans="3:7">
-      <c r="C765" s="17"/>
-      <c r="D765" s="17"/>
-      <c r="E765" s="17"/>
-      <c r="F765"/>
-      <c r="G765" s="2"/>
-    </row>
-    <row r="766" spans="3:7">
-      <c r="C766" s="17"/>
-      <c r="D766" s="17"/>
-      <c r="E766" s="17"/>
-      <c r="F766"/>
-      <c r="G766" s="2"/>
-    </row>
-    <row r="767" spans="3:7">
-      <c r="C767" s="17"/>
-      <c r="D767" s="17"/>
-      <c r="E767" s="17"/>
-      <c r="F767"/>
-      <c r="G767" s="2"/>
-    </row>
-    <row r="768" spans="3:7">
-      <c r="C768" s="17"/>
-      <c r="D768" s="17"/>
-      <c r="E768" s="17"/>
-      <c r="F768"/>
-      <c r="G768" s="2"/>
-    </row>
-    <row r="769" spans="3:7">
-      <c r="C769" s="17"/>
-      <c r="D769" s="17"/>
-      <c r="E769" s="17"/>
-      <c r="F769"/>
-      <c r="G769" s="2"/>
-    </row>
-    <row r="770" spans="3:7">
-      <c r="C770" s="17"/>
-      <c r="D770" s="17"/>
-      <c r="E770" s="17"/>
-      <c r="F770"/>
-      <c r="G770" s="2"/>
-    </row>
-    <row r="771" spans="3:7">
-      <c r="C771" s="17"/>
-      <c r="D771" s="17"/>
-      <c r="E771" s="17"/>
-      <c r="F771"/>
-      <c r="G771" s="2"/>
-    </row>
-    <row r="772" spans="3:7">
-      <c r="C772" s="17"/>
-      <c r="D772" s="17"/>
-      <c r="E772" s="17"/>
-      <c r="F772"/>
-      <c r="G772" s="2"/>
-    </row>
-    <row r="773" spans="3:7">
-      <c r="C773" s="17"/>
-      <c r="D773" s="17"/>
-      <c r="E773" s="17"/>
-      <c r="F773"/>
-      <c r="G773" s="2"/>
-    </row>
-    <row r="774" spans="3:7">
-      <c r="C774" s="17"/>
-      <c r="D774" s="17"/>
-      <c r="E774" s="17"/>
-      <c r="F774"/>
-      <c r="G774" s="2"/>
-    </row>
-    <row r="775" spans="3:7">
-      <c r="C775" s="17"/>
-      <c r="D775" s="17"/>
-      <c r="E775" s="17"/>
-      <c r="F775"/>
-      <c r="G775" s="2"/>
-    </row>
-    <row r="776" spans="3:7">
-      <c r="C776" s="17"/>
-      <c r="D776" s="17"/>
-      <c r="E776" s="17"/>
-      <c r="F776"/>
-      <c r="G776" s="2"/>
-    </row>
-    <row r="777" spans="3:7">
-      <c r="C777" s="17"/>
-      <c r="D777" s="17"/>
-      <c r="E777" s="17"/>
-      <c r="F777"/>
-      <c r="G777" s="2"/>
-    </row>
-    <row r="778" spans="3:7">
-      <c r="C778" s="17"/>
-      <c r="D778" s="17"/>
-      <c r="E778" s="17"/>
-      <c r="F778"/>
-      <c r="G778" s="2"/>
-    </row>
-    <row r="779" spans="3:7">
-      <c r="C779" s="17"/>
-      <c r="D779" s="17"/>
-      <c r="E779" s="17"/>
-      <c r="F779"/>
-      <c r="G779" s="2"/>
-    </row>
-    <row r="780" spans="3:7">
-      <c r="C780" s="17"/>
-      <c r="D780" s="17"/>
-      <c r="E780" s="17"/>
-      <c r="F780"/>
-      <c r="G780" s="2"/>
-    </row>
-    <row r="781" spans="3:7">
-      <c r="C781" s="17"/>
-      <c r="D781" s="17"/>
-      <c r="E781" s="17"/>
-      <c r="F781"/>
-      <c r="G781" s="2"/>
-    </row>
-    <row r="782" spans="3:7">
-      <c r="C782" s="17"/>
-      <c r="D782" s="17"/>
-      <c r="E782" s="17"/>
-      <c r="F782"/>
-      <c r="G782" s="2"/>
-    </row>
-    <row r="783" spans="3:7">
-      <c r="C783" s="17"/>
-      <c r="D783" s="17"/>
-      <c r="E783" s="17"/>
-      <c r="F783"/>
-      <c r="G783" s="2"/>
-    </row>
-    <row r="784" spans="3:7">
-      <c r="C784" s="17"/>
-      <c r="D784" s="17"/>
-      <c r="E784" s="17"/>
-      <c r="F784"/>
-      <c r="G784" s="2"/>
-    </row>
-    <row r="785" spans="3:7">
-      <c r="C785" s="17"/>
-      <c r="D785" s="17"/>
-      <c r="E785" s="17"/>
-      <c r="F785"/>
-      <c r="G785" s="2"/>
-    </row>
-    <row r="786" spans="3:7">
-      <c r="C786" s="17"/>
-      <c r="D786" s="17"/>
-      <c r="E786" s="17"/>
-      <c r="F786"/>
-      <c r="G786" s="2"/>
-    </row>
-    <row r="787" spans="3:7">
-      <c r="C787" s="17"/>
-      <c r="D787" s="17"/>
-      <c r="E787" s="17"/>
-      <c r="F787"/>
-      <c r="G787" s="2"/>
-    </row>
-    <row r="788" spans="3:7">
-      <c r="C788" s="17"/>
-      <c r="D788" s="17"/>
-      <c r="E788" s="17"/>
-      <c r="F788"/>
-      <c r="G788" s="2"/>
-    </row>
-    <row r="789" spans="3:7">
-      <c r="C789" s="17"/>
-      <c r="D789" s="17"/>
-      <c r="E789" s="17"/>
-      <c r="F789"/>
-      <c r="G789" s="2"/>
-    </row>
-    <row r="790" spans="3:7">
-      <c r="C790" s="17"/>
-      <c r="D790" s="17"/>
-      <c r="E790" s="17"/>
-      <c r="F790"/>
-      <c r="G790" s="2"/>
-    </row>
-    <row r="791" spans="3:7">
-      <c r="C791" s="17"/>
-      <c r="D791" s="17"/>
-      <c r="E791" s="17"/>
-      <c r="F791"/>
-      <c r="G791" s="2"/>
-    </row>
-    <row r="792" spans="3:7">
-      <c r="C792" s="17"/>
-      <c r="D792" s="17"/>
-      <c r="E792" s="17"/>
-      <c r="F792"/>
-      <c r="G792" s="2"/>
-    </row>
-    <row r="793" spans="3:7">
-      <c r="C793" s="17"/>
-      <c r="D793" s="17"/>
-      <c r="E793" s="17"/>
-      <c r="F793"/>
-      <c r="G793" s="2"/>
-    </row>
-    <row r="794" spans="3:7">
-      <c r="C794" s="17"/>
-      <c r="D794" s="17"/>
-      <c r="E794" s="17"/>
-      <c r="F794"/>
-      <c r="G794" s="2"/>
-    </row>
-    <row r="795" spans="3:7">
-      <c r="C795" s="17"/>
-      <c r="D795" s="17"/>
-      <c r="E795" s="17"/>
-      <c r="F795"/>
-      <c r="G795" s="2"/>
-    </row>
-    <row r="796" spans="3:7">
-      <c r="C796" s="17"/>
-      <c r="D796" s="17"/>
-      <c r="E796" s="17"/>
-      <c r="F796"/>
-      <c r="G796" s="2"/>
-    </row>
-    <row r="797" spans="3:7">
-      <c r="C797" s="17"/>
-      <c r="D797" s="17"/>
-      <c r="E797" s="17"/>
-      <c r="F797"/>
-      <c r="G797" s="2"/>
-    </row>
-    <row r="798" spans="3:7">
-      <c r="C798" s="17"/>
-      <c r="D798" s="17"/>
-      <c r="E798" s="17"/>
-      <c r="F798"/>
-      <c r="G798" s="2"/>
-    </row>
-    <row r="799" spans="3:7">
-      <c r="C799" s="17"/>
-      <c r="D799" s="17"/>
-      <c r="E799" s="17"/>
-      <c r="F799"/>
-      <c r="G799" s="2"/>
-    </row>
-    <row r="800" spans="3:7">
-      <c r="C800" s="17"/>
-      <c r="D800" s="17"/>
-      <c r="E800" s="17"/>
-      <c r="F800"/>
-      <c r="G800" s="2"/>
-    </row>
-    <row r="801" spans="3:7">
-      <c r="C801" s="17"/>
-      <c r="D801" s="17"/>
-      <c r="E801" s="17"/>
-      <c r="F801"/>
-      <c r="G801" s="2"/>
-    </row>
-    <row r="802" spans="3:7">
-      <c r="C802" s="17"/>
-      <c r="D802" s="17"/>
-      <c r="E802" s="17"/>
-      <c r="F802"/>
-      <c r="G802" s="2"/>
-    </row>
-    <row r="803" spans="3:7">
-      <c r="C803" s="17"/>
-      <c r="D803" s="17"/>
-      <c r="E803" s="17"/>
-      <c r="F803"/>
-      <c r="G803" s="2"/>
-    </row>
-    <row r="804" spans="3:7">
-      <c r="C804" s="17"/>
-      <c r="D804" s="17"/>
-      <c r="E804" s="17"/>
-      <c r="F804"/>
-      <c r="G804" s="2"/>
-    </row>
-    <row r="805" spans="3:7">
-      <c r="C805" s="17"/>
-      <c r="D805" s="17"/>
-      <c r="E805" s="17"/>
-      <c r="F805"/>
-      <c r="G805" s="2"/>
-    </row>
-    <row r="806" spans="3:7">
-      <c r="C806" s="17"/>
-      <c r="D806" s="17"/>
-      <c r="E806" s="17"/>
-      <c r="F806"/>
-      <c r="G806" s="2"/>
-    </row>
-    <row r="807" spans="3:7">
-      <c r="C807" s="17"/>
-      <c r="D807" s="17"/>
-      <c r="E807" s="17"/>
-      <c r="F807"/>
-      <c r="G807" s="2"/>
-    </row>
-    <row r="808" spans="3:7">
-      <c r="C808" s="17"/>
-      <c r="D808" s="17"/>
-      <c r="E808" s="17"/>
-      <c r="F808"/>
-      <c r="G808" s="2"/>
-    </row>
-    <row r="809" spans="3:7">
-      <c r="C809" s="17"/>
-      <c r="D809" s="17"/>
-      <c r="E809" s="17"/>
-      <c r="F809"/>
-      <c r="G809" s="2"/>
-    </row>
-    <row r="810" spans="3:7">
-      <c r="C810" s="17"/>
-      <c r="D810" s="17"/>
-      <c r="E810" s="17"/>
-      <c r="F810"/>
-      <c r="G810" s="2"/>
-    </row>
-    <row r="811" spans="3:7">
-      <c r="C811" s="17"/>
-      <c r="D811" s="17"/>
-      <c r="E811" s="17"/>
-      <c r="F811"/>
-      <c r="G811" s="2"/>
-    </row>
-    <row r="812" spans="3:7">
-      <c r="C812" s="17"/>
-      <c r="D812" s="17"/>
-      <c r="E812" s="17"/>
-      <c r="F812"/>
-      <c r="G812" s="2"/>
-    </row>
-    <row r="813" spans="3:7">
-      <c r="C813" s="17"/>
-      <c r="D813" s="17"/>
-      <c r="E813" s="17"/>
-      <c r="F813"/>
-      <c r="G813" s="2"/>
-    </row>
-    <row r="814" spans="3:7">
-      <c r="C814" s="17"/>
-      <c r="D814" s="17"/>
-      <c r="E814" s="17"/>
-      <c r="F814"/>
-      <c r="G814" s="2"/>
-    </row>
-    <row r="815" spans="3:7">
-      <c r="C815" s="17"/>
-      <c r="D815" s="17"/>
-      <c r="E815" s="17"/>
-      <c r="F815"/>
-      <c r="G815" s="2"/>
-    </row>
-    <row r="816" spans="3:7">
-      <c r="C816" s="17"/>
-      <c r="D816" s="17"/>
-      <c r="E816" s="17"/>
-      <c r="F816"/>
-      <c r="G816" s="2"/>
-    </row>
-    <row r="817" spans="3:7">
-      <c r="C817" s="17"/>
-      <c r="D817" s="17"/>
-      <c r="E817" s="17"/>
-      <c r="F817"/>
-      <c r="G817" s="2"/>
-    </row>
-    <row r="818" spans="3:7">
-      <c r="C818" s="17"/>
-      <c r="D818" s="17"/>
-      <c r="E818" s="17"/>
-      <c r="F818"/>
-      <c r="G818" s="2"/>
-    </row>
-    <row r="819" spans="3:7">
-      <c r="C819" s="17"/>
-      <c r="D819" s="17"/>
-      <c r="E819" s="17"/>
-      <c r="F819"/>
-      <c r="G819" s="2"/>
-    </row>
-    <row r="820" spans="3:7">
-      <c r="C820" s="17"/>
-      <c r="D820" s="17"/>
-      <c r="E820" s="17"/>
-      <c r="F820"/>
-      <c r="G820" s="2"/>
-    </row>
-    <row r="821" spans="3:7">
-      <c r="C821" s="17"/>
-      <c r="D821" s="17"/>
-      <c r="E821" s="17"/>
-      <c r="F821"/>
-      <c r="G821" s="2"/>
-    </row>
-    <row r="822" spans="3:7">
-      <c r="C822" s="17"/>
-      <c r="D822" s="17"/>
-      <c r="E822" s="17"/>
-      <c r="F822"/>
-      <c r="G822" s="2"/>
-    </row>
-    <row r="823" spans="3:7">
-      <c r="C823" s="17"/>
-      <c r="D823" s="17"/>
-      <c r="E823" s="17"/>
-      <c r="F823"/>
-      <c r="G823" s="2"/>
-    </row>
-    <row r="824" spans="3:7">
-      <c r="C824" s="17"/>
-      <c r="D824" s="17"/>
-      <c r="E824" s="17"/>
-      <c r="F824"/>
-      <c r="G824" s="2"/>
-    </row>
-    <row r="825" spans="3:7">
-      <c r="C825" s="17"/>
-      <c r="D825" s="17"/>
-      <c r="E825" s="17"/>
-      <c r="F825"/>
-      <c r="G825" s="2"/>
-    </row>
-    <row r="826" spans="3:7">
-      <c r="C826" s="17"/>
-      <c r="D826" s="17"/>
-      <c r="E826" s="17"/>
-      <c r="F826"/>
-      <c r="G826" s="2"/>
-    </row>
-    <row r="827" spans="3:7">
-      <c r="C827" s="17"/>
-      <c r="D827" s="17"/>
-      <c r="E827" s="17"/>
-      <c r="F827"/>
-      <c r="G827" s="2"/>
-    </row>
-    <row r="828" spans="3:7">
-      <c r="C828" s="17"/>
-      <c r="D828" s="17"/>
-      <c r="E828" s="17"/>
-      <c r="F828"/>
-      <c r="G828" s="2"/>
-    </row>
-    <row r="829" spans="3:7">
-      <c r="C829" s="17"/>
-      <c r="D829" s="17"/>
-      <c r="E829" s="17"/>
-      <c r="F829"/>
-      <c r="G829" s="2"/>
-    </row>
-    <row r="830" spans="3:7">
-      <c r="C830" s="17"/>
-      <c r="D830" s="17"/>
-      <c r="E830" s="17"/>
-      <c r="F830"/>
-      <c r="G830" s="2"/>
-    </row>
-    <row r="831" spans="3:7">
-      <c r="C831" s="17"/>
-      <c r="D831" s="17"/>
-      <c r="E831" s="17"/>
-      <c r="F831"/>
-      <c r="G831" s="2"/>
-    </row>
-    <row r="832" spans="3:7">
-      <c r="C832" s="17"/>
-      <c r="D832" s="17"/>
-      <c r="E832" s="17"/>
-      <c r="F832"/>
-      <c r="G832" s="2"/>
-    </row>
-    <row r="833" spans="3:7">
-      <c r="C833" s="17"/>
-      <c r="D833" s="17"/>
-      <c r="E833" s="17"/>
-      <c r="F833"/>
-      <c r="G833" s="2"/>
-    </row>
-    <row r="834" spans="3:7">
-      <c r="C834" s="17"/>
-      <c r="D834" s="17"/>
-      <c r="E834" s="17"/>
-      <c r="F834"/>
-      <c r="G834" s="2"/>
-    </row>
-    <row r="835" spans="3:7">
-      <c r="C835" s="17"/>
-      <c r="D835" s="17"/>
-      <c r="E835" s="17"/>
-      <c r="F835"/>
-      <c r="G835" s="2"/>
-    </row>
-    <row r="836" spans="3:7">
-      <c r="C836" s="17"/>
-      <c r="D836" s="17"/>
-      <c r="E836" s="17"/>
-      <c r="F836"/>
-      <c r="G836" s="2"/>
-    </row>
-    <row r="837" spans="3:7">
-      <c r="C837" s="17"/>
-      <c r="D837" s="17"/>
-      <c r="E837" s="17"/>
-      <c r="F837"/>
-      <c r="G837" s="2"/>
-    </row>
-    <row r="838" spans="3:7">
-      <c r="C838" s="17"/>
-      <c r="D838" s="17"/>
-      <c r="E838" s="17"/>
-      <c r="F838"/>
-      <c r="G838" s="2"/>
-    </row>
-    <row r="839" spans="3:7">
-      <c r="C839" s="17"/>
-      <c r="D839" s="17"/>
-      <c r="E839" s="17"/>
-      <c r="F839"/>
-      <c r="G839" s="2"/>
-    </row>
-    <row r="840" spans="3:7">
-      <c r="C840" s="17"/>
-      <c r="D840" s="17"/>
-      <c r="E840" s="17"/>
-      <c r="F840"/>
-      <c r="G840" s="2"/>
-    </row>
-    <row r="841" spans="3:7">
-      <c r="C841" s="17"/>
-      <c r="D841" s="17"/>
-      <c r="E841" s="17"/>
-      <c r="F841"/>
-      <c r="G841" s="2"/>
-    </row>
-    <row r="842" spans="3:7">
-      <c r="C842" s="17"/>
-      <c r="D842" s="17"/>
-      <c r="E842" s="17"/>
-      <c r="F842"/>
-      <c r="G842" s="2"/>
-    </row>
-    <row r="843" spans="3:7">
-      <c r="C843" s="17"/>
-      <c r="D843" s="17"/>
-      <c r="E843" s="17"/>
-      <c r="F843"/>
-      <c r="G843" s="2"/>
-    </row>
-    <row r="844" spans="3:7">
-      <c r="C844" s="17"/>
-      <c r="D844" s="17"/>
-      <c r="E844" s="17"/>
-      <c r="F844"/>
-      <c r="G844" s="2"/>
-    </row>
-    <row r="845" spans="3:7">
-      <c r="C845" s="17"/>
-      <c r="D845" s="17"/>
-      <c r="E845" s="17"/>
-      <c r="F845"/>
-      <c r="G845" s="2"/>
-    </row>
-    <row r="846" spans="3:7">
-      <c r="C846" s="17"/>
-      <c r="D846" s="17"/>
-      <c r="E846" s="17"/>
-      <c r="F846"/>
-      <c r="G846" s="2"/>
-    </row>
-    <row r="847" spans="3:7">
-      <c r="C847" s="17"/>
-      <c r="D847" s="17"/>
-      <c r="E847" s="17"/>
-      <c r="F847"/>
-      <c r="G847" s="2"/>
-    </row>
-    <row r="848" spans="3:7">
-      <c r="C848" s="17"/>
-      <c r="D848" s="17"/>
-      <c r="E848" s="17"/>
-      <c r="F848"/>
-      <c r="G848" s="2"/>
-    </row>
-    <row r="849" spans="3:7">
-      <c r="C849" s="17"/>
-      <c r="D849" s="17"/>
-      <c r="E849" s="17"/>
-      <c r="F849"/>
-      <c r="G849" s="2"/>
-    </row>
-    <row r="850" spans="3:7">
-      <c r="C850" s="17"/>
-      <c r="D850" s="17"/>
-      <c r="E850" s="17"/>
-      <c r="F850"/>
-      <c r="G850" s="2"/>
-    </row>
-    <row r="851" spans="3:7">
-      <c r="C851" s="17"/>
-      <c r="D851" s="17"/>
-      <c r="E851" s="17"/>
-      <c r="F851"/>
-      <c r="G851" s="2"/>
-    </row>
-    <row r="852" spans="3:7">
-      <c r="C852" s="17"/>
-      <c r="D852" s="17"/>
-      <c r="E852" s="17"/>
-      <c r="F852"/>
-      <c r="G852" s="2"/>
-    </row>
-    <row r="853" spans="3:7">
-      <c r="C853" s="17"/>
-      <c r="D853" s="17"/>
-      <c r="E853" s="17"/>
-      <c r="F853"/>
-      <c r="G853" s="2"/>
-    </row>
-    <row r="854" spans="3:7">
-      <c r="C854" s="17"/>
-      <c r="D854" s="17"/>
-      <c r="E854" s="17"/>
-      <c r="F854"/>
-      <c r="G854" s="2"/>
-    </row>
-    <row r="855" spans="3:7">
-      <c r="C855" s="17"/>
-      <c r="D855" s="17"/>
-      <c r="E855" s="17"/>
-      <c r="F855"/>
-      <c r="G855" s="2"/>
-    </row>
-    <row r="856" spans="3:7">
-      <c r="C856" s="17"/>
-      <c r="D856" s="17"/>
-      <c r="E856" s="17"/>
-      <c r="F856"/>
-      <c r="G856" s="2"/>
-    </row>
-    <row r="857" spans="3:7">
-      <c r="C857" s="17"/>
-      <c r="D857" s="17"/>
-      <c r="E857" s="17"/>
-      <c r="F857"/>
-      <c r="G857" s="2"/>
-    </row>
-    <row r="858" spans="3:7">
-      <c r="C858" s="17"/>
-      <c r="D858" s="17"/>
-      <c r="E858" s="17"/>
-      <c r="F858"/>
-      <c r="G858" s="2"/>
-    </row>
-    <row r="859" spans="3:7">
-      <c r="C859" s="17"/>
-      <c r="D859" s="17"/>
-      <c r="E859" s="17"/>
-      <c r="F859"/>
-      <c r="G859" s="2"/>
-    </row>
-    <row r="860" spans="3:7">
-      <c r="C860" s="17"/>
-      <c r="D860" s="17"/>
-      <c r="E860" s="17"/>
-      <c r="F860"/>
-      <c r="G860" s="2"/>
-    </row>
-    <row r="861" spans="3:7">
-      <c r="C861" s="17"/>
-      <c r="D861" s="17"/>
-      <c r="E861" s="17"/>
-      <c r="F861"/>
-      <c r="G861" s="2"/>
-    </row>
-    <row r="862" spans="3:7">
-      <c r="C862" s="17"/>
-      <c r="D862" s="17"/>
-      <c r="E862" s="17"/>
-      <c r="F862"/>
-      <c r="G862" s="2"/>
-    </row>
-    <row r="863" spans="3:7">
-      <c r="C863" s="17"/>
-      <c r="D863" s="17"/>
-      <c r="E863" s="17"/>
-      <c r="F863"/>
-      <c r="G863" s="2"/>
-    </row>
-    <row r="864" spans="3:7">
-      <c r="C864" s="17"/>
-      <c r="D864" s="17"/>
-      <c r="E864" s="17"/>
-      <c r="F864"/>
-      <c r="G864" s="2"/>
-    </row>
-    <row r="865" spans="3:7">
-      <c r="C865" s="17"/>
-      <c r="D865" s="17"/>
-      <c r="E865" s="17"/>
-      <c r="F865"/>
-      <c r="G865" s="2"/>
-    </row>
-    <row r="866" spans="3:7">
-      <c r="C866" s="17"/>
-      <c r="D866" s="17"/>
-      <c r="E866" s="17"/>
-      <c r="F866"/>
-      <c r="G866" s="2"/>
-    </row>
-    <row r="867" spans="3:7">
-      <c r="C867" s="17"/>
-      <c r="D867" s="17"/>
-      <c r="E867" s="17"/>
-      <c r="F867"/>
-      <c r="G867" s="2"/>
-    </row>
-    <row r="868" spans="3:7">
-      <c r="C868" s="17"/>
-      <c r="D868" s="17"/>
-      <c r="E868" s="17"/>
-      <c r="F868"/>
-      <c r="G868" s="2"/>
-    </row>
-    <row r="869" spans="3:7">
-      <c r="C869" s="17"/>
-      <c r="D869" s="17"/>
-      <c r="E869" s="17"/>
-      <c r="F869"/>
-      <c r="G869" s="2"/>
-    </row>
-    <row r="870" spans="3:7">
-      <c r="C870" s="17"/>
-      <c r="D870" s="17"/>
-      <c r="E870" s="17"/>
-      <c r="F870"/>
-      <c r="G870" s="2"/>
-    </row>
-    <row r="871" spans="3:7">
-      <c r="C871" s="17"/>
-      <c r="D871" s="17"/>
-      <c r="E871" s="17"/>
-      <c r="F871"/>
-      <c r="G871" s="2"/>
-    </row>
-    <row r="872" spans="3:7">
-      <c r="C872" s="17"/>
-      <c r="D872" s="17"/>
-      <c r="E872" s="17"/>
-      <c r="F872"/>
-      <c r="G872" s="2"/>
-    </row>
-    <row r="873" spans="3:7">
-      <c r="C873" s="17"/>
-      <c r="D873" s="17"/>
-      <c r="E873" s="17"/>
-      <c r="F873"/>
-      <c r="G873" s="2"/>
-    </row>
-    <row r="874" spans="3:7">
-      <c r="C874" s="17"/>
-      <c r="D874" s="17"/>
-      <c r="E874" s="17"/>
-      <c r="F874"/>
-      <c r="G874" s="2"/>
-    </row>
-    <row r="875" spans="3:7">
-      <c r="C875" s="17"/>
-      <c r="D875" s="17"/>
-      <c r="E875" s="17"/>
-      <c r="F875"/>
-      <c r="G875" s="2"/>
-    </row>
-    <row r="876" spans="3:7">
-      <c r="C876" s="17"/>
-      <c r="D876" s="17"/>
-      <c r="E876" s="17"/>
-      <c r="F876"/>
-      <c r="G876" s="2"/>
-    </row>
-    <row r="877" spans="3:7">
-      <c r="C877" s="17"/>
-      <c r="D877" s="17"/>
-      <c r="E877" s="17"/>
-      <c r="F877"/>
-      <c r="G877" s="2"/>
-    </row>
-    <row r="878" spans="3:7">
-      <c r="C878" s="17"/>
-      <c r="D878" s="17"/>
-      <c r="E878" s="17"/>
-      <c r="F878"/>
-      <c r="G878" s="2"/>
-    </row>
-    <row r="879" spans="3:7">
-      <c r="C879" s="17"/>
-      <c r="D879" s="17"/>
-      <c r="E879" s="17"/>
-      <c r="F879"/>
-      <c r="G879" s="2"/>
-    </row>
-    <row r="880" spans="3:7">
-      <c r="C880" s="17"/>
-      <c r="D880" s="17"/>
-      <c r="E880" s="17"/>
-      <c r="F880"/>
-      <c r="G880" s="2"/>
-    </row>
-    <row r="881" spans="3:7">
-      <c r="C881" s="17"/>
-      <c r="D881" s="17"/>
-      <c r="E881" s="17"/>
-      <c r="F881"/>
-      <c r="G881" s="2"/>
-    </row>
-    <row r="882" spans="3:7">
-      <c r="C882" s="17"/>
-      <c r="D882" s="17"/>
-      <c r="E882" s="17"/>
-      <c r="F882"/>
-      <c r="G882" s="2"/>
-    </row>
-    <row r="883" spans="3:7">
-      <c r="C883" s="17"/>
-      <c r="D883" s="17"/>
-      <c r="E883" s="17"/>
-      <c r="F883"/>
-      <c r="G883" s="2"/>
-    </row>
-    <row r="884" spans="3:7">
-      <c r="C884" s="17"/>
-      <c r="D884" s="17"/>
-      <c r="E884" s="17"/>
-      <c r="F884"/>
-      <c r="G884" s="2"/>
-    </row>
-    <row r="885" spans="3:7">
-      <c r="C885" s="17"/>
-      <c r="D885" s="17"/>
-      <c r="E885" s="17"/>
-      <c r="F885"/>
-      <c r="G885" s="2"/>
-    </row>
-    <row r="886" spans="3:7">
-      <c r="C886" s="17"/>
-      <c r="D886" s="17"/>
-      <c r="E886" s="17"/>
-      <c r="F886"/>
-      <c r="G886" s="2"/>
-    </row>
-    <row r="887" spans="3:7">
-      <c r="C887" s="17"/>
-      <c r="D887" s="17"/>
-      <c r="E887" s="17"/>
-      <c r="F887"/>
-      <c r="G887" s="2"/>
-    </row>
-    <row r="888" spans="3:7">
-      <c r="C888" s="17"/>
-      <c r="D888" s="17"/>
-      <c r="E888" s="17"/>
-      <c r="F888"/>
-      <c r="G888" s="2"/>
-    </row>
-    <row r="889" spans="3:7">
-      <c r="C889" s="17"/>
-      <c r="D889" s="17"/>
-      <c r="E889" s="17"/>
-      <c r="F889"/>
-      <c r="G889" s="2"/>
-    </row>
-    <row r="890" spans="3:7">
-      <c r="C890" s="17"/>
-      <c r="D890" s="17"/>
-      <c r="E890" s="17"/>
-      <c r="F890"/>
-      <c r="G890" s="2"/>
-    </row>
-    <row r="891" spans="3:7">
-      <c r="C891" s="17"/>
-      <c r="D891" s="17"/>
-      <c r="E891" s="17"/>
-      <c r="F891"/>
-      <c r="G891" s="2"/>
-    </row>
-    <row r="892" spans="3:7">
-      <c r="C892" s="17"/>
-      <c r="D892" s="17"/>
-      <c r="E892" s="17"/>
-      <c r="F892"/>
-      <c r="G892" s="2"/>
-    </row>
-    <row r="893" spans="3:7">
-      <c r="C893" s="17"/>
-      <c r="D893" s="17"/>
-      <c r="E893" s="17"/>
-      <c r="F893"/>
-      <c r="G893" s="2"/>
-    </row>
-    <row r="894" spans="3:7">
-      <c r="C894" s="17"/>
-      <c r="D894" s="17"/>
-      <c r="E894" s="17"/>
-      <c r="F894"/>
-      <c r="G894" s="2"/>
-    </row>
-    <row r="895" spans="3:7">
-      <c r="C895" s="17"/>
-      <c r="D895" s="17"/>
-      <c r="E895" s="17"/>
-      <c r="F895"/>
-      <c r="G895" s="2"/>
-    </row>
-    <row r="896" spans="3:7">
-      <c r="C896" s="17"/>
-      <c r="D896" s="17"/>
-      <c r="E896" s="17"/>
-      <c r="F896"/>
-      <c r="G896" s="2"/>
-    </row>
-    <row r="897" spans="3:7">
-      <c r="C897" s="17"/>
-      <c r="D897" s="17"/>
-      <c r="E897" s="17"/>
-      <c r="F897"/>
-      <c r="G897" s="2"/>
-    </row>
-    <row r="898" spans="3:7">
-      <c r="C898" s="17"/>
-      <c r="D898" s="17"/>
-      <c r="E898" s="17"/>
-      <c r="F898"/>
-      <c r="G898" s="2"/>
-    </row>
-    <row r="899" spans="3:7">
-      <c r="C899" s="17"/>
-      <c r="D899" s="17"/>
-      <c r="E899" s="17"/>
-      <c r="F899"/>
-      <c r="G899" s="2"/>
-    </row>
-    <row r="900" spans="3:7">
-      <c r="C900" s="17"/>
-      <c r="D900" s="17"/>
-      <c r="E900" s="17"/>
-      <c r="F900"/>
-      <c r="G900" s="2"/>
-    </row>
-    <row r="901" spans="3:7">
-      <c r="C901" s="17"/>
-      <c r="D901" s="17"/>
-      <c r="E901" s="17"/>
-      <c r="F901"/>
-      <c r="G901" s="2"/>
-    </row>
-    <row r="902" spans="3:7">
-      <c r="C902" s="17"/>
-      <c r="D902" s="17"/>
-      <c r="E902" s="17"/>
-      <c r="F902"/>
-      <c r="G902" s="2"/>
-    </row>
-    <row r="903" spans="3:7">
-      <c r="C903" s="17"/>
-      <c r="D903" s="17"/>
-      <c r="E903" s="17"/>
-      <c r="F903"/>
-      <c r="G903" s="2"/>
-    </row>
-    <row r="904" spans="3:7">
-      <c r="C904" s="17"/>
-      <c r="D904" s="17"/>
-      <c r="E904" s="17"/>
-      <c r="F904"/>
-      <c r="G904" s="2"/>
-    </row>
-    <row r="905" spans="3:7">
-      <c r="C905" s="17"/>
-      <c r="D905" s="17"/>
-      <c r="E905" s="17"/>
-      <c r="F905"/>
-      <c r="G905" s="2"/>
-    </row>
-    <row r="906" spans="3:7">
-      <c r="C906" s="17"/>
-      <c r="D906" s="17"/>
-      <c r="E906" s="17"/>
-      <c r="F906"/>
-      <c r="G906" s="2"/>
-    </row>
-    <row r="907" spans="3:7">
-      <c r="C907" s="17"/>
-      <c r="D907" s="17"/>
-      <c r="E907" s="17"/>
-      <c r="F907"/>
-      <c r="G907" s="2"/>
-    </row>
-    <row r="908" spans="3:7">
-      <c r="C908" s="17"/>
-      <c r="D908" s="17"/>
-      <c r="E908" s="17"/>
-      <c r="F908"/>
-      <c r="G908" s="2"/>
-    </row>
-    <row r="909" spans="3:7">
-      <c r="C909" s="17"/>
-      <c r="D909" s="17"/>
-      <c r="E909" s="17"/>
-      <c r="F909"/>
-      <c r="G909" s="2"/>
-    </row>
-    <row r="910" spans="3:7">
-      <c r="C910" s="17"/>
-      <c r="D910" s="17"/>
-      <c r="E910" s="17"/>
-      <c r="F910"/>
-      <c r="G910" s="2"/>
-    </row>
-    <row r="911" spans="3:7">
-      <c r="C911" s="17"/>
-      <c r="D911" s="17"/>
-      <c r="E911" s="17"/>
-      <c r="F911"/>
-      <c r="G911" s="2"/>
-    </row>
-    <row r="912" spans="3:7">
-      <c r="C912" s="17"/>
-      <c r="D912" s="17"/>
-      <c r="E912" s="17"/>
-      <c r="F912"/>
-      <c r="G912" s="2"/>
-    </row>
-    <row r="913" spans="3:7">
-      <c r="C913" s="17"/>
-      <c r="D913" s="17"/>
-      <c r="E913" s="17"/>
-      <c r="F913"/>
-      <c r="G913" s="2"/>
-    </row>
-    <row r="914" spans="3:7">
-      <c r="C914" s="17"/>
-      <c r="D914" s="17"/>
-      <c r="E914" s="17"/>
-      <c r="F914"/>
-      <c r="G914" s="2"/>
-    </row>
-    <row r="915" spans="3:7">
-      <c r="C915" s="17"/>
-      <c r="D915" s="17"/>
-      <c r="E915" s="17"/>
-      <c r="F915"/>
-      <c r="G915" s="2"/>
-    </row>
-    <row r="916" spans="3:7">
-      <c r="C916" s="17"/>
-      <c r="D916" s="17"/>
-      <c r="E916" s="17"/>
-      <c r="F916"/>
-      <c r="G916" s="2"/>
-    </row>
-    <row r="917" spans="3:7">
-      <c r="C917" s="17"/>
-      <c r="D917" s="17"/>
-      <c r="E917" s="17"/>
-      <c r="F917"/>
-      <c r="G917" s="2"/>
-    </row>
-    <row r="918" spans="3:7">
-      <c r="C918" s="17"/>
-      <c r="D918" s="17"/>
-      <c r="E918" s="17"/>
-      <c r="F918"/>
-      <c r="G918" s="2"/>
-    </row>
-    <row r="919" spans="3:7">
-      <c r="C919" s="17"/>
-      <c r="D919" s="17"/>
-      <c r="E919" s="17"/>
-      <c r="F919"/>
-      <c r="G919" s="2"/>
-    </row>
-    <row r="920" spans="3:7">
-      <c r="C920" s="17"/>
-      <c r="D920" s="17"/>
-      <c r="E920" s="17"/>
-      <c r="F920"/>
-      <c r="G920" s="2"/>
-    </row>
-    <row r="921" spans="3:7">
-      <c r="C921" s="17"/>
-      <c r="D921" s="17"/>
-      <c r="E921" s="17"/>
-      <c r="F921"/>
-      <c r="G921" s="2"/>
-    </row>
-    <row r="922" spans="3:7">
-      <c r="C922" s="17"/>
-      <c r="D922" s="17"/>
-      <c r="E922" s="17"/>
-      <c r="F922"/>
-      <c r="G922" s="2"/>
-    </row>
-    <row r="923" spans="3:7">
-      <c r="C923" s="17"/>
-      <c r="D923" s="17"/>
-      <c r="E923" s="17"/>
-      <c r="F923"/>
-      <c r="G923" s="2"/>
-    </row>
-    <row r="924" spans="3:7">
-      <c r="C924" s="17"/>
-      <c r="D924" s="17"/>
-      <c r="E924" s="17"/>
-      <c r="F924"/>
-      <c r="G924" s="2"/>
-    </row>
-    <row r="925" spans="3:7">
-      <c r="C925" s="17"/>
-      <c r="D925" s="17"/>
-      <c r="E925" s="17"/>
-      <c r="F925"/>
-      <c r="G925" s="2"/>
-    </row>
-    <row r="926" spans="3:7">
-      <c r="C926" s="17"/>
-      <c r="D926" s="17"/>
-      <c r="E926" s="17"/>
-      <c r="F926"/>
-      <c r="G926" s="2"/>
-    </row>
-    <row r="927" spans="3:7">
-      <c r="C927" s="17"/>
-      <c r="D927" s="17"/>
-      <c r="E927" s="17"/>
-      <c r="F927"/>
-      <c r="G927" s="2"/>
-    </row>
-    <row r="928" spans="3:7">
-      <c r="C928" s="17"/>
-      <c r="D928" s="17"/>
-      <c r="E928" s="17"/>
-      <c r="F928"/>
-      <c r="G928" s="2"/>
-    </row>
-    <row r="929" spans="3:7">
-      <c r="C929" s="17"/>
-      <c r="D929" s="17"/>
-      <c r="E929" s="17"/>
-      <c r="F929"/>
-      <c r="G929" s="2"/>
-    </row>
-    <row r="930" spans="3:7">
-      <c r="C930" s="17"/>
-      <c r="D930" s="17"/>
-      <c r="E930" s="17"/>
-      <c r="F930"/>
-      <c r="G930" s="2"/>
-    </row>
-    <row r="931" spans="3:7">
-      <c r="C931" s="17"/>
-      <c r="D931" s="17"/>
-      <c r="E931" s="17"/>
-      <c r="F931"/>
-      <c r="G931" s="2"/>
-    </row>
-    <row r="932" spans="3:7">
-      <c r="C932" s="17"/>
-      <c r="D932" s="17"/>
-      <c r="E932" s="17"/>
-      <c r="F932"/>
-      <c r="G932" s="2"/>
-    </row>
-    <row r="933" spans="3:7">
-      <c r="C933" s="17"/>
-      <c r="D933" s="17"/>
-      <c r="E933" s="17"/>
-      <c r="F933"/>
-      <c r="G933" s="2"/>
-    </row>
-    <row r="934" spans="3:7">
-      <c r="C934" s="17"/>
-      <c r="D934" s="17"/>
-      <c r="E934" s="17"/>
-      <c r="F934"/>
-      <c r="G934" s="2"/>
-    </row>
-    <row r="935" spans="3:7">
-      <c r="C935" s="17"/>
-      <c r="D935" s="17"/>
-      <c r="E935" s="17"/>
-      <c r="F935"/>
-      <c r="G935" s="2"/>
-    </row>
-    <row r="936" spans="3:7">
-      <c r="C936" s="17"/>
-      <c r="D936" s="17"/>
-      <c r="E936" s="17"/>
-      <c r="F936"/>
-      <c r="G936" s="2"/>
-    </row>
-    <row r="937" spans="3:7">
-      <c r="C937" s="17"/>
-      <c r="D937" s="17"/>
-      <c r="E937" s="17"/>
-      <c r="F937"/>
-      <c r="G937" s="2"/>
-    </row>
-    <row r="938" spans="3:7">
-      <c r="C938" s="17"/>
-      <c r="D938" s="17"/>
-      <c r="E938" s="17"/>
-      <c r="F938"/>
-      <c r="G938" s="2"/>
-    </row>
-    <row r="939" spans="3:7">
-      <c r="C939" s="17"/>
-      <c r="D939" s="17"/>
-      <c r="E939" s="17"/>
-      <c r="F939"/>
-      <c r="G939" s="2"/>
-    </row>
-    <row r="940" spans="3:7">
-      <c r="C940" s="17"/>
-      <c r="D940" s="17"/>
-      <c r="E940" s="17"/>
-      <c r="F940"/>
-      <c r="G940" s="2"/>
-    </row>
-    <row r="941" spans="3:7">
-      <c r="C941" s="17"/>
-      <c r="D941" s="17"/>
-      <c r="E941" s="17"/>
-      <c r="F941"/>
-      <c r="G941" s="2"/>
-    </row>
-    <row r="942" spans="3:7">
-      <c r="C942" s="17"/>
-      <c r="D942" s="17"/>
-      <c r="E942" s="17"/>
-      <c r="F942"/>
-      <c r="G942" s="2"/>
-    </row>
-    <row r="943" spans="3:7">
-      <c r="C943" s="17"/>
-      <c r="D943" s="17"/>
-      <c r="E943" s="17"/>
-      <c r="F943"/>
-      <c r="G943" s="2"/>
-    </row>
-    <row r="944" spans="3:7">
-      <c r="C944" s="17"/>
-      <c r="D944" s="17"/>
-      <c r="E944" s="17"/>
-      <c r="F944"/>
-      <c r="G944" s="2"/>
-    </row>
-    <row r="945" spans="3:7">
-      <c r="C945" s="17"/>
-      <c r="D945" s="17"/>
-      <c r="E945" s="17"/>
-      <c r="F945"/>
-      <c r="G945" s="2"/>
-    </row>
-    <row r="946" spans="3:7">
-      <c r="C946" s="17"/>
-      <c r="D946" s="17"/>
-      <c r="E946" s="17"/>
-      <c r="F946"/>
-      <c r="G946" s="2"/>
-    </row>
-    <row r="947" spans="3:7">
-      <c r="C947" s="17"/>
-      <c r="D947" s="17"/>
-      <c r="E947" s="17"/>
-      <c r="F947"/>
-      <c r="G947" s="2"/>
-    </row>
-    <row r="948" spans="3:7">
-      <c r="C948" s="17"/>
-      <c r="D948" s="17"/>
-      <c r="E948" s="17"/>
-      <c r="F948"/>
-      <c r="G948" s="2"/>
-    </row>
-    <row r="949" spans="3:7">
-      <c r="C949" s="17"/>
-      <c r="D949" s="17"/>
-      <c r="E949" s="17"/>
-      <c r="F949"/>
-      <c r="G949" s="2"/>
-    </row>
-    <row r="950" spans="3:7">
-      <c r="C950" s="17"/>
-      <c r="D950" s="17"/>
-      <c r="E950" s="17"/>
-      <c r="F950"/>
-      <c r="G950" s="2"/>
-    </row>
-    <row r="951" spans="3:7">
-      <c r="C951" s="17"/>
-      <c r="D951" s="17"/>
-      <c r="E951" s="17"/>
-      <c r="F951"/>
-      <c r="G951" s="2"/>
-    </row>
-    <row r="952" spans="3:7">
-      <c r="C952" s="17"/>
-      <c r="D952" s="17"/>
-      <c r="E952" s="17"/>
-      <c r="F952"/>
-      <c r="G952" s="2"/>
-    </row>
-    <row r="953" spans="3:7">
-      <c r="C953" s="17"/>
-      <c r="D953" s="17"/>
-      <c r="E953" s="17"/>
-      <c r="F953"/>
-      <c r="G953" s="2"/>
-    </row>
-    <row r="954" spans="3:7">
-      <c r="C954" s="17"/>
-      <c r="D954" s="17"/>
-      <c r="E954" s="17"/>
-      <c r="F954"/>
-      <c r="G954" s="2"/>
-    </row>
-    <row r="955" spans="3:7">
-      <c r="C955" s="17"/>
-      <c r="D955" s="17"/>
-      <c r="E955" s="17"/>
-      <c r="F955"/>
-      <c r="G955" s="2"/>
-    </row>
-    <row r="956" spans="3:7">
-      <c r="C956" s="17"/>
-      <c r="D956" s="17"/>
-      <c r="E956" s="17"/>
-      <c r="F956"/>
-      <c r="G956" s="2"/>
-    </row>
-    <row r="957" spans="3:7">
-      <c r="C957" s="17"/>
-      <c r="D957" s="17"/>
-      <c r="E957" s="17"/>
-      <c r="F957"/>
-      <c r="G957" s="2"/>
-    </row>
-    <row r="958" spans="3:7">
-      <c r="C958" s="17"/>
-      <c r="D958" s="17"/>
-      <c r="E958" s="17"/>
-      <c r="F958"/>
-      <c r="G958" s="2"/>
-    </row>
-    <row r="959" spans="3:7">
-      <c r="C959" s="17"/>
-      <c r="D959" s="17"/>
-      <c r="E959" s="17"/>
-      <c r="F959"/>
-      <c r="G959" s="2"/>
-    </row>
-    <row r="960" spans="3:7">
-      <c r="C960" s="17"/>
-      <c r="D960" s="17"/>
-      <c r="E960" s="17"/>
-      <c r="F960"/>
-      <c r="G960" s="2"/>
-    </row>
-    <row r="961" spans="3:7">
-      <c r="C961" s="17"/>
-      <c r="D961" s="17"/>
-      <c r="E961" s="17"/>
-      <c r="F961"/>
-      <c r="G961" s="2"/>
-    </row>
-    <row r="962" spans="3:7">
-      <c r="C962" s="17"/>
-      <c r="D962" s="17"/>
-      <c r="E962" s="17"/>
-      <c r="F962"/>
-      <c r="G962" s="2"/>
-    </row>
-    <row r="963" spans="3:7">
-      <c r="C963" s="17"/>
-      <c r="D963" s="17"/>
-      <c r="E963" s="17"/>
-      <c r="F963"/>
-      <c r="G963" s="2"/>
-    </row>
-    <row r="964" spans="3:7">
-      <c r="C964" s="17"/>
-      <c r="D964" s="17"/>
-      <c r="E964" s="17"/>
-      <c r="F964"/>
-      <c r="G964" s="2"/>
-    </row>
-    <row r="965" spans="3:7">
-      <c r="C965" s="17"/>
-      <c r="D965" s="17"/>
-      <c r="E965" s="17"/>
-      <c r="F965"/>
-      <c r="G965" s="2"/>
-    </row>
-    <row r="966" spans="3:7">
-      <c r="C966" s="17"/>
-      <c r="D966" s="17"/>
-      <c r="E966" s="17"/>
-      <c r="F966"/>
-      <c r="G966" s="2"/>
-    </row>
-    <row r="967" spans="3:7">
-      <c r="C967" s="17"/>
-      <c r="D967" s="17"/>
-      <c r="E967" s="17"/>
-      <c r="F967"/>
-      <c r="G967" s="2"/>
-    </row>
-    <row r="968" spans="3:7">
-      <c r="C968" s="17"/>
-      <c r="D968" s="17"/>
-      <c r="E968" s="17"/>
-      <c r="F968"/>
-      <c r="G968" s="2"/>
-    </row>
-    <row r="969" spans="3:7">
-      <c r="C969" s="17"/>
-      <c r="D969" s="17"/>
-      <c r="E969" s="17"/>
-      <c r="F969"/>
-      <c r="G969" s="2"/>
-    </row>
-    <row r="970" spans="3:7">
-      <c r="C970" s="17"/>
-      <c r="D970" s="17"/>
-      <c r="E970" s="17"/>
-      <c r="F970"/>
-      <c r="G970" s="2"/>
-    </row>
-    <row r="971" spans="3:7">
-      <c r="C971" s="17"/>
-      <c r="D971" s="17"/>
-      <c r="E971" s="17"/>
-      <c r="F971"/>
-      <c r="G971" s="2"/>
-    </row>
-    <row r="972" spans="3:7">
-      <c r="C972" s="17"/>
-      <c r="D972" s="17"/>
-      <c r="E972" s="17"/>
-      <c r="F972"/>
-      <c r="G972" s="2"/>
-    </row>
-    <row r="973" spans="3:7">
-      <c r="C973" s="17"/>
-      <c r="D973" s="17"/>
-      <c r="E973" s="17"/>
-      <c r="F973"/>
-      <c r="G973" s="2"/>
-    </row>
-    <row r="974" spans="3:7">
-      <c r="C974" s="17"/>
-      <c r="D974" s="17"/>
-      <c r="E974" s="17"/>
-      <c r="F974"/>
-      <c r="G974" s="2"/>
-    </row>
-    <row r="975" spans="3:7">
-      <c r="C975" s="17"/>
-      <c r="D975" s="17"/>
-      <c r="E975" s="17"/>
-      <c r="F975"/>
-      <c r="G975" s="2"/>
-    </row>
-    <row r="976" spans="3:7">
-      <c r="C976" s="17"/>
-      <c r="D976" s="17"/>
-      <c r="E976" s="17"/>
-      <c r="F976"/>
-      <c r="G976" s="2"/>
-    </row>
-    <row r="977" spans="3:7">
-      <c r="C977" s="17"/>
-      <c r="D977" s="17"/>
-      <c r="E977" s="17"/>
-      <c r="F977"/>
-      <c r="G977" s="2"/>
-    </row>
-    <row r="978" spans="3:7">
-      <c r="C978" s="17"/>
-      <c r="D978" s="17"/>
-      <c r="E978" s="17"/>
-      <c r="F978"/>
-      <c r="G978" s="2"/>
-    </row>
-    <row r="979" spans="3:7">
-      <c r="C979" s="17"/>
-      <c r="D979" s="17"/>
-      <c r="E979" s="17"/>
-      <c r="F979"/>
-      <c r="G979" s="2"/>
-    </row>
-    <row r="980" spans="3:7">
-      <c r="C980" s="17"/>
-      <c r="D980" s="17"/>
-      <c r="E980" s="17"/>
-      <c r="F980"/>
-      <c r="G980" s="2"/>
-    </row>
-    <row r="981" spans="3:7">
-      <c r="C981" s="17"/>
-      <c r="D981" s="17"/>
-      <c r="E981" s="17"/>
-      <c r="F981"/>
-      <c r="G981" s="2"/>
-    </row>
-    <row r="982" spans="3:7">
-      <c r="C982" s="17"/>
-      <c r="D982" s="17"/>
-      <c r="E982" s="17"/>
-      <c r="F982"/>
-      <c r="G982" s="2"/>
-    </row>
-    <row r="983" spans="3:7">
-      <c r="C983" s="17"/>
-      <c r="D983" s="17"/>
-      <c r="E983" s="17"/>
-      <c r="F983"/>
-      <c r="G983" s="2"/>
-    </row>
-    <row r="984" spans="3:7">
-      <c r="C984" s="17"/>
-      <c r="D984" s="17"/>
-      <c r="E984" s="17"/>
-      <c r="F984"/>
-      <c r="G984" s="2"/>
-    </row>
-    <row r="985" spans="3:7">
-      <c r="C985" s="17"/>
-      <c r="D985" s="17"/>
-      <c r="E985" s="17"/>
-      <c r="F985"/>
-      <c r="G985" s="2"/>
-    </row>
-    <row r="986" spans="3:7">
-      <c r="C986" s="17"/>
-      <c r="D986" s="17"/>
-      <c r="E986" s="17"/>
-      <c r="F986"/>
-      <c r="G986" s="2"/>
-    </row>
-    <row r="987" spans="3:7">
-      <c r="C987" s="17"/>
-      <c r="D987" s="17"/>
-      <c r="E987" s="17"/>
-      <c r="F987"/>
-      <c r="G987" s="2"/>
-    </row>
-    <row r="988" spans="3:7">
-      <c r="C988" s="17"/>
-      <c r="D988" s="17"/>
-      <c r="E988" s="17"/>
-      <c r="F988"/>
-      <c r="G988" s="2"/>
-    </row>
-    <row r="989" spans="3:7">
-      <c r="C989" s="17"/>
-      <c r="D989" s="17"/>
-      <c r="E989" s="17"/>
-      <c r="F989"/>
-      <c r="G989" s="2"/>
-    </row>
-    <row r="990" spans="3:7">
-      <c r="C990" s="17"/>
-      <c r="D990" s="17"/>
-      <c r="E990" s="17"/>
-      <c r="F990"/>
-      <c r="G990" s="2"/>
-    </row>
-    <row r="991" spans="3:7">
-      <c r="C991" s="17"/>
-      <c r="D991" s="17"/>
-      <c r="E991" s="17"/>
-      <c r="F991"/>
-      <c r="G991" s="2"/>
-    </row>
-    <row r="992" spans="3:7">
-      <c r="C992" s="17"/>
-      <c r="D992" s="17"/>
-      <c r="E992" s="17"/>
-      <c r="F992"/>
-      <c r="G992" s="2"/>
-    </row>
-    <row r="993" spans="3:7">
-      <c r="C993" s="17"/>
-      <c r="D993" s="17"/>
-      <c r="E993" s="17"/>
-      <c r="F993"/>
-      <c r="G993" s="2"/>
-    </row>
-    <row r="994" spans="3:7">
-      <c r="C994" s="17"/>
-      <c r="D994" s="17"/>
-      <c r="E994" s="17"/>
-      <c r="F994"/>
-      <c r="G994" s="2"/>
-    </row>
-    <row r="995" spans="3:7">
-      <c r="C995" s="17"/>
-      <c r="D995" s="17"/>
-      <c r="E995" s="17"/>
-      <c r="F995"/>
-      <c r="G995" s="2"/>
-    </row>
-    <row r="996" spans="3:7">
-      <c r="C996" s="17"/>
-      <c r="D996" s="17"/>
-      <c r="E996" s="17"/>
-      <c r="F996"/>
-      <c r="G996" s="2"/>
-    </row>
-    <row r="997" spans="3:7">
-      <c r="C997" s="17"/>
-      <c r="D997" s="17"/>
-      <c r="E997" s="17"/>
-      <c r="F997"/>
-      <c r="G997" s="2"/>
-    </row>
-    <row r="998" spans="3:7">
-      <c r="C998" s="17"/>
-      <c r="D998" s="17"/>
-      <c r="E998" s="17"/>
-      <c r="F998"/>
-      <c r="G998" s="2"/>
-    </row>
-    <row r="999" spans="3:7">
-      <c r="C999" s="17"/>
-      <c r="D999" s="17"/>
-      <c r="E999" s="17"/>
-      <c r="F999"/>
-      <c r="G999" s="2"/>
-    </row>
-    <row r="1000" spans="3:7">
-      <c r="C1000" s="17"/>
-      <c r="D1000" s="17"/>
-      <c r="E1000" s="17"/>
-      <c r="F1000"/>
-      <c r="G1000" s="2"/>
-    </row>
-    <row r="1001" spans="3:7">
-      <c r="C1001" s="17"/>
-      <c r="D1001" s="17"/>
-      <c r="E1001" s="17"/>
-      <c r="F1001"/>
-      <c r="G1001" s="2"/>
-    </row>
-    <row r="1002" spans="3:7">
-      <c r="C1002" s="17"/>
-      <c r="D1002" s="17"/>
-      <c r="E1002" s="17"/>
-      <c r="F1002"/>
-      <c r="G1002" s="2"/>
-    </row>
-    <row r="1003" spans="3:7">
-      <c r="C1003" s="17"/>
-      <c r="D1003" s="17"/>
-      <c r="E1003" s="17"/>
-      <c r="F1003"/>
-      <c r="G1003" s="2"/>
-    </row>
-    <row r="1004" spans="3:7">
-      <c r="C1004" s="17"/>
-      <c r="D1004" s="17"/>
-      <c r="E1004" s="17"/>
-      <c r="F1004"/>
-      <c r="G1004" s="2"/>
-    </row>
-    <row r="1005" spans="3:7">
-      <c r="C1005" s="17"/>
-      <c r="D1005" s="17"/>
-      <c r="E1005" s="17"/>
-      <c r="F1005"/>
-      <c r="G1005" s="2"/>
-    </row>
-    <row r="1006" spans="3:7">
-      <c r="C1006" s="17"/>
-      <c r="D1006" s="17"/>
-      <c r="E1006" s="17"/>
-      <c r="F1006"/>
-      <c r="G1006" s="2"/>
-    </row>
-    <row r="1007" spans="3:7">
-      <c r="C1007" s="17"/>
-      <c r="D1007" s="17"/>
-      <c r="E1007" s="17"/>
-      <c r="F1007"/>
-      <c r="G1007" s="2"/>
-    </row>
-    <row r="1008" spans="3:7">
-      <c r="C1008" s="17"/>
-      <c r="D1008" s="17"/>
-      <c r="E1008" s="17"/>
-      <c r="F1008"/>
-      <c r="G1008" s="2"/>
-    </row>
-    <row r="1009" spans="3:7">
-      <c r="C1009" s="17"/>
-      <c r="D1009" s="17"/>
-      <c r="E1009" s="17"/>
-      <c r="F1009"/>
-      <c r="G1009" s="2"/>
-    </row>
-    <row r="1010" spans="3:7">
-      <c r="C1010" s="17"/>
-      <c r="D1010" s="17"/>
-      <c r="E1010" s="17"/>
-      <c r="F1010"/>
-      <c r="G1010" s="2"/>
-    </row>
-    <row r="1011" spans="3:7">
-      <c r="C1011" s="17"/>
-      <c r="D1011" s="17"/>
-      <c r="E1011" s="17"/>
-      <c r="F1011"/>
-      <c r="G1011" s="2"/>
-    </row>
-    <row r="1012" spans="3:7">
-      <c r="C1012" s="17"/>
-      <c r="D1012" s="17"/>
-      <c r="E1012" s="17"/>
-      <c r="F1012"/>
-      <c r="G1012" s="2"/>
-    </row>
-    <row r="1013" spans="3:7">
-      <c r="C1013" s="17"/>
-      <c r="D1013" s="17"/>
-      <c r="E1013" s="17"/>
-      <c r="F1013"/>
-      <c r="G1013" s="2"/>
-    </row>
-    <row r="1014" spans="3:7">
-      <c r="C1014" s="17"/>
-      <c r="D1014" s="17"/>
-      <c r="E1014" s="17"/>
-      <c r="F1014"/>
-      <c r="G1014" s="2"/>
-    </row>
-    <row r="1015" spans="3:7">
-      <c r="C1015" s="17"/>
-      <c r="D1015" s="17"/>
-      <c r="E1015" s="17"/>
-      <c r="F1015"/>
-      <c r="G1015" s="2"/>
-    </row>
-    <row r="1016" spans="3:7">
-      <c r="C1016" s="17"/>
-      <c r="D1016" s="17"/>
-      <c r="E1016" s="17"/>
-      <c r="F1016"/>
-      <c r="G1016" s="2"/>
-    </row>
-    <row r="1017" spans="3:7">
-      <c r="C1017" s="17"/>
-      <c r="D1017" s="17"/>
-      <c r="E1017" s="17"/>
-      <c r="F1017"/>
-      <c r="G1017" s="2"/>
-    </row>
-    <row r="1018" spans="3:7">
-      <c r="C1018" s="17"/>
-      <c r="D1018" s="17"/>
-      <c r="E1018" s="17"/>
-      <c r="F1018"/>
-      <c r="G1018" s="2"/>
-    </row>
-    <row r="1019" spans="3:7">
-      <c r="C1019" s="17"/>
-      <c r="D1019" s="17"/>
-      <c r="E1019" s="17"/>
-      <c r="F1019"/>
-      <c r="G1019" s="2"/>
-    </row>
-    <row r="1020" spans="3:7">
-      <c r="C1020" s="17"/>
-      <c r="D1020" s="17"/>
-      <c r="E1020" s="17"/>
-      <c r="F1020"/>
-      <c r="G1020" s="2"/>
-    </row>
-    <row r="1021" spans="3:7">
-      <c r="C1021" s="17"/>
-      <c r="D1021" s="17"/>
-      <c r="E1021" s="17"/>
-      <c r="F1021"/>
-      <c r="G1021" s="2"/>
-    </row>
-    <row r="1022" spans="3:7">
-      <c r="C1022" s="17"/>
-      <c r="D1022" s="17"/>
-      <c r="E1022" s="17"/>
-      <c r="F1022"/>
-      <c r="G1022" s="2"/>
-    </row>
-    <row r="1023" spans="3:7">
-      <c r="C1023" s="17"/>
-      <c r="D1023" s="17"/>
-      <c r="E1023" s="17"/>
-      <c r="F1023"/>
-      <c r="G1023" s="2"/>
-    </row>
-    <row r="1024" spans="3:7">
-      <c r="C1024" s="17"/>
-      <c r="D1024" s="17"/>
-      <c r="E1024" s="17"/>
-      <c r="F1024"/>
-      <c r="G1024" s="2"/>
-    </row>
-    <row r="1025" spans="3:7">
-      <c r="C1025" s="17"/>
-      <c r="D1025" s="17"/>
-      <c r="E1025" s="17"/>
-      <c r="F1025"/>
-      <c r="G1025" s="2"/>
-    </row>
-    <row r="1026" spans="3:7">
-      <c r="C1026" s="17"/>
-      <c r="D1026" s="17"/>
-      <c r="E1026" s="17"/>
-      <c r="F1026"/>
-      <c r="G1026" s="2"/>
-    </row>
-    <row r="1027" spans="3:7">
-      <c r="C1027" s="17"/>
-      <c r="D1027" s="17"/>
-      <c r="E1027" s="17"/>
-      <c r="F1027"/>
-      <c r="G1027" s="2"/>
-    </row>
-    <row r="1028" spans="3:7">
-      <c r="C1028" s="17"/>
-      <c r="D1028" s="17"/>
-      <c r="E1028" s="17"/>
-      <c r="F1028"/>
-      <c r="G1028" s="2"/>
-    </row>
-    <row r="1029" spans="3:7">
-      <c r="C1029" s="17"/>
-      <c r="D1029" s="17"/>
-      <c r="E1029" s="17"/>
-      <c r="F1029"/>
-      <c r="G1029" s="2"/>
-    </row>
-    <row r="1030" spans="3:7">
-      <c r="C1030" s="17"/>
-      <c r="D1030" s="17"/>
-      <c r="E1030" s="17"/>
-      <c r="F1030"/>
-      <c r="G1030" s="2"/>
-    </row>
-    <row r="1031" spans="3:7">
-      <c r="C1031" s="17"/>
-      <c r="D1031" s="17"/>
-      <c r="E1031" s="17"/>
-      <c r="F1031"/>
-      <c r="G1031" s="2"/>
-    </row>
-    <row r="1032" spans="3:7">
-      <c r="C1032" s="17"/>
-      <c r="D1032" s="17"/>
-      <c r="E1032" s="17"/>
-      <c r="F1032"/>
-      <c r="G1032" s="2"/>
-    </row>
-    <row r="1033" spans="3:7">
-      <c r="C1033" s="17"/>
-      <c r="D1033" s="17"/>
-      <c r="E1033" s="17"/>
-      <c r="F1033"/>
-      <c r="G1033" s="2"/>
-    </row>
-    <row r="1034" spans="3:7">
-      <c r="C1034" s="17"/>
-      <c r="D1034" s="17"/>
-      <c r="E1034" s="17"/>
-      <c r="F1034"/>
-      <c r="G1034" s="2"/>
-    </row>
-    <row r="1035" spans="3:7">
-      <c r="C1035" s="17"/>
-      <c r="D1035" s="17"/>
-      <c r="E1035" s="17"/>
-      <c r="F1035"/>
-      <c r="G1035" s="2"/>
-    </row>
-    <row r="1036" spans="3:7">
-      <c r="C1036" s="17"/>
-      <c r="D1036" s="17"/>
-      <c r="E1036" s="17"/>
-      <c r="F1036"/>
-      <c r="G1036" s="2"/>
-    </row>
-    <row r="1037" spans="3:7">
-      <c r="C1037" s="17"/>
-      <c r="D1037" s="17"/>
-      <c r="E1037" s="17"/>
-      <c r="F1037"/>
-      <c r="G1037" s="2"/>
-    </row>
-    <row r="1038" spans="3:7">
-      <c r="C1038" s="17"/>
-      <c r="D1038" s="17"/>
-      <c r="E1038" s="17"/>
-      <c r="F1038"/>
-      <c r="G1038" s="2"/>
-    </row>
-    <row r="1039" spans="3:7">
-      <c r="C1039" s="17"/>
-      <c r="D1039" s="17"/>
-      <c r="E1039" s="17"/>
-      <c r="F1039"/>
-      <c r="G1039" s="2"/>
-    </row>
-    <row r="1040" spans="3:7">
-      <c r="C1040" s="17"/>
-      <c r="D1040" s="17"/>
-      <c r="E1040" s="17"/>
-      <c r="F1040"/>
-      <c r="G1040" s="2"/>
-    </row>
-    <row r="1041" spans="3:7">
-      <c r="C1041" s="17"/>
-      <c r="D1041" s="17"/>
-      <c r="E1041" s="17"/>
-      <c r="F1041"/>
-      <c r="G1041" s="2"/>
-    </row>
-    <row r="1042" spans="3:7">
-      <c r="C1042" s="17"/>
-      <c r="D1042" s="17"/>
-      <c r="E1042" s="17"/>
-      <c r="F1042"/>
-      <c r="G1042" s="2"/>
-    </row>
-    <row r="1043" spans="3:7">
-      <c r="C1043" s="17"/>
-      <c r="D1043" s="17"/>
-      <c r="E1043" s="17"/>
-      <c r="F1043"/>
-      <c r="G1043" s="2"/>
-    </row>
-    <row r="1044" spans="3:7">
-      <c r="C1044" s="17"/>
-      <c r="D1044" s="17"/>
-      <c r="E1044" s="17"/>
-      <c r="F1044"/>
-      <c r="G1044" s="2"/>
-    </row>
-    <row r="1045" spans="3:7">
-      <c r="C1045" s="17"/>
-      <c r="D1045" s="17"/>
-      <c r="E1045" s="17"/>
-      <c r="F1045"/>
-      <c r="G1045" s="2"/>
-    </row>
-    <row r="1046" spans="3:7">
-      <c r="C1046" s="17"/>
-      <c r="D1046" s="17"/>
-      <c r="E1046" s="17"/>
-      <c r="F1046"/>
-      <c r="G1046" s="2"/>
-    </row>
-    <row r="1047" spans="3:7">
-      <c r="C1047" s="17"/>
-      <c r="D1047" s="17"/>
-      <c r="E1047" s="17"/>
-      <c r="F1047"/>
-      <c r="G1047" s="2"/>
-    </row>
-    <row r="1048" spans="3:7">
-      <c r="C1048" s="17"/>
-      <c r="D1048" s="17"/>
-      <c r="E1048" s="17"/>
-      <c r="F1048"/>
-      <c r="G1048" s="2"/>
-    </row>
-    <row r="1049" spans="3:7">
-      <c r="C1049" s="17"/>
-      <c r="D1049" s="17"/>
-      <c r="E1049" s="17"/>
-      <c r="F1049"/>
-      <c r="G1049" s="2"/>
-    </row>
-    <row r="1050" spans="3:7">
-      <c r="C1050" s="17"/>
-      <c r="D1050" s="17"/>
-      <c r="E1050" s="17"/>
-      <c r="F1050"/>
-      <c r="G1050" s="2"/>
-    </row>
-    <row r="1051" spans="3:7">
-      <c r="C1051" s="17"/>
-      <c r="D1051" s="17"/>
-      <c r="E1051" s="17"/>
-      <c r="F1051"/>
-      <c r="G1051" s="2"/>
-    </row>
-    <row r="1052" spans="3:7">
-      <c r="C1052" s="17"/>
-      <c r="D1052" s="17"/>
-      <c r="E1052" s="17"/>
-      <c r="F1052"/>
-      <c r="G1052" s="2"/>
-    </row>
-    <row r="1053" spans="3:7">
-      <c r="C1053" s="17"/>
-      <c r="D1053" s="17"/>
-      <c r="E1053" s="17"/>
-      <c r="F1053"/>
-      <c r="G1053" s="2"/>
-    </row>
-    <row r="1054" spans="3:7">
-      <c r="C1054" s="17"/>
-      <c r="D1054" s="17"/>
-      <c r="E1054" s="17"/>
-      <c r="F1054"/>
-      <c r="G1054" s="2"/>
-    </row>
-    <row r="1055" spans="3:7">
-      <c r="C1055" s="17"/>
-      <c r="D1055" s="17"/>
-      <c r="E1055" s="17"/>
-      <c r="F1055"/>
-      <c r="G1055" s="2"/>
-    </row>
-    <row r="1056" spans="3:7">
-      <c r="C1056" s="17"/>
-      <c r="D1056" s="17"/>
-      <c r="E1056" s="17"/>
-      <c r="F1056"/>
-      <c r="G1056" s="2"/>
-    </row>
-    <row r="1057" spans="3:7">
-      <c r="C1057" s="17"/>
-      <c r="D1057" s="17"/>
-      <c r="E1057" s="17"/>
-      <c r="F1057"/>
-      <c r="G1057" s="2"/>
-    </row>
-    <row r="1058" spans="3:7">
-      <c r="C1058" s="17"/>
-      <c r="D1058" s="17"/>
-      <c r="E1058" s="17"/>
-      <c r="F1058"/>
-      <c r="G1058" s="2"/>
-    </row>
-    <row r="1059" spans="3:7">
-      <c r="C1059" s="17"/>
-      <c r="D1059" s="17"/>
-      <c r="E1059" s="17"/>
-      <c r="F1059"/>
-      <c r="G1059" s="2"/>
-    </row>
-    <row r="1060" spans="3:7">
-      <c r="C1060" s="17"/>
-      <c r="D1060" s="17"/>
-      <c r="E1060" s="17"/>
-      <c r="F1060"/>
-      <c r="G1060" s="2"/>
-    </row>
-    <row r="1061" spans="3:7">
-      <c r="C1061" s="17"/>
-      <c r="D1061" s="17"/>
-      <c r="E1061" s="17"/>
-      <c r="F1061"/>
-      <c r="G1061" s="2"/>
-    </row>
-    <row r="1062" spans="3:7">
-      <c r="C1062" s="17"/>
-      <c r="D1062" s="17"/>
-      <c r="E1062" s="17"/>
-      <c r="F1062"/>
-      <c r="G1062" s="2"/>
-    </row>
-    <row r="1063" spans="3:7">
-      <c r="C1063" s="17"/>
-      <c r="D1063" s="17"/>
-      <c r="E1063" s="17"/>
-      <c r="F1063"/>
-      <c r="G1063" s="2"/>
-    </row>
-    <row r="1064" spans="3:7">
-      <c r="C1064" s="17"/>
-      <c r="D1064" s="17"/>
-      <c r="E1064" s="17"/>
-      <c r="F1064"/>
-      <c r="G1064" s="2"/>
-    </row>
-    <row r="1065" spans="3:7">
-      <c r="C1065" s="17"/>
-      <c r="D1065" s="17"/>
-      <c r="E1065" s="17"/>
-      <c r="F1065"/>
-      <c r="G1065" s="2"/>
-    </row>
-    <row r="1066" spans="3:7">
-      <c r="C1066" s="17"/>
-      <c r="D1066" s="17"/>
-      <c r="E1066" s="17"/>
-      <c r="F1066"/>
-      <c r="G1066" s="2"/>
-    </row>
-    <row r="1067" spans="3:7">
-      <c r="C1067" s="17"/>
-      <c r="D1067" s="17"/>
-      <c r="E1067" s="17"/>
-      <c r="F1067"/>
-      <c r="G1067" s="2"/>
-    </row>
-    <row r="1068" spans="3:7">
-      <c r="C1068" s="17"/>
-      <c r="D1068" s="17"/>
-      <c r="E1068" s="17"/>
-      <c r="F1068"/>
-      <c r="G1068" s="2"/>
-    </row>
-    <row r="1069" spans="3:7">
-      <c r="C1069" s="17"/>
-      <c r="D1069" s="17"/>
-      <c r="E1069" s="17"/>
-      <c r="F1069"/>
-      <c r="G1069" s="2"/>
-    </row>
-    <row r="1070" spans="3:7">
-      <c r="C1070" s="17"/>
-      <c r="D1070" s="17"/>
-      <c r="E1070" s="17"/>
-      <c r="F1070"/>
-      <c r="G1070" s="2"/>
-    </row>
-    <row r="1071" spans="3:7">
-      <c r="C1071" s="17"/>
-      <c r="D1071" s="17"/>
-      <c r="E1071" s="17"/>
-      <c r="F1071"/>
-      <c r="G1071" s="2"/>
-    </row>
-    <row r="1072" spans="3:7">
-      <c r="C1072" s="17"/>
-      <c r="D1072" s="17"/>
-      <c r="E1072" s="17"/>
-      <c r="F1072"/>
-      <c r="G1072" s="2"/>
-    </row>
-    <row r="1073" spans="3:7">
-      <c r="C1073" s="17"/>
-      <c r="D1073" s="17"/>
-      <c r="E1073" s="17"/>
-      <c r="F1073"/>
-      <c r="G1073" s="2"/>
-    </row>
-    <row r="1074" spans="3:7">
-      <c r="C1074" s="17"/>
-      <c r="D1074" s="17"/>
-      <c r="E1074" s="17"/>
-      <c r="F1074"/>
-      <c r="G1074" s="2"/>
-    </row>
-    <row r="1075" spans="3:7">
-      <c r="C1075" s="17"/>
-      <c r="D1075" s="17"/>
-      <c r="E1075" s="17"/>
-      <c r="F1075"/>
-      <c r="G1075" s="2"/>
-    </row>
-    <row r="1076" spans="3:7">
-      <c r="C1076" s="17"/>
-      <c r="D1076" s="17"/>
-      <c r="E1076" s="17"/>
-      <c r="F1076"/>
-      <c r="G1076" s="2"/>
-    </row>
-    <row r="1077" spans="3:7">
-      <c r="C1077" s="17"/>
-      <c r="D1077" s="17"/>
-      <c r="E1077" s="17"/>
-      <c r="F1077"/>
-      <c r="G1077" s="2"/>
-    </row>
-    <row r="1078" spans="3:7">
-      <c r="C1078" s="17"/>
-      <c r="D1078" s="17"/>
-      <c r="E1078" s="17"/>
-      <c r="F1078"/>
-      <c r="G1078" s="2"/>
-    </row>
-    <row r="1079" spans="3:7">
-      <c r="C1079" s="17"/>
-      <c r="D1079" s="17"/>
-      <c r="E1079" s="17"/>
-      <c r="F1079"/>
-      <c r="G1079" s="2"/>
-    </row>
-    <row r="1080" spans="3:7">
-      <c r="C1080" s="17"/>
-      <c r="D1080" s="17"/>
-      <c r="E1080" s="17"/>
-      <c r="F1080"/>
-      <c r="G1080" s="2"/>
-    </row>
-    <row r="1081" spans="3:7">
-      <c r="C1081" s="17"/>
-      <c r="D1081" s="17"/>
-      <c r="E1081" s="17"/>
-      <c r="F1081"/>
-      <c r="G1081" s="2"/>
-    </row>
-    <row r="1082" spans="3:7">
-      <c r="C1082" s="17"/>
-      <c r="D1082" s="17"/>
-      <c r="E1082" s="17"/>
-      <c r="F1082"/>
-      <c r="G1082" s="2"/>
-    </row>
-    <row r="1083" spans="3:7">
-      <c r="C1083" s="17"/>
-      <c r="D1083" s="17"/>
-      <c r="E1083" s="17"/>
-      <c r="F1083"/>
-      <c r="G1083" s="2"/>
-    </row>
-    <row r="1084" spans="3:7">
-      <c r="C1084" s="17"/>
-      <c r="D1084" s="17"/>
-      <c r="E1084" s="17"/>
-      <c r="F1084"/>
-      <c r="G1084" s="2"/>
-    </row>
-    <row r="1085" spans="3:7">
-      <c r="C1085" s="17"/>
-      <c r="D1085" s="17"/>
-      <c r="E1085" s="17"/>
-      <c r="F1085"/>
-      <c r="G1085" s="2"/>
-    </row>
-    <row r="1086" spans="3:7">
-      <c r="C1086" s="17"/>
-      <c r="D1086" s="17"/>
-      <c r="E1086" s="17"/>
-      <c r="F1086"/>
-      <c r="G1086" s="2"/>
-    </row>
-    <row r="1087" spans="3:7">
-      <c r="C1087" s="17"/>
-      <c r="D1087" s="17"/>
-      <c r="E1087" s="17"/>
-      <c r="F1087"/>
-      <c r="G1087" s="2"/>
-    </row>
-    <row r="1088" spans="3:7">
-      <c r="C1088" s="17"/>
-      <c r="D1088" s="17"/>
-      <c r="E1088" s="17"/>
-      <c r="F1088"/>
-      <c r="G1088" s="2"/>
-    </row>
-    <row r="1089" spans="3:7">
-      <c r="C1089" s="17"/>
-      <c r="D1089" s="17"/>
-      <c r="E1089" s="17"/>
-      <c r="F1089"/>
-      <c r="G1089" s="2"/>
-    </row>
-    <row r="1090" spans="3:7">
-      <c r="C1090" s="17"/>
-      <c r="D1090" s="17"/>
-      <c r="E1090" s="17"/>
-      <c r="F1090"/>
-      <c r="G1090" s="2"/>
-    </row>
-    <row r="1091" spans="3:7">
-      <c r="C1091" s="17"/>
-      <c r="D1091" s="17"/>
-      <c r="E1091" s="17"/>
-      <c r="F1091"/>
-      <c r="G1091" s="2"/>
-    </row>
-    <row r="1092" spans="3:7">
-      <c r="C1092" s="17"/>
-      <c r="D1092" s="17"/>
-      <c r="E1092" s="17"/>
-      <c r="F1092"/>
-      <c r="G1092" s="2"/>
-    </row>
-    <row r="1093" spans="3:7">
-      <c r="C1093" s="17"/>
-      <c r="D1093" s="17"/>
-      <c r="E1093" s="17"/>
-      <c r="F1093"/>
-      <c r="G1093" s="2"/>
-    </row>
-    <row r="1094" spans="3:7">
-      <c r="C1094" s="17"/>
-      <c r="D1094" s="17"/>
-      <c r="E1094" s="17"/>
-      <c r="F1094"/>
-      <c r="G1094" s="2"/>
-    </row>
-    <row r="1095" spans="3:7">
-      <c r="C1095" s="17"/>
-      <c r="D1095" s="17"/>
-      <c r="E1095" s="17"/>
-      <c r="F1095"/>
-      <c r="G1095" s="2"/>
-    </row>
-    <row r="1096" spans="3:7">
-      <c r="C1096" s="17"/>
-      <c r="D1096" s="17"/>
-      <c r="E1096" s="17"/>
-      <c r="F1096"/>
-      <c r="G1096" s="2"/>
-    </row>
-    <row r="1097" spans="3:7">
-      <c r="C1097" s="17"/>
-      <c r="D1097" s="17"/>
-      <c r="E1097" s="17"/>
-      <c r="F1097"/>
-      <c r="G1097" s="2"/>
-    </row>
-    <row r="1098" spans="3:7">
-      <c r="C1098" s="17"/>
-      <c r="D1098" s="17"/>
-      <c r="E1098" s="17"/>
-      <c r="F1098"/>
-      <c r="G1098" s="2"/>
-    </row>
-    <row r="1099" spans="3:7">
-      <c r="C1099" s="17"/>
-      <c r="D1099" s="17"/>
-      <c r="E1099" s="17"/>
-      <c r="F1099"/>
-      <c r="G1099" s="2"/>
-    </row>
-    <row r="1100" spans="3:7">
-      <c r="C1100" s="17"/>
-      <c r="D1100" s="17"/>
-      <c r="E1100" s="17"/>
-      <c r="F1100"/>
-      <c r="G1100" s="2"/>
-    </row>
-    <row r="1101" spans="3:7">
-      <c r="C1101" s="17"/>
-      <c r="D1101" s="17"/>
-      <c r="E1101" s="17"/>
-      <c r="F1101"/>
-      <c r="G1101" s="2"/>
-    </row>
-    <row r="1102" spans="3:7">
-      <c r="C1102" s="17"/>
-      <c r="D1102" s="17"/>
-      <c r="E1102" s="17"/>
-      <c r="F1102"/>
-      <c r="G1102" s="2"/>
-    </row>
-    <row r="1103" spans="3:7">
-      <c r="C1103" s="17"/>
-      <c r="D1103" s="17"/>
-      <c r="E1103" s="17"/>
-      <c r="F1103"/>
-      <c r="G1103" s="2"/>
-    </row>
-    <row r="1104" spans="3:7">
-      <c r="C1104" s="17"/>
-      <c r="D1104" s="17"/>
-      <c r="E1104" s="17"/>
-      <c r="F1104"/>
-      <c r="G1104" s="2"/>
-    </row>
-    <row r="1105" spans="3:7">
-      <c r="C1105" s="17"/>
-      <c r="D1105" s="17"/>
-      <c r="E1105" s="17"/>
-      <c r="F1105"/>
-      <c r="G1105" s="2"/>
-    </row>
-    <row r="1106" spans="3:7">
-      <c r="C1106" s="17"/>
-      <c r="D1106" s="17"/>
-      <c r="E1106" s="17"/>
-      <c r="F1106"/>
-      <c r="G1106" s="2"/>
-    </row>
-    <row r="1107" spans="3:7">
-      <c r="C1107" s="17"/>
-      <c r="D1107" s="17"/>
-      <c r="E1107" s="17"/>
-      <c r="F1107"/>
-      <c r="G1107" s="2"/>
-    </row>
-    <row r="1108" spans="3:7">
-      <c r="C1108" s="17"/>
-      <c r="D1108" s="17"/>
-      <c r="E1108" s="17"/>
-      <c r="F1108"/>
-      <c r="G1108" s="2"/>
-    </row>
-    <row r="1109" spans="3:7">
-      <c r="C1109" s="17"/>
-      <c r="D1109" s="17"/>
-      <c r="E1109" s="17"/>
-      <c r="F1109"/>
-      <c r="G1109" s="2"/>
-    </row>
-    <row r="1110" spans="3:7">
-      <c r="C1110" s="17"/>
-      <c r="D1110" s="17"/>
-      <c r="E1110" s="17"/>
-      <c r="F1110"/>
-      <c r="G1110" s="2"/>
-    </row>
-    <row r="1111" spans="3:7">
-      <c r="C1111" s="17"/>
-      <c r="D1111" s="17"/>
-      <c r="E1111" s="17"/>
-      <c r="F1111"/>
-      <c r="G1111" s="2"/>
-    </row>
-    <row r="1112" spans="3:7">
-      <c r="C1112" s="17"/>
-      <c r="D1112" s="17"/>
-      <c r="E1112" s="17"/>
-      <c r="F1112"/>
-      <c r="G1112" s="2"/>
-    </row>
-    <row r="1113" spans="3:7">
-      <c r="C1113" s="17"/>
-      <c r="D1113" s="17"/>
-      <c r="E1113" s="17"/>
-      <c r="F1113"/>
-      <c r="G1113" s="2"/>
-    </row>
-    <row r="1114" spans="3:7">
-      <c r="C1114" s="17"/>
-      <c r="D1114" s="17"/>
-      <c r="E1114" s="17"/>
-      <c r="F1114"/>
-      <c r="G1114" s="2"/>
-    </row>
-    <row r="1115" spans="3:7">
-      <c r="C1115" s="17"/>
-      <c r="D1115" s="17"/>
-      <c r="E1115" s="17"/>
-      <c r="F1115"/>
-      <c r="G1115" s="2"/>
-    </row>
-    <row r="1116" spans="3:7">
-      <c r="C1116" s="17"/>
-      <c r="D1116" s="17"/>
-      <c r="E1116" s="17"/>
-      <c r="F1116"/>
-      <c r="G1116" s="2"/>
-    </row>
-    <row r="1117" spans="3:7">
-      <c r="C1117" s="17"/>
-      <c r="D1117" s="17"/>
-      <c r="E1117" s="17"/>
-      <c r="F1117"/>
-      <c r="G1117" s="2"/>
-    </row>
-    <row r="1118" spans="3:7">
-      <c r="C1118" s="17"/>
-      <c r="D1118" s="17"/>
-      <c r="E1118" s="17"/>
-      <c r="F1118"/>
-      <c r="G1118" s="2"/>
-    </row>
-    <row r="1119" spans="3:7">
-      <c r="C1119" s="17"/>
-      <c r="D1119" s="17"/>
-      <c r="E1119" s="17"/>
-      <c r="F1119"/>
-      <c r="G1119" s="2"/>
-    </row>
-    <row r="1120" spans="3:7">
-      <c r="C1120" s="17"/>
-      <c r="D1120" s="17"/>
-      <c r="E1120" s="17"/>
-      <c r="F1120"/>
-      <c r="G1120" s="2"/>
-    </row>
-    <row r="1121" spans="3:7">
-      <c r="C1121" s="17"/>
-      <c r="D1121" s="17"/>
-      <c r="E1121" s="17"/>
-      <c r="F1121"/>
-      <c r="G1121" s="2"/>
-    </row>
-    <row r="1122" spans="3:7">
-      <c r="C1122" s="17"/>
-      <c r="D1122" s="17"/>
-      <c r="E1122" s="17"/>
-      <c r="F1122"/>
-      <c r="G1122" s="2"/>
-    </row>
-    <row r="1123" spans="3:7">
-      <c r="C1123" s="17"/>
-      <c r="D1123" s="17"/>
-      <c r="E1123" s="17"/>
-      <c r="F1123"/>
-      <c r="G1123" s="2"/>
-    </row>
-    <row r="1124" spans="3:7">
-      <c r="C1124" s="17"/>
-      <c r="D1124" s="17"/>
-      <c r="E1124" s="17"/>
-      <c r="F1124"/>
-      <c r="G1124" s="2"/>
-    </row>
-    <row r="1125" spans="3:7">
-      <c r="C1125" s="17"/>
-      <c r="D1125" s="17"/>
-      <c r="E1125" s="17"/>
-      <c r="F1125"/>
-      <c r="G1125" s="2"/>
-    </row>
-    <row r="1126" spans="3:7">
-      <c r="C1126" s="17"/>
-      <c r="D1126" s="17"/>
-      <c r="E1126" s="17"/>
-      <c r="F1126"/>
-      <c r="G1126" s="2"/>
-    </row>
-    <row r="1127" spans="3:7">
-      <c r="C1127" s="17"/>
-      <c r="D1127" s="17"/>
-      <c r="E1127" s="17"/>
-      <c r="F1127"/>
-      <c r="G1127" s="2"/>
-    </row>
-    <row r="1128" spans="3:7">
-      <c r="C1128" s="17"/>
-      <c r="D1128" s="17"/>
-      <c r="E1128" s="17"/>
-      <c r="F1128"/>
-      <c r="G1128" s="2"/>
-    </row>
-    <row r="1129" spans="3:7">
-      <c r="C1129" s="17"/>
-      <c r="D1129" s="17"/>
-      <c r="E1129" s="17"/>
-      <c r="F1129"/>
-      <c r="G1129" s="2"/>
-    </row>
-    <row r="1130" spans="3:7">
-      <c r="C1130" s="17"/>
-      <c r="D1130" s="17"/>
-      <c r="E1130" s="17"/>
-      <c r="F1130"/>
-      <c r="G1130" s="2"/>
-    </row>
-    <row r="1131" spans="3:7">
-      <c r="C1131" s="17"/>
-      <c r="D1131" s="17"/>
-      <c r="E1131" s="17"/>
-      <c r="F1131"/>
-      <c r="G1131" s="2"/>
-    </row>
-    <row r="1132" spans="3:7">
-      <c r="C1132" s="17"/>
-      <c r="D1132" s="17"/>
-      <c r="E1132" s="17"/>
-      <c r="F1132"/>
-      <c r="G1132" s="2"/>
-    </row>
-    <row r="1133" spans="3:7">
-      <c r="C1133" s="17"/>
-      <c r="D1133" s="17"/>
-      <c r="E1133" s="17"/>
-      <c r="F1133"/>
-      <c r="G1133" s="2"/>
-    </row>
-    <row r="1134" spans="3:7">
-      <c r="C1134" s="17"/>
-      <c r="D1134" s="17"/>
-      <c r="E1134" s="17"/>
-      <c r="F1134"/>
-      <c r="G1134" s="2"/>
-    </row>
-    <row r="1135" spans="3:7">
-      <c r="C1135" s="17"/>
-      <c r="D1135" s="17"/>
-      <c r="E1135" s="17"/>
-      <c r="F1135"/>
-      <c r="G1135" s="2"/>
-    </row>
-    <row r="1136" spans="3:7">
-      <c r="C1136" s="17"/>
-      <c r="D1136" s="17"/>
-      <c r="E1136" s="17"/>
-      <c r="F1136"/>
-      <c r="G1136" s="2"/>
-    </row>
-    <row r="1137" spans="3:7">
-      <c r="C1137" s="17"/>
-      <c r="D1137" s="17"/>
-      <c r="E1137" s="17"/>
-      <c r="F1137"/>
-      <c r="G1137" s="2"/>
-    </row>
-    <row r="1138" spans="3:7">
-      <c r="C1138" s="17"/>
-      <c r="D1138" s="17"/>
-      <c r="E1138" s="17"/>
-      <c r="F1138"/>
-      <c r="G1138" s="2"/>
-    </row>
-    <row r="1139" spans="3:7">
-      <c r="C1139" s="17"/>
-      <c r="D1139" s="17"/>
-      <c r="E1139" s="17"/>
-      <c r="F1139"/>
-      <c r="G1139" s="2"/>
-    </row>
-    <row r="1140" spans="3:7">
-      <c r="C1140" s="17"/>
-      <c r="D1140" s="17"/>
-      <c r="E1140" s="17"/>
-      <c r="F1140"/>
-      <c r="G1140" s="2"/>
-    </row>
-    <row r="1141" spans="3:7">
-      <c r="C1141" s="17"/>
-      <c r="D1141" s="17"/>
-      <c r="E1141" s="17"/>
-      <c r="F1141"/>
-      <c r="G1141" s="2"/>
-    </row>
-    <row r="1142" spans="3:7">
-      <c r="C1142" s="17"/>
-      <c r="D1142" s="17"/>
-      <c r="E1142" s="17"/>
-      <c r="F1142"/>
-      <c r="G1142" s="2"/>
-    </row>
-    <row r="1143" spans="3:7">
-      <c r="C1143" s="17"/>
-      <c r="D1143" s="17"/>
-      <c r="E1143" s="17"/>
-      <c r="F1143"/>
-      <c r="G1143" s="2"/>
-    </row>
-    <row r="1144" spans="3:7">
-      <c r="C1144" s="17"/>
-      <c r="D1144" s="17"/>
-      <c r="E1144" s="17"/>
-      <c r="F1144"/>
-      <c r="G1144" s="2"/>
-    </row>
-    <row r="1145" spans="3:7">
-      <c r="C1145" s="17"/>
-      <c r="D1145" s="17"/>
-      <c r="E1145" s="17"/>
-      <c r="F1145"/>
-      <c r="G1145" s="2"/>
-    </row>
-    <row r="1146" spans="3:7">
-      <c r="C1146" s="17"/>
-      <c r="D1146" s="17"/>
-      <c r="E1146" s="17"/>
-      <c r="F1146"/>
-      <c r="G1146" s="2"/>
-    </row>
-    <row r="1147" spans="3:7">
-      <c r="C1147" s="17"/>
-      <c r="D1147" s="17"/>
-      <c r="E1147" s="17"/>
-      <c r="F1147"/>
-      <c r="G1147" s="2"/>
-    </row>
-    <row r="1148" spans="3:7">
-      <c r="C1148" s="17"/>
-      <c r="D1148" s="17"/>
-      <c r="E1148" s="17"/>
-      <c r="F1148"/>
-      <c r="G1148" s="2"/>
-    </row>
-    <row r="1149" spans="3:7">
-      <c r="C1149" s="17"/>
-      <c r="D1149" s="17"/>
-      <c r="E1149" s="17"/>
-      <c r="F1149"/>
-      <c r="G1149" s="2"/>
-    </row>
-    <row r="1150" spans="3:7">
-      <c r="C1150" s="17"/>
-      <c r="D1150" s="17"/>
-      <c r="E1150" s="17"/>
-      <c r="F1150"/>
-      <c r="G1150" s="2"/>
-    </row>
-    <row r="1151" spans="3:7">
-      <c r="C1151" s="17"/>
-      <c r="D1151" s="17"/>
-      <c r="E1151" s="17"/>
-      <c r="F1151"/>
-      <c r="G1151" s="2"/>
-    </row>
-    <row r="1152" spans="3:7">
-      <c r="C1152" s="17"/>
-      <c r="D1152" s="17"/>
-      <c r="E1152" s="17"/>
-      <c r="F1152"/>
-      <c r="G1152" s="2"/>
-    </row>
-    <row r="1153" spans="3:7">
-      <c r="C1153" s="17"/>
-      <c r="D1153" s="17"/>
-      <c r="E1153" s="17"/>
-      <c r="F1153"/>
-      <c r="G1153" s="2"/>
-    </row>
-    <row r="1154" spans="3:7">
-      <c r="C1154" s="17"/>
-      <c r="D1154" s="17"/>
-      <c r="E1154" s="17"/>
-      <c r="F1154"/>
-      <c r="G1154" s="2"/>
-    </row>
-    <row r="1155" spans="3:7">
-      <c r="C1155" s="17"/>
-      <c r="D1155" s="17"/>
-      <c r="E1155" s="17"/>
-      <c r="F1155"/>
-      <c r="G1155" s="2"/>
-    </row>
-    <row r="1156" spans="3:7">
-      <c r="C1156" s="17"/>
-      <c r="D1156" s="17"/>
-      <c r="E1156" s="17"/>
-      <c r="F1156"/>
-      <c r="G1156" s="2"/>
-    </row>
-    <row r="1157" spans="3:7">
-      <c r="C1157" s="17"/>
-      <c r="D1157" s="17"/>
-      <c r="E1157" s="17"/>
-      <c r="F1157"/>
-      <c r="G1157" s="2"/>
-    </row>
-    <row r="1158" spans="3:7">
-      <c r="C1158" s="17"/>
-      <c r="D1158" s="17"/>
-      <c r="E1158" s="17"/>
-      <c r="F1158"/>
-      <c r="G1158" s="2"/>
-    </row>
-    <row r="1159" spans="3:7">
-      <c r="C1159" s="17"/>
-      <c r="D1159" s="17"/>
-      <c r="E1159" s="17"/>
-      <c r="F1159"/>
-      <c r="G1159" s="2"/>
-    </row>
-    <row r="1160" spans="3:7">
-      <c r="C1160" s="17"/>
-      <c r="D1160" s="17"/>
-      <c r="E1160" s="17"/>
-      <c r="F1160"/>
-      <c r="G1160" s="2"/>
-    </row>
-    <row r="1161" spans="3:7">
-      <c r="C1161" s="17"/>
-      <c r="D1161" s="17"/>
-      <c r="E1161" s="17"/>
-      <c r="F1161"/>
-      <c r="G1161" s="2"/>
-    </row>
-    <row r="1162" spans="3:7">
-      <c r="C1162" s="17"/>
-      <c r="D1162" s="17"/>
-      <c r="E1162" s="17"/>
-      <c r="F1162"/>
-      <c r="G1162" s="2"/>
-    </row>
-    <row r="1163" spans="3:7">
-      <c r="C1163" s="17"/>
-      <c r="D1163" s="17"/>
-      <c r="E1163" s="17"/>
-      <c r="F1163"/>
-      <c r="G1163" s="2"/>
-    </row>
-    <row r="1164" spans="3:7">
-      <c r="C1164" s="17"/>
-      <c r="D1164" s="17"/>
-      <c r="E1164" s="17"/>
-      <c r="F1164"/>
-      <c r="G1164" s="2"/>
-    </row>
-    <row r="1165" spans="3:7">
-      <c r="C1165" s="17"/>
-      <c r="D1165" s="17"/>
-      <c r="E1165" s="17"/>
-      <c r="F1165"/>
-      <c r="G1165" s="2"/>
-    </row>
-    <row r="1166" spans="3:7">
-      <c r="C1166" s="17"/>
-      <c r="D1166" s="17"/>
-      <c r="E1166" s="17"/>
-      <c r="F1166"/>
-      <c r="G1166" s="2"/>
-    </row>
-    <row r="1167" spans="3:7">
-      <c r="C1167" s="17"/>
-      <c r="D1167" s="17"/>
-      <c r="E1167" s="17"/>
-      <c r="F1167"/>
-      <c r="G1167" s="2"/>
-    </row>
-    <row r="1168" spans="3:7">
-      <c r="C1168" s="17"/>
-      <c r="D1168" s="17"/>
-      <c r="E1168" s="17"/>
-      <c r="F1168"/>
-      <c r="G1168" s="2"/>
-    </row>
-    <row r="1169" spans="3:7">
-      <c r="C1169" s="17"/>
-      <c r="D1169" s="17"/>
-      <c r="E1169" s="17"/>
-      <c r="F1169"/>
-      <c r="G1169" s="2"/>
-    </row>
-    <row r="1170" spans="3:7">
-      <c r="C1170" s="17"/>
-      <c r="D1170" s="17"/>
-      <c r="E1170" s="17"/>
-      <c r="F1170"/>
-      <c r="G1170" s="2"/>
-    </row>
-    <row r="1171" spans="3:7">
-      <c r="C1171" s="17"/>
-      <c r="D1171" s="17"/>
-      <c r="E1171" s="17"/>
-      <c r="F1171"/>
-      <c r="G1171" s="2"/>
-    </row>
-    <row r="1172" spans="3:7">
-      <c r="C1172" s="17"/>
-      <c r="D1172" s="17"/>
-      <c r="E1172" s="17"/>
-      <c r="F1172"/>
-      <c r="G1172" s="2"/>
-    </row>
-    <row r="1173" spans="3:7">
-      <c r="C1173" s="17"/>
-      <c r="D1173" s="17"/>
-      <c r="E1173" s="17"/>
-      <c r="F1173"/>
-      <c r="G1173" s="2"/>
-    </row>
-    <row r="1174" spans="3:7">
-      <c r="C1174" s="17"/>
-      <c r="D1174" s="17"/>
-      <c r="E1174" s="17"/>
-      <c r="F1174"/>
-      <c r="G1174" s="2"/>
-    </row>
-    <row r="1175" spans="3:7">
-      <c r="C1175" s="17"/>
-      <c r="D1175" s="17"/>
-      <c r="E1175" s="17"/>
-      <c r="F1175"/>
-      <c r="G1175" s="2"/>
-    </row>
-    <row r="1176" spans="3:7">
-      <c r="C1176" s="17"/>
-      <c r="D1176" s="17"/>
-      <c r="E1176" s="17"/>
-      <c r="F1176"/>
-      <c r="G1176" s="2"/>
-    </row>
-    <row r="1177" spans="3:7">
-      <c r="C1177" s="17"/>
-      <c r="D1177" s="17"/>
-      <c r="E1177" s="17"/>
-      <c r="F1177"/>
-      <c r="G1177" s="2"/>
-    </row>
-    <row r="1178" spans="3:7">
-      <c r="C1178" s="17"/>
-      <c r="D1178" s="17"/>
-      <c r="E1178" s="17"/>
-      <c r="F1178"/>
-      <c r="G1178" s="2"/>
-    </row>
-    <row r="1179" spans="3:7">
-      <c r="C1179" s="17"/>
-      <c r="D1179" s="17"/>
-      <c r="E1179" s="17"/>
-      <c r="F1179"/>
-      <c r="G1179" s="2"/>
-    </row>
-    <row r="1180" spans="3:7">
-      <c r="C1180" s="17"/>
-      <c r="D1180" s="17"/>
-      <c r="E1180" s="17"/>
-      <c r="F1180"/>
-      <c r="G1180" s="2"/>
-    </row>
-    <row r="1181" spans="3:7">
-      <c r="C1181" s="17"/>
-      <c r="D1181" s="17"/>
-      <c r="E1181" s="17"/>
-      <c r="F1181"/>
-      <c r="G1181" s="2"/>
-    </row>
-    <row r="1182" spans="3:7">
-      <c r="C1182" s="17"/>
-      <c r="D1182" s="17"/>
-      <c r="E1182" s="17"/>
-      <c r="F1182"/>
-      <c r="G1182" s="2"/>
-    </row>
-    <row r="1183" spans="3:7">
-      <c r="C1183" s="17"/>
-      <c r="D1183" s="17"/>
-      <c r="E1183" s="17"/>
-      <c r="F1183"/>
-      <c r="G1183" s="2"/>
-    </row>
-    <row r="1184" spans="3:7">
-      <c r="C1184" s="17"/>
-      <c r="D1184" s="17"/>
-      <c r="E1184" s="17"/>
-      <c r="F1184"/>
-      <c r="G1184" s="2"/>
-    </row>
-    <row r="1185" spans="3:7">
-      <c r="C1185" s="17"/>
-      <c r="D1185" s="17"/>
-      <c r="E1185" s="17"/>
-      <c r="F1185"/>
-      <c r="G1185" s="2"/>
-    </row>
-    <row r="1186" spans="3:7">
-      <c r="C1186" s="17"/>
-      <c r="D1186" s="17"/>
-      <c r="E1186" s="17"/>
-      <c r="F1186"/>
-      <c r="G1186" s="2"/>
-    </row>
-    <row r="1187" spans="3:7">
-      <c r="C1187" s="17"/>
-      <c r="D1187" s="17"/>
-      <c r="E1187" s="17"/>
-      <c r="F1187"/>
-      <c r="G1187" s="2"/>
-    </row>
-    <row r="1188" spans="3:7">
-      <c r="C1188" s="17"/>
-      <c r="D1188" s="17"/>
-      <c r="E1188" s="17"/>
-      <c r="F1188"/>
-      <c r="G1188" s="2"/>
-    </row>
-    <row r="1189" spans="3:7">
-      <c r="C1189" s="17"/>
-      <c r="D1189" s="17"/>
-      <c r="E1189" s="17"/>
-      <c r="F1189"/>
-      <c r="G1189" s="2"/>
-    </row>
-    <row r="1190" spans="3:7">
-      <c r="C1190" s="17"/>
-      <c r="D1190" s="17"/>
-      <c r="E1190" s="17"/>
-      <c r="F1190"/>
-      <c r="G1190" s="2"/>
-    </row>
-    <row r="1191" spans="3:7">
-      <c r="C1191" s="17"/>
-      <c r="D1191" s="17"/>
-      <c r="E1191" s="17"/>
-      <c r="F1191"/>
-      <c r="G1191" s="2"/>
-    </row>
-    <row r="1192" spans="3:7">
-      <c r="C1192" s="17"/>
-      <c r="D1192" s="17"/>
-      <c r="E1192" s="17"/>
-      <c r="F1192"/>
-      <c r="G1192" s="2"/>
-    </row>
-    <row r="1193" spans="3:7">
-      <c r="C1193" s="17"/>
-      <c r="D1193" s="17"/>
-      <c r="E1193" s="17"/>
-      <c r="F1193"/>
-      <c r="G1193" s="2"/>
-    </row>
-    <row r="1194" spans="3:7">
-      <c r="C1194" s="17"/>
-      <c r="D1194" s="17"/>
-      <c r="E1194" s="17"/>
-      <c r="F1194"/>
-      <c r="G1194" s="2"/>
-    </row>
-    <row r="1195" spans="3:7">
-      <c r="C1195" s="17"/>
-      <c r="D1195" s="17"/>
-      <c r="E1195" s="17"/>
-      <c r="F1195"/>
-      <c r="G1195" s="2"/>
-    </row>
-    <row r="1196" spans="3:7">
-      <c r="C1196" s="17"/>
-      <c r="D1196" s="17"/>
-      <c r="E1196" s="17"/>
-      <c r="F1196"/>
-      <c r="G1196" s="2"/>
-    </row>
-    <row r="1197" spans="3:7">
-      <c r="C1197" s="17"/>
-      <c r="D1197" s="17"/>
-      <c r="E1197" s="17"/>
-      <c r="F1197"/>
-      <c r="G1197" s="2"/>
-    </row>
-    <row r="1198" spans="3:7">
-      <c r="C1198" s="17"/>
-      <c r="D1198" s="17"/>
-      <c r="E1198" s="17"/>
-      <c r="F1198"/>
-      <c r="G1198" s="2"/>
-    </row>
-    <row r="1199" spans="3:7">
-      <c r="C1199" s="17"/>
-      <c r="D1199" s="17"/>
-      <c r="E1199" s="17"/>
-      <c r="F1199"/>
-      <c r="G1199" s="2"/>
-    </row>
-    <row r="1200" spans="3:7">
-      <c r="C1200" s="17"/>
-      <c r="D1200" s="17"/>
-      <c r="E1200" s="17"/>
-      <c r="F1200"/>
-      <c r="G1200" s="2"/>
-    </row>
-    <row r="1201" spans="3:7">
-      <c r="C1201" s="17"/>
-      <c r="D1201" s="17"/>
-      <c r="E1201" s="17"/>
-      <c r="F1201"/>
-      <c r="G1201" s="2"/>
-    </row>
-    <row r="1202" spans="3:7">
-      <c r="C1202" s="17"/>
-      <c r="D1202" s="17"/>
-      <c r="E1202" s="17"/>
-      <c r="F1202"/>
-      <c r="G1202" s="2"/>
-    </row>
-    <row r="1203" spans="3:7">
-      <c r="C1203" s="17"/>
-      <c r="D1203" s="17"/>
-      <c r="E1203" s="17"/>
-      <c r="F1203"/>
-      <c r="G1203" s="2"/>
-    </row>
-    <row r="1204" spans="3:7">
-      <c r="C1204" s="17"/>
-      <c r="D1204" s="17"/>
-      <c r="E1204" s="17"/>
-      <c r="F1204"/>
-      <c r="G1204" s="2"/>
     </row>
   </sheetData>
   <autoFilter ref="C3:X281" xr:uid="{00000000-0009-0000-0000-000000000000}"/>
@@ -26715,8 +21381,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:W118"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="I6" sqref="I6"/>
+    <sheetView tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="H70" sqref="H70:H118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -29386,10 +24052,7 @@
       <c r="G70" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H70" s="2" t="str">
-        <f>IF(RIGHT(D70,3)="ELC","DAYNITE",IF(RIGHT(D70,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H70" s="2"/>
       <c r="I70"/>
       <c r="J70"/>
     </row>
@@ -29409,10 +24072,7 @@
       <c r="G71" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H71" s="2" t="str">
-        <f t="shared" ref="H71:H118" si="0">IF(RIGHT(D71,3)="ELC","DAYNITE",IF(RIGHT(D71,3)="H2R","DAYNITE",""))</f>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H71" s="2"/>
     </row>
     <row r="72" spans="3:10">
       <c r="C72" t="s">
@@ -29430,10 +24090,7 @@
       <c r="G72" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H72" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H72" s="2"/>
     </row>
     <row r="73" spans="3:10">
       <c r="C73" t="s">
@@ -29451,10 +24108,7 @@
       <c r="G73" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H73" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H73" s="2"/>
     </row>
     <row r="74" spans="3:10">
       <c r="C74" t="s">
@@ -29472,10 +24126,7 @@
       <c r="G74" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H74" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H74" s="2"/>
     </row>
     <row r="75" spans="3:10">
       <c r="C75" t="s">
@@ -29493,10 +24144,7 @@
       <c r="G75" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H75" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H75" s="2"/>
     </row>
     <row r="76" spans="3:10">
       <c r="C76" s="17" t="s">
@@ -29514,10 +24162,7 @@
       <c r="G76" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H76" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H76" s="2"/>
     </row>
     <row r="77" spans="3:10">
       <c r="C77" t="s">
@@ -29535,10 +24180,7 @@
       <c r="G77" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H77" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H77" s="2"/>
     </row>
     <row r="78" spans="3:10">
       <c r="C78" s="17" t="s">
@@ -29556,10 +24198,7 @@
       <c r="G78" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H78" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H78" s="2"/>
     </row>
     <row r="79" spans="3:10">
       <c r="C79" t="s">
@@ -29577,10 +24216,7 @@
       <c r="G79" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H79" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H79" s="2"/>
     </row>
     <row r="80" spans="3:10">
       <c r="C80" s="17" t="s">
@@ -29598,10 +24234,7 @@
       <c r="G80" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H80" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H80" s="2"/>
     </row>
     <row r="81" spans="3:8">
       <c r="C81" s="17" t="s">
@@ -29619,10 +24252,7 @@
       <c r="G81" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H81" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H81" s="2"/>
     </row>
     <row r="82" spans="3:8">
       <c r="C82" s="17" t="s">
@@ -29640,10 +24270,7 @@
       <c r="G82" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H82" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H82" s="2"/>
     </row>
     <row r="83" spans="3:8">
       <c r="C83" s="17" t="s">
@@ -29661,10 +24288,7 @@
       <c r="G83" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H83" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H83" s="2"/>
     </row>
     <row r="84" spans="3:8">
       <c r="C84" s="17" t="s">
@@ -29682,10 +24306,7 @@
       <c r="G84" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H84" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H84" s="2"/>
     </row>
     <row r="85" spans="3:8">
       <c r="C85" s="17" t="s">
@@ -29703,10 +24324,7 @@
       <c r="G85" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H85" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H85" s="2"/>
     </row>
     <row r="86" spans="3:8">
       <c r="C86" s="17" t="s">
@@ -29724,10 +24342,7 @@
       <c r="G86" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H86" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H86" s="2"/>
     </row>
     <row r="87" spans="3:8">
       <c r="C87" s="17" t="s">
@@ -29745,10 +24360,7 @@
       <c r="G87" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H87" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H87" s="2"/>
     </row>
     <row r="88" spans="3:8">
       <c r="C88" s="17" t="s">
@@ -29766,10 +24378,7 @@
       <c r="G88" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H88" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H88" s="2"/>
     </row>
     <row r="89" spans="3:8">
       <c r="C89" s="17" t="s">
@@ -29787,10 +24396,7 @@
       <c r="G89" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H89" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H89" s="2"/>
     </row>
     <row r="90" spans="3:8">
       <c r="C90" s="17" t="s">
@@ -29808,10 +24414,7 @@
       <c r="G90" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H90" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H90" s="2"/>
     </row>
     <row r="91" spans="3:8">
       <c r="C91" s="17" t="s">
@@ -29829,10 +24432,7 @@
       <c r="G91" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H91" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H91" s="2"/>
     </row>
     <row r="92" spans="3:8">
       <c r="C92" s="17" t="s">
@@ -29850,10 +24450,7 @@
       <c r="G92" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H92" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H92" s="2"/>
     </row>
     <row r="93" spans="3:8">
       <c r="C93" t="s">
@@ -29871,10 +24468,7 @@
       <c r="G93" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H93" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H93" s="2"/>
     </row>
     <row r="94" spans="3:8">
       <c r="C94" t="s">
@@ -29892,10 +24486,7 @@
       <c r="G94" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H94" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H94" s="2"/>
     </row>
     <row r="95" spans="3:8">
       <c r="C95" t="s">
@@ -29913,10 +24504,7 @@
       <c r="G95" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H95" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H95" s="2"/>
     </row>
     <row r="96" spans="3:8">
       <c r="C96" t="s">
@@ -29934,10 +24522,7 @@
       <c r="G96" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H96" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H96" s="2"/>
     </row>
     <row r="97" spans="3:10">
       <c r="C97" s="17" t="s">
@@ -29955,10 +24540,7 @@
       <c r="G97" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H97" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H97" s="2"/>
     </row>
     <row r="98" spans="3:10">
       <c r="C98" t="s">
@@ -29976,10 +24558,7 @@
       <c r="G98" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H98" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H98" s="2"/>
     </row>
     <row r="99" spans="3:10">
       <c r="C99" s="17" t="s">
@@ -29997,10 +24576,7 @@
       <c r="G99" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H99" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H99" s="2"/>
     </row>
     <row r="100" spans="3:10">
       <c r="C100" t="s">
@@ -30018,10 +24594,7 @@
       <c r="G100" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H100" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H100" s="2"/>
     </row>
     <row r="101" spans="3:10">
       <c r="C101" s="17" t="s">
@@ -30039,10 +24612,7 @@
       <c r="G101" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H101" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H101" s="2"/>
     </row>
     <row r="102" spans="3:10">
       <c r="C102" s="17" t="s">
@@ -30060,10 +24630,7 @@
       <c r="G102" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H102" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H102" s="2"/>
     </row>
     <row r="103" spans="3:10">
       <c r="C103" s="17" t="s">
@@ -30081,10 +24648,7 @@
       <c r="G103" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H103" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H103" s="2"/>
     </row>
     <row r="104" spans="3:10">
       <c r="C104" s="17" t="s">
@@ -30102,10 +24666,7 @@
       <c r="G104" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H104" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H104" s="2"/>
     </row>
     <row r="105" spans="3:10">
       <c r="C105" s="17" t="s">
@@ -30123,10 +24684,7 @@
       <c r="G105" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H105" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H105" s="2"/>
     </row>
     <row r="106" spans="3:10">
       <c r="C106" s="17" t="s">
@@ -30144,10 +24702,7 @@
       <c r="G106" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H106" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H106" s="2"/>
     </row>
     <row r="107" spans="3:10">
       <c r="C107" s="17" t="s">
@@ -30165,10 +24720,7 @@
       <c r="G107" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H107" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H107" s="2"/>
     </row>
     <row r="108" spans="3:10">
       <c r="C108" s="17" t="s">
@@ -30186,10 +24738,7 @@
       <c r="G108" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H108" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H108" s="2"/>
     </row>
     <row r="109" spans="3:10">
       <c r="C109" s="17" t="s">
@@ -30207,10 +24756,7 @@
       <c r="G109" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H109" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H109" s="2"/>
     </row>
     <row r="110" spans="3:10">
       <c r="C110" s="17" t="s">
@@ -30228,10 +24774,7 @@
       <c r="G110" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H110" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H110" s="2"/>
     </row>
     <row r="111" spans="3:10">
       <c r="C111" s="17" t="s">
@@ -30249,10 +24792,7 @@
       <c r="G111" s="2" t="s">
         <v>546</v>
       </c>
-      <c r="H111" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H111" s="2"/>
     </row>
     <row r="112" spans="3:10">
       <c r="C112" s="29" t="s">
@@ -30270,10 +24810,7 @@
       <c r="G112" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H112" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H112" s="2"/>
       <c r="I112"/>
       <c r="J112"/>
     </row>
@@ -30293,10 +24830,7 @@
       <c r="G113" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H113" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v>DAYNITE</v>
-      </c>
+      <c r="H113" s="2"/>
     </row>
     <row r="114" spans="3:8">
       <c r="C114" s="29" t="s">
@@ -30314,10 +24848,7 @@
       <c r="G114" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H114" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H114" s="2"/>
     </row>
     <row r="115" spans="3:8">
       <c r="C115" s="29" t="s">
@@ -30335,10 +24866,7 @@
       <c r="G115" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H115" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H115" s="2"/>
     </row>
     <row r="116" spans="3:8">
       <c r="C116" s="29" t="s">
@@ -30356,10 +24884,7 @@
       <c r="G116" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H116" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H116" s="2"/>
     </row>
     <row r="117" spans="3:8">
       <c r="C117" s="29" t="s">
@@ -30377,10 +24902,7 @@
       <c r="G117" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H117" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H117" s="2"/>
     </row>
     <row r="118" spans="3:8">
       <c r="C118" s="29" t="s">
@@ -30398,10 +24920,7 @@
       <c r="G118" s="27" t="s">
         <v>546</v>
       </c>
-      <c r="H118" s="2" t="str">
-        <f t="shared" si="0"/>
-        <v/>
-      </c>
+      <c r="H118" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
@@ -1,26 +1,27 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27126"/>
   <workbookPr codeName="ThisWorkbook" defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\weerasa\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\greeda\git\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FE847799-D0C1-41DF-A131-75C813B47472}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0872A6F-53B2-4810-92DF-9A013A2E3710}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5025" yWindow="-18120" windowWidth="29040" windowHeight="17520" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="OTH_COM" sheetId="9" r:id="rId1"/>
-    <sheet name="OTH_RES" sheetId="11" r:id="rId2"/>
+    <sheet name="Documentation" sheetId="12" r:id="rId1"/>
+    <sheet name="OTH_COM" sheetId="9" r:id="rId2"/>
+    <sheet name="OTH_RES" sheetId="11" r:id="rId3"/>
   </sheets>
   <externalReferences>
-    <externalReference r:id="rId3"/>
+    <externalReference r:id="rId4"/>
   </externalReferences>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">OTH_COM!$C$3:$X$281</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">OTH_COM!$C$3:$X$281</definedName>
     <definedName name="FID_1">[1]AGR_Fuels!$A$2</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4463" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="749">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2277,6 +2278,15 @@
   </si>
   <si>
     <t>Oven</t>
+  </si>
+  <si>
+    <t>Worksheet: Residential and Commercial Future Technologies</t>
+  </si>
+  <si>
+    <t>OTH_COM: Commercial sector future technology defintions and parameters</t>
+  </si>
+  <si>
+    <t>OTH_RES: Residential sector future technology defintions and parameters</t>
   </si>
 </sst>
 </file>
@@ -3040,16 +3050,46 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D7F8BED5-660F-4A30-B34E-C818B5F55302}">
+  <dimension ref="A1:A3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H19" sqref="H19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="12.75" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>746</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A2" t="s">
+        <v>747</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A3" t="s">
+        <v>748</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <sheetPr filterMode="1"/>
   <dimension ref="C3:X1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G359" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="G19" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="F383" sqref="F383"/>
+      <selection pane="bottomRight" activeCell="H376" sqref="H376"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -30855,7 +30895,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:W118"/>
   <sheetViews>

--- a/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
+++ b/TIMES-NZ/SubRES_TMPL/SubRES_NewTech_RC.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\cattonw\git\TIMES-NZ-Model-Files\TIMES-NZ\SubRES_TMPL\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E8A59894-2156-4303-A038-3707366048AD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A7735968-DDED-4227-9D0E-4E86D873F627}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Documentation" sheetId="12" r:id="rId1"/>
@@ -40,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4466" uniqueCount="747">
   <si>
     <t>~FI_T</t>
   </si>
@@ -2245,12 +2245,6 @@
   </si>
   <si>
     <t>Green Hydrogen</t>
-  </si>
-  <si>
-    <t>Heat Pump (Air Source)</t>
-  </si>
-  <si>
-    <t>Heat Pump (Ground Source)</t>
   </si>
   <si>
     <t xml:space="preserve">Instantaneous Water Heater </t>
@@ -2385,7 +2379,7 @@
       <family val="2"/>
     </font>
   </fonts>
-  <fills count="12">
+  <fills count="13">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2452,6 +2446,12 @@
         <bgColor indexed="65"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="4">
     <border>
@@ -2509,7 +2509,7 @@
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="53">
+  <cellXfs count="54">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -2599,6 +2599,7 @@
     <xf numFmtId="2" fontId="3" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="2" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1"/>
     <xf numFmtId="2" fontId="4" fillId="0" borderId="0" xfId="3" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="164" fontId="0" fillId="12" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="14">
     <cellStyle name="20% - Accent5 25 2" xfId="13" xr:uid="{FDAAC7F7-3978-4255-B44C-88390B2E6828}"/>
@@ -3061,17 +3062,17 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
-        <v>746</v>
+        <v>744</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
-        <v>747</v>
+        <v>745</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
-        <v>748</v>
+        <v>746</v>
       </c>
     </row>
   </sheetData>
@@ -3084,12 +3085,12 @@
   <sheetPr filterMode="1"/>
   <dimension ref="C3:X1204"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
-      <pane xSplit="4" ySplit="3" topLeftCell="G312" activePane="bottomRight" state="frozen"/>
+    <sheetView topLeftCell="C3" zoomScale="90" zoomScaleNormal="90" workbookViewId="0">
+      <pane xSplit="4" ySplit="3" topLeftCell="G293" activePane="bottomRight" state="frozen"/>
       <selection activeCell="C3" sqref="C3"/>
       <selection pane="topRight" activeCell="G3" sqref="G3"/>
       <selection pane="bottomLeft" activeCell="C6" sqref="C6"/>
-      <selection pane="bottomRight" activeCell="I342" sqref="I342"/>
+      <selection pane="bottomRight" activeCell="H312" sqref="A3:X1204"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -17690,14 +17691,14 @@
         <v>688</v>
       </c>
       <c r="H311" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I311" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J311" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Commercial -:- Education -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Education -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K311" s="17" t="s">
         <v>101</v>
@@ -17726,14 +17727,14 @@
         <v>688</v>
       </c>
       <c r="H312" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I312" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J312" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Commercial -:- Education -:- Space Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Education -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K312" s="17" t="s">
         <v>104</v>
@@ -17798,14 +17799,14 @@
         <v>690</v>
       </c>
       <c r="H314" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I314" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J314" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Commercial -:- Education -:- Water Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Education -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K314" s="17" t="s">
         <v>101</v>
@@ -17834,14 +17835,14 @@
         <v>690</v>
       </c>
       <c r="H315" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I315" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J315" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Commercial -:- Education -:- Water Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Education -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K315" s="17" t="s">
         <v>104</v>
@@ -17978,7 +17979,7 @@
         <v>690</v>
       </c>
       <c r="H319" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I319" s="17" t="s">
         <v>701</v>
@@ -18014,7 +18015,7 @@
         <v>690</v>
       </c>
       <c r="H320" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I320" s="17" t="s">
         <v>705</v>
@@ -18050,7 +18051,7 @@
         <v>690</v>
       </c>
       <c r="H321" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I321" s="17" t="s">
         <v>697</v>
@@ -18086,7 +18087,7 @@
         <v>722</v>
       </c>
       <c r="H322" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I322" s="17" t="s">
         <v>731</v>
@@ -18122,10 +18123,10 @@
         <v>722</v>
       </c>
       <c r="H323" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I323" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J323" s="17" t="str">
         <f t="shared" si="0"/>
@@ -18158,7 +18159,7 @@
         <v>722</v>
       </c>
       <c r="H324" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I324" s="17" t="s">
         <v>705</v>
@@ -18194,7 +18195,7 @@
         <v>722</v>
       </c>
       <c r="H325" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I325" s="17" t="s">
         <v>697</v>
@@ -18230,7 +18231,7 @@
         <v>722</v>
       </c>
       <c r="H326" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I326" s="17" t="s">
         <v>734</v>
@@ -18266,7 +18267,7 @@
         <v>723</v>
       </c>
       <c r="H327" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I327" s="17" t="s">
         <v>731</v>
@@ -18302,10 +18303,10 @@
         <v>723</v>
       </c>
       <c r="H328" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I328" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J328" s="17" t="str">
         <f t="shared" si="0"/>
@@ -18338,7 +18339,7 @@
         <v>723</v>
       </c>
       <c r="H329" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I329" s="17" t="s">
         <v>705</v>
@@ -18374,7 +18375,7 @@
         <v>723</v>
       </c>
       <c r="H330" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I330" s="17" t="s">
         <v>697</v>
@@ -18410,7 +18411,7 @@
         <v>723</v>
       </c>
       <c r="H331" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I331" s="17" t="s">
         <v>734</v>
@@ -19765,10 +19766,10 @@
         <v>690</v>
       </c>
       <c r="H369" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I369" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J369" s="17" t="str">
         <f t="shared" si="1"/>
@@ -19801,14 +19802,14 @@
         <v>688</v>
       </c>
       <c r="H370" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I370" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J370" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K370" s="17" t="s">
         <v>206</v>
@@ -19837,14 +19838,14 @@
         <v>688</v>
       </c>
       <c r="H371" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I371" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J371" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Space Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K371" s="17" t="s">
         <v>209</v>
@@ -19909,14 +19910,14 @@
         <v>690</v>
       </c>
       <c r="H373" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I373" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J373" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Water Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K373" s="17" t="s">
         <v>206</v>
@@ -19945,14 +19946,14 @@
         <v>690</v>
       </c>
       <c r="H374" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I374" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J374" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Water Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K374" s="17" t="s">
         <v>209</v>
@@ -20089,7 +20090,7 @@
         <v>690</v>
       </c>
       <c r="H378" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I378" s="17" t="s">
         <v>701</v>
@@ -20125,7 +20126,7 @@
         <v>690</v>
       </c>
       <c r="H379" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I379" s="17" t="s">
         <v>705</v>
@@ -20161,7 +20162,7 @@
         <v>690</v>
       </c>
       <c r="H380" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I380" s="17" t="s">
         <v>697</v>
@@ -20233,7 +20234,7 @@
         <v>722</v>
       </c>
       <c r="H382" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I382" s="17" t="s">
         <v>731</v>
@@ -20269,10 +20270,10 @@
         <v>722</v>
       </c>
       <c r="H383" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I383" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J383" s="17" t="str">
         <f t="shared" si="1"/>
@@ -20305,7 +20306,7 @@
         <v>722</v>
       </c>
       <c r="H384" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I384" s="17" t="s">
         <v>705</v>
@@ -20341,7 +20342,7 @@
         <v>722</v>
       </c>
       <c r="H385" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I385" s="17" t="s">
         <v>697</v>
@@ -20377,7 +20378,7 @@
         <v>722</v>
       </c>
       <c r="H386" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I386" s="17" t="s">
         <v>734</v>
@@ -20413,7 +20414,7 @@
         <v>723</v>
       </c>
       <c r="H387" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I387" s="17" t="s">
         <v>731</v>
@@ -20449,10 +20450,10 @@
         <v>723</v>
       </c>
       <c r="H388" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I388" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J388" s="17" t="str">
         <f t="shared" si="1"/>
@@ -20485,7 +20486,7 @@
         <v>723</v>
       </c>
       <c r="H389" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I389" s="17" t="s">
         <v>705</v>
@@ -20521,7 +20522,7 @@
         <v>723</v>
       </c>
       <c r="H390" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I390" s="17" t="s">
         <v>697</v>
@@ -20557,7 +20558,7 @@
         <v>723</v>
       </c>
       <c r="H391" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I391" s="17" t="s">
         <v>734</v>
@@ -20629,14 +20630,14 @@
         <v>689</v>
       </c>
       <c r="H393" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I393" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J393" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Space Cooling -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K393" s="17" t="s">
         <v>252</v>
@@ -20665,14 +20666,14 @@
         <v>689</v>
       </c>
       <c r="H394" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I394" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J394" s="17" t="str">
         <f t="shared" si="1"/>
-        <v>Commercial -:- Healthcare -:- Space Cooling -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Healthcare -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K394" s="17" t="s">
         <v>253</v>
@@ -21586,14 +21587,14 @@
         <v>688</v>
       </c>
       <c r="H420" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I420" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J420" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K420" s="17" t="s">
         <v>297</v>
@@ -21622,14 +21623,14 @@
         <v>688</v>
       </c>
       <c r="H421" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I421" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J421" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K421" s="17" t="s">
         <v>300</v>
@@ -21694,14 +21695,14 @@
         <v>688</v>
       </c>
       <c r="H423" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I423" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J423" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K423" s="17" t="s">
         <v>297</v>
@@ -21730,14 +21731,14 @@
         <v>690</v>
       </c>
       <c r="H424" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I424" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J424" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Water Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K424" s="17" t="s">
         <v>300</v>
@@ -21874,7 +21875,7 @@
         <v>690</v>
       </c>
       <c r="H428" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I428" s="17" t="s">
         <v>701</v>
@@ -21910,7 +21911,7 @@
         <v>690</v>
       </c>
       <c r="H429" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I429" s="17" t="s">
         <v>705</v>
@@ -21946,7 +21947,7 @@
         <v>690</v>
       </c>
       <c r="H430" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I430" s="17" t="s">
         <v>697</v>
@@ -21982,7 +21983,7 @@
         <v>722</v>
       </c>
       <c r="H431" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I431" s="17" t="s">
         <v>731</v>
@@ -22018,10 +22019,10 @@
         <v>722</v>
       </c>
       <c r="H432" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I432" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J432" s="17" t="str">
         <f t="shared" si="2"/>
@@ -22054,7 +22055,7 @@
         <v>722</v>
       </c>
       <c r="H433" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I433" s="17" t="s">
         <v>705</v>
@@ -22090,7 +22091,7 @@
         <v>722</v>
       </c>
       <c r="H434" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I434" s="17" t="s">
         <v>697</v>
@@ -22126,7 +22127,7 @@
         <v>722</v>
       </c>
       <c r="H435" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I435" s="17" t="s">
         <v>734</v>
@@ -22162,7 +22163,7 @@
         <v>723</v>
       </c>
       <c r="H436" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I436" s="17" t="s">
         <v>731</v>
@@ -22198,10 +22199,10 @@
         <v>723</v>
       </c>
       <c r="H437" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I437" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J437" s="17" t="str">
         <f t="shared" si="2"/>
@@ -22234,7 +22235,7 @@
         <v>723</v>
       </c>
       <c r="H438" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I438" s="17" t="s">
         <v>705</v>
@@ -22270,7 +22271,7 @@
         <v>723</v>
       </c>
       <c r="H439" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I439" s="17" t="s">
         <v>697</v>
@@ -22306,7 +22307,7 @@
         <v>723</v>
       </c>
       <c r="H440" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I440" s="17" t="s">
         <v>734</v>
@@ -22342,14 +22343,14 @@
         <v>689</v>
       </c>
       <c r="H441" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I441" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J441" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Space Cooling -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K441" s="17" t="s">
         <v>339</v>
@@ -22378,14 +22379,14 @@
         <v>689</v>
       </c>
       <c r="H442" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I442" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J442" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Office Blocks -:- Space Cooling -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Office Blocks -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K442" s="17" t="s">
         <v>340</v>
@@ -22471,7 +22472,7 @@
         <v>692</v>
       </c>
       <c r="H445" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I445" s="17" t="s">
         <v>697</v>
@@ -22507,7 +22508,7 @@
         <v>692</v>
       </c>
       <c r="H446" s="17" t="s">
-        <v>744</v>
+        <v>742</v>
       </c>
       <c r="I446" s="17" t="s">
         <v>697</v>
@@ -22543,7 +22544,7 @@
         <v>692</v>
       </c>
       <c r="H447" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I447" s="17" t="s">
         <v>701</v>
@@ -22579,7 +22580,7 @@
         <v>692</v>
       </c>
       <c r="H448" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I448" s="17" t="s">
         <v>705</v>
@@ -22615,7 +22616,7 @@
         <v>692</v>
       </c>
       <c r="H449" s="17" t="s">
-        <v>743</v>
+        <v>741</v>
       </c>
       <c r="I449" s="17" t="s">
         <v>734</v>
@@ -22651,7 +22652,7 @@
         <v>692</v>
       </c>
       <c r="H450" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I450" s="17" t="s">
         <v>697</v>
@@ -22687,7 +22688,7 @@
         <v>692</v>
       </c>
       <c r="H451" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I451" s="17" t="s">
         <v>705</v>
@@ -22723,7 +22724,7 @@
         <v>692</v>
       </c>
       <c r="H452" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I452" s="17" t="s">
         <v>701</v>
@@ -22759,7 +22760,7 @@
         <v>692</v>
       </c>
       <c r="H453" s="17" t="s">
-        <v>745</v>
+        <v>743</v>
       </c>
       <c r="I453" s="17" t="s">
         <v>734</v>
@@ -23623,10 +23624,10 @@
         <v>688</v>
       </c>
       <c r="H477" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I477" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J477" s="17" t="str">
         <f t="shared" si="2"/>
@@ -23659,14 +23660,14 @@
         <v>688</v>
       </c>
       <c r="H478" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I478" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J478" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K478" s="17" t="s">
         <v>405</v>
@@ -23695,14 +23696,14 @@
         <v>688</v>
       </c>
       <c r="H479" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I479" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J479" s="17" t="str">
         <f t="shared" si="2"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K479" s="17" t="s">
         <v>408</v>
@@ -23767,14 +23768,14 @@
         <v>688</v>
       </c>
       <c r="H481" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I481" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J481" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K481" s="17" t="s">
         <v>405</v>
@@ -23803,14 +23804,14 @@
         <v>690</v>
       </c>
       <c r="H482" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I482" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J482" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Water Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K482" s="17" t="s">
         <v>408</v>
@@ -23947,7 +23948,7 @@
         <v>690</v>
       </c>
       <c r="H486" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I486" s="17" t="s">
         <v>701</v>
@@ -23983,7 +23984,7 @@
         <v>690</v>
       </c>
       <c r="H487" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I487" s="17" t="s">
         <v>705</v>
@@ -24019,7 +24020,7 @@
         <v>690</v>
       </c>
       <c r="H488" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I488" s="17" t="s">
         <v>697</v>
@@ -24055,7 +24056,7 @@
         <v>722</v>
       </c>
       <c r="H489" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I489" s="17" t="s">
         <v>731</v>
@@ -24091,10 +24092,10 @@
         <v>722</v>
       </c>
       <c r="H490" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I490" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J490" s="17" t="str">
         <f t="shared" si="3"/>
@@ -24127,7 +24128,7 @@
         <v>722</v>
       </c>
       <c r="H491" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I491" s="17" t="s">
         <v>705</v>
@@ -24163,7 +24164,7 @@
         <v>722</v>
       </c>
       <c r="H492" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I492" s="17" t="s">
         <v>697</v>
@@ -24199,7 +24200,7 @@
         <v>722</v>
       </c>
       <c r="H493" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I493" s="17" t="s">
         <v>734</v>
@@ -24235,7 +24236,7 @@
         <v>723</v>
       </c>
       <c r="H494" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I494" s="17" t="s">
         <v>731</v>
@@ -24271,10 +24272,10 @@
         <v>723</v>
       </c>
       <c r="H495" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I495" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J495" s="17" t="str">
         <f t="shared" si="3"/>
@@ -24307,7 +24308,7 @@
         <v>723</v>
       </c>
       <c r="H496" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I496" s="17" t="s">
         <v>705</v>
@@ -24343,7 +24344,7 @@
         <v>723</v>
       </c>
       <c r="H497" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I497" s="17" t="s">
         <v>697</v>
@@ -24379,7 +24380,7 @@
         <v>723</v>
       </c>
       <c r="H498" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I498" s="17" t="s">
         <v>734</v>
@@ -24451,14 +24452,14 @@
         <v>689</v>
       </c>
       <c r="H500" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I500" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J500" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Cooling -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K500" s="17" t="s">
         <v>450</v>
@@ -24487,14 +24488,14 @@
         <v>689</v>
       </c>
       <c r="H501" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I501" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J501" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Cooling -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Warehouses/Supermarkets/Retail -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K501" s="17" t="s">
         <v>451</v>
@@ -25408,10 +25409,10 @@
         <v>690</v>
       </c>
       <c r="H527" s="17" t="s">
-        <v>741</v>
+        <v>739</v>
       </c>
       <c r="I527" s="17" t="s">
-        <v>742</v>
+        <v>740</v>
       </c>
       <c r="J527" s="17" t="str">
         <f t="shared" si="3"/>
@@ -25444,14 +25445,14 @@
         <v>688</v>
       </c>
       <c r="H528" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I528" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J528" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K528" s="17" t="s">
         <v>497</v>
@@ -25480,14 +25481,14 @@
         <v>688</v>
       </c>
       <c r="H529" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I529" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J529" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K529" s="17" t="s">
         <v>500</v>
@@ -25552,14 +25553,14 @@
         <v>690</v>
       </c>
       <c r="H531" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I531" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J531" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Other (Commercial) -:- Water Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K531" s="17" t="s">
         <v>497</v>
@@ -25588,14 +25589,14 @@
         <v>690</v>
       </c>
       <c r="H532" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I532" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J532" s="17" t="str">
         <f t="shared" si="3"/>
-        <v>Commercial -:- Other (Commercial) -:- Water Heating -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Water Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K532" s="17" t="s">
         <v>500</v>
@@ -25732,7 +25733,7 @@
         <v>690</v>
       </c>
       <c r="H536" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I536" s="17" t="s">
         <v>701</v>
@@ -25768,7 +25769,7 @@
         <v>690</v>
       </c>
       <c r="H537" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I537" s="17" t="s">
         <v>705</v>
@@ -25804,7 +25805,7 @@
         <v>690</v>
       </c>
       <c r="H538" s="17" t="s">
-        <v>737</v>
+        <v>735</v>
       </c>
       <c r="I538" s="17" t="s">
         <v>697</v>
@@ -25840,7 +25841,7 @@
         <v>722</v>
       </c>
       <c r="H539" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I539" s="17" t="s">
         <v>731</v>
@@ -25877,10 +25878,10 @@
         <v>722</v>
       </c>
       <c r="H540" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I540" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J540" s="17" t="str">
         <f t="shared" si="3"/>
@@ -25914,7 +25915,7 @@
         <v>722</v>
       </c>
       <c r="H541" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I541" s="17" t="s">
         <v>705</v>
@@ -25951,7 +25952,7 @@
         <v>722</v>
       </c>
       <c r="H542" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I542" s="17" t="s">
         <v>732</v>
@@ -25988,7 +25989,7 @@
         <v>722</v>
       </c>
       <c r="H543" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I543" s="17" t="s">
         <v>697</v>
@@ -26025,7 +26026,7 @@
         <v>722</v>
       </c>
       <c r="H544" s="17" t="s">
-        <v>738</v>
+        <v>736</v>
       </c>
       <c r="I544" s="17" t="s">
         <v>734</v>
@@ -26061,7 +26062,7 @@
         <v>723</v>
       </c>
       <c r="H545" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I545" s="17" t="s">
         <v>731</v>
@@ -26097,10 +26098,10 @@
         <v>723</v>
       </c>
       <c r="H546" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I546" s="17" t="s">
-        <v>739</v>
+        <v>737</v>
       </c>
       <c r="J546" s="17" t="str">
         <f t="shared" si="4"/>
@@ -26133,7 +26134,7 @@
         <v>723</v>
       </c>
       <c r="H547" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I547" s="17" t="s">
         <v>705</v>
@@ -26169,7 +26170,7 @@
         <v>723</v>
       </c>
       <c r="H548" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I548" s="17" t="s">
         <v>697</v>
@@ -26205,7 +26206,7 @@
         <v>723</v>
       </c>
       <c r="H549" s="17" t="s">
-        <v>740</v>
+        <v>738</v>
       </c>
       <c r="I549" s="17" t="s">
         <v>734</v>
@@ -26264,14 +26265,14 @@
         <v>688</v>
       </c>
       <c r="H551" s="17" t="s">
-        <v>735</v>
+        <v>696</v>
       </c>
       <c r="I551" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J551" s="17" t="str">
         <f xml:space="preserve"> _xlfn.CONCAT( E551, " -:- ", F551, " -:- ", G551, " -:- ", H551, " -:- ", I551 )</f>
-        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump (Air Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Space Heating -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K551" s="17" t="s">
         <v>543</v>
@@ -26300,14 +26301,14 @@
         <v>689</v>
       </c>
       <c r="H552" s="17" t="s">
-        <v>736</v>
+        <v>696</v>
       </c>
       <c r="I552" s="17" t="s">
         <v>697</v>
       </c>
       <c r="J552" s="17" t="str">
         <f t="shared" si="4"/>
-        <v>Commercial -:- Other (Commercial) -:- Space Cooling -:- Heat Pump (Ground Source) -:- Electricity</v>
+        <v>Commercial -:- Other (Commercial) -:- Space Cooling -:- Heat Pump -:- Electricity</v>
       </c>
       <c r="K552" s="17" t="s">
         <v>544</v>
@@ -30899,8 +30900,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="C4:W118"/>
   <sheetViews>
-    <sheetView zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="H5" sqref="H5"/>
+    <sheetView tabSelected="1" topLeftCell="A57" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
+      <selection activeCell="G76" sqref="G76"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -33761,8 +33762,8 @@
       <c r="F76" s="17" t="s">
         <v>680</v>
       </c>
-      <c r="G76" s="17" t="s">
-        <v>688</v>
+      <c r="G76" s="53" t="s">
+        <v>689</v>
       </c>
       <c r="H76" s="17" t="s">
         <v>698</v>
@@ -33772,7 +33773,7 @@
       </c>
       <c r="J76" s="17" t="str">
         <f t="shared" si="0"/>
-        <v>Residential -:- Detached Dwellings -:- Space Heating -:- Heat Pump (Ducted) -:- Electricity</v>
+        <v>Residential -:- Detached Dwellings -:- Space Cooling -:- Heat Pump (Ducted) -:- Electricity</v>
       </c>
       <c r="K76" s="17" t="s">
         <v>577</v>
